--- a/コントローラ履歴/コントローラ品番一覧.xlsx
+++ b/コントローラ履歴/コントローラ品番一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117029\Documents\Git\myTest\コントローラ履歴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9ADCF9-7C69-481B-AC19-0F35E2E91B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F4DFD-F3A7-4975-AD60-EE34489B79FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="品番" sheetId="37" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9846" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9850" uniqueCount="1772">
   <si>
     <t>メインプログラム</t>
     <phoneticPr fontId="1"/>
@@ -10085,34 +10085,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>05742-00277</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00306</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00323</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00334</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00335</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00359</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05742-00773</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V2.19</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10250,10 +10222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>05542-00173</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>63124</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10274,14 +10242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>05542-00411</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05542-00412</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V2.13</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10335,18 +10295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>05642-00683</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05642-00924</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05642-00998</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V1.10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10356,18 +10304,6 @@
   </si>
   <si>
     <t>V2.03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05542-00549</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05542-00559</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05542-00639</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10755,10 +10691,6 @@
   </si>
   <si>
     <t>63310</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03742-00529</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -11281,7 +11213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12593,7 +12525,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -16751,13 +16682,13 @@
         <v>174</v>
       </c>
       <c r="F133" s="394" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="H133" s="255">
         <v>49120</v>
       </c>
       <c r="I133" s="291" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -18021,19 +17952,19 @@
         <v>1383</v>
       </c>
       <c r="D203" s="244" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="E203" s="244" t="s">
         <v>172</v>
       </c>
       <c r="F203" s="384" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="H203">
         <v>63567</v>
       </c>
       <c r="I203" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="204" spans="2:9">
@@ -18044,22 +17975,22 @@
         <v>1383</v>
       </c>
       <c r="D204" s="244" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="E204" s="244" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F204" s="439" t="s">
-        <v>1779</v>
+        <v>1764</v>
+      </c>
+      <c r="F204" s="384" t="s">
+        <v>1763</v>
       </c>
       <c r="G204" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="H204">
         <v>63310</v>
       </c>
       <c r="I204" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -18084,8 +18015,8 @@
   <dimension ref="A1:Q721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A708" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M716" sqref="M716"/>
+      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L683" sqref="L683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="24" customHeight="1"/>
@@ -18142,7 +18073,7 @@
       </c>
       <c r="L1" s="176"/>
       <c r="M1" s="392" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" ht="30" customHeight="1">
@@ -18172,7 +18103,7 @@
         <v>03242-00069-00</v>
       </c>
       <c r="M2" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
@@ -18208,7 +18139,7 @@
         <v>03342-00130-00</v>
       </c>
       <c r="M3" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -18246,7 +18177,7 @@
         <v>03342-00163-00</v>
       </c>
       <c r="M4" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -18282,7 +18213,7 @@
         <v>03342-00189-00</v>
       </c>
       <c r="M5" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -18316,7 +18247,7 @@
         <v>03342-00252-00</v>
       </c>
       <c r="M6" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
@@ -18348,7 +18279,7 @@
         <v>03342-00252-01</v>
       </c>
       <c r="M7" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
@@ -18380,7 +18311,7 @@
         <v>03342-00252-02</v>
       </c>
       <c r="M8" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -18412,7 +18343,7 @@
         <v>03342-00252-03</v>
       </c>
       <c r="M9" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -18444,7 +18375,7 @@
         <v>03342-00252-04</v>
       </c>
       <c r="M10" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -18476,7 +18407,7 @@
         <v>03342-00252-05</v>
       </c>
       <c r="M11" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -18508,7 +18439,7 @@
         <v>03342-00252-06</v>
       </c>
       <c r="M12" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
@@ -18542,7 +18473,7 @@
         <v>03342-00252-07</v>
       </c>
       <c r="M13" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -18578,7 +18509,7 @@
         <v>03342-00515-00</v>
       </c>
       <c r="M14" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
@@ -18610,7 +18541,7 @@
         <v>03342-00516-00</v>
       </c>
       <c r="M15" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
@@ -18642,7 +18573,7 @@
         <v>03342-00534-00</v>
       </c>
       <c r="M16" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
@@ -18676,7 +18607,7 @@
         <v>03342-00535-00</v>
       </c>
       <c r="M17" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
@@ -18708,7 +18639,7 @@
         <v>03442-00020-00</v>
       </c>
       <c r="M18" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -18740,7 +18671,7 @@
         <v>03442-00020-01</v>
       </c>
       <c r="M19" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
@@ -18770,7 +18701,7 @@
         <v>03442-00020-02</v>
       </c>
       <c r="M20" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
@@ -18802,7 +18733,7 @@
         <v>03442-00020-03</v>
       </c>
       <c r="M21" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N21" s="18"/>
       <c r="O21" s="17"/>
@@ -18834,7 +18765,7 @@
         <v>03442-00020-04</v>
       </c>
       <c r="M22" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N22" s="18"/>
       <c r="O22" s="17"/>
@@ -18866,7 +18797,7 @@
         <v>03442-00020-05</v>
       </c>
       <c r="M23" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="17"/>
@@ -18898,7 +18829,7 @@
         <v>03442-00020-06</v>
       </c>
       <c r="M24" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -18930,7 +18861,7 @@
         <v>03442-00020-07</v>
       </c>
       <c r="M25" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -18966,7 +18897,7 @@
         <v>03442-00020-08</v>
       </c>
       <c r="M26" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -19006,7 +18937,7 @@
         <v>03442-00020-09</v>
       </c>
       <c r="M27" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
@@ -19044,7 +18975,7 @@
         <v>03442-00195-00</v>
       </c>
       <c r="M28" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -19076,7 +19007,7 @@
         <v>03442-00195-01</v>
       </c>
       <c r="M29" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
@@ -19108,7 +19039,7 @@
         <v>03442-00195-02</v>
       </c>
       <c r="M30" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -19140,7 +19071,7 @@
         <v>03442-00195-03</v>
       </c>
       <c r="M31" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
@@ -19176,7 +19107,7 @@
         <v>03442-00195-04</v>
       </c>
       <c r="M32" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
@@ -19216,7 +19147,7 @@
         <v>03442-00195-05</v>
       </c>
       <c r="M33" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -19252,7 +19183,7 @@
         <v>03542-00020-00</v>
       </c>
       <c r="M34" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -19284,7 +19215,7 @@
         <v>03542-00020-01</v>
       </c>
       <c r="M35" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
@@ -19316,7 +19247,7 @@
         <v>03542-00020-02</v>
       </c>
       <c r="M36" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -19348,7 +19279,7 @@
         <v>03542-00020-03</v>
       </c>
       <c r="M37" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
@@ -19380,7 +19311,7 @@
         <v>03542-00020-04</v>
       </c>
       <c r="M38" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
@@ -19412,7 +19343,7 @@
         <v>03542-00020-05</v>
       </c>
       <c r="M39" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
@@ -19444,7 +19375,7 @@
         <v>03542-00020-06</v>
       </c>
       <c r="M40" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
@@ -19476,7 +19407,7 @@
         <v>03542-00020-07</v>
       </c>
       <c r="M41" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
@@ -19508,7 +19439,7 @@
         <v>03542-00020-08</v>
       </c>
       <c r="M42" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
@@ -19540,7 +19471,7 @@
         <v>03542-00020-09</v>
       </c>
       <c r="M43" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
@@ -19572,7 +19503,7 @@
         <v>03542-00020-10</v>
       </c>
       <c r="M44" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="24.95" customHeight="1">
@@ -19600,7 +19531,7 @@
         <v>03542-00020-11</v>
       </c>
       <c r="M45" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -19640,7 +19571,7 @@
         <v>03542-00020-12</v>
       </c>
       <c r="M46" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
@@ -19674,7 +19605,7 @@
         <v>03542-00063-00</v>
       </c>
       <c r="M47" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -19706,7 +19637,7 @@
         <v>03542-00063-01</v>
       </c>
       <c r="M48" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -19740,7 +19671,7 @@
         <v>03542-00063-02</v>
       </c>
       <c r="M49" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
@@ -19780,7 +19711,7 @@
         <v>03542-00063-03</v>
       </c>
       <c r="M50" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
@@ -19816,7 +19747,7 @@
         <v>03542-00065-00</v>
       </c>
       <c r="M51" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1">
@@ -19844,7 +19775,7 @@
         <v>03542-00065-01</v>
       </c>
       <c r="M52" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
@@ -19878,7 +19809,7 @@
         <v>03542-00065-02</v>
       </c>
       <c r="M53" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
@@ -19910,7 +19841,7 @@
         <v>03542-00065-03</v>
       </c>
       <c r="M54" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
@@ -19942,7 +19873,7 @@
         <v>03542-00065-04</v>
       </c>
       <c r="M55" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
@@ -19974,7 +19905,7 @@
         <v>03542-00065-05</v>
       </c>
       <c r="M56" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N56" s="18"/>
       <c r="O56" s="17"/>
@@ -20008,7 +19939,7 @@
         <v>03542-00065-06</v>
       </c>
       <c r="M57" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
@@ -20044,7 +19975,7 @@
         <v>03542-00065-07</v>
       </c>
       <c r="M58" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
@@ -20084,7 +20015,7 @@
         <v>03542-00065-08</v>
       </c>
       <c r="M59" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
@@ -20118,7 +20049,7 @@
         <v>03542-00070-00</v>
       </c>
       <c r="M60" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
@@ -20150,7 +20081,7 @@
         <v>03542-00070-01</v>
       </c>
       <c r="M61" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
@@ -20186,7 +20117,7 @@
         <v>03542-00070-02</v>
       </c>
       <c r="M62" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
@@ -20220,7 +20151,7 @@
         <v>03542-00091-00</v>
       </c>
       <c r="M63" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
@@ -20254,7 +20185,7 @@
         <v>03642-00034-00</v>
       </c>
       <c r="M64" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
@@ -20286,7 +20217,7 @@
         <v>03642-00034-01</v>
       </c>
       <c r="M65" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1">
@@ -20314,7 +20245,7 @@
         <v>03642-00034-02</v>
       </c>
       <c r="M66" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
@@ -20346,7 +20277,7 @@
         <v>03642-00034-03</v>
       </c>
       <c r="M67" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
@@ -20378,7 +20309,7 @@
         <v>03642-00034-04</v>
       </c>
       <c r="M68" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
@@ -20410,7 +20341,7 @@
         <v>03642-00034-05</v>
       </c>
       <c r="M69" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
@@ -20442,7 +20373,7 @@
         <v>03642-00034-06</v>
       </c>
       <c r="M70" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
@@ -20474,7 +20405,7 @@
         <v>03642-00034-07</v>
       </c>
       <c r="M71" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
@@ -20510,7 +20441,7 @@
         <v>03642-00034-08</v>
       </c>
       <c r="M72" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N72" s="18"/>
       <c r="O72" s="17"/>
@@ -20544,7 +20475,7 @@
         <v>03642-00072-00</v>
       </c>
       <c r="M73" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
@@ -20578,7 +20509,7 @@
         <v>03642-00327-00</v>
       </c>
       <c r="M74" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
@@ -20614,7 +20545,7 @@
         <v>03742-00133-00</v>
       </c>
       <c r="M75" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
@@ -20650,7 +20581,7 @@
         <v>03742-00133-01</v>
       </c>
       <c r="M76" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
@@ -20686,7 +20617,7 @@
         <v>03742-00133-02</v>
       </c>
       <c r="M77" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
@@ -20722,7 +20653,7 @@
         <v>03742-00133-03</v>
       </c>
       <c r="M78" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
@@ -20758,7 +20689,7 @@
         <v>03742-00133-04</v>
       </c>
       <c r="M79" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
@@ -20794,7 +20725,7 @@
         <v>03742-00133-05</v>
       </c>
       <c r="M80" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
@@ -20832,7 +20763,7 @@
         <v>03742-00133-06</v>
       </c>
       <c r="M81" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N81" s="18"/>
       <c r="O81" s="17"/>
@@ -20868,7 +20799,7 @@
         <v>03742-00133-07</v>
       </c>
       <c r="M82" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
@@ -20904,7 +20835,7 @@
         <v>03742-00133-08</v>
       </c>
       <c r="M83" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N83" s="18"/>
       <c r="O83" s="17"/>
@@ -20940,7 +20871,7 @@
         <v>03742-00133-09</v>
       </c>
       <c r="M84" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
@@ -20976,7 +20907,7 @@
         <v>03742-00133-10</v>
       </c>
       <c r="M85" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
@@ -21018,7 +20949,7 @@
         <v>03742-00133-11</v>
       </c>
       <c r="M86" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
@@ -21054,7 +20985,7 @@
         <v>03742-00133-12</v>
       </c>
       <c r="M87" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
@@ -21088,7 +21019,7 @@
         <v>03742-00414-00</v>
       </c>
       <c r="M88" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
@@ -21124,7 +21055,7 @@
         <v>03742-00529-00</v>
       </c>
       <c r="M89" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="24.95" customHeight="1">
@@ -21160,7 +21091,7 @@
         <v>03742-00529-01</v>
       </c>
       <c r="M90" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="24.95" customHeight="1">
@@ -21190,7 +21121,7 @@
         <v>03942-00087-00</v>
       </c>
       <c r="M91" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
@@ -21224,7 +21155,7 @@
         <v>03942-00087-01</v>
       </c>
       <c r="M92" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N92" s="18"/>
       <c r="O92" s="17"/>
@@ -21256,7 +21187,7 @@
         <v>03942-00087-02</v>
       </c>
       <c r="M93" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
@@ -21288,7 +21219,7 @@
         <v>03942-00087-03</v>
       </c>
       <c r="M94" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N94" s="18"/>
       <c r="O94" s="17"/>
@@ -21320,7 +21251,7 @@
         <v>03942-00087-04</v>
       </c>
       <c r="M95" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
@@ -21352,7 +21283,7 @@
         <v>03942-00087-05</v>
       </c>
       <c r="M96" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
@@ -21384,7 +21315,7 @@
         <v>03942-00087-06</v>
       </c>
       <c r="M97" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
@@ -21420,7 +21351,7 @@
         <v>03942-00087-07</v>
       </c>
       <c r="M98" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
@@ -21462,7 +21393,7 @@
         <v>03942-00087-08</v>
       </c>
       <c r="M99" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
@@ -21493,7 +21424,7 @@
         <v>05542-00024-00</v>
       </c>
       <c r="M100" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
@@ -21525,7 +21456,7 @@
         <v>05542-00024-01</v>
       </c>
       <c r="M101" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
@@ -21557,7 +21488,7 @@
         <v>05542-00024-02</v>
       </c>
       <c r="M102" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
@@ -21589,7 +21520,7 @@
         <v>05542-00024-03</v>
       </c>
       <c r="M103" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
@@ -21621,7 +21552,7 @@
         <v>05542-00024-04</v>
       </c>
       <c r="M104" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
@@ -21653,7 +21584,7 @@
         <v>05542-00024-05</v>
       </c>
       <c r="M105" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
@@ -21685,7 +21616,7 @@
         <v>05542-00024-06</v>
       </c>
       <c r="M106" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
@@ -21719,7 +21650,7 @@
         <v>05542-00024-07</v>
       </c>
       <c r="M107" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
@@ -21755,7 +21686,7 @@
         <v>05542-00025-00</v>
       </c>
       <c r="M108" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
@@ -21787,7 +21718,7 @@
         <v>05542-00025-01</v>
       </c>
       <c r="M109" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
@@ -21819,7 +21750,7 @@
         <v>05542-00025-02</v>
       </c>
       <c r="M110" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
@@ -21851,7 +21782,7 @@
         <v>05542-00025-03</v>
       </c>
       <c r="M111" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
@@ -21883,7 +21814,7 @@
         <v>05542-00025-04</v>
       </c>
       <c r="M112" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
@@ -21915,7 +21846,7 @@
         <v>05542-00025-05</v>
       </c>
       <c r="M113" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
@@ -21947,7 +21878,7 @@
         <v>05542-00025-06</v>
       </c>
       <c r="M114" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="24.95" customHeight="1">
@@ -21983,7 +21914,7 @@
         <v>05542-00025-07</v>
       </c>
       <c r="M115" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
@@ -22019,7 +21950,7 @@
         <v>05542-00083-00</v>
       </c>
       <c r="M116" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
@@ -22051,7 +21982,7 @@
         <v>05542-00083-01</v>
       </c>
       <c r="M117" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N117" s="17"/>
       <c r="O117" s="17"/>
@@ -22083,7 +22014,7 @@
         <v>05542-00083-02</v>
       </c>
       <c r="M118" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="17"/>
@@ -22123,7 +22054,7 @@
         <v>05542-00083-03</v>
       </c>
       <c r="M119" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N119" s="17"/>
       <c r="O119" s="17"/>
@@ -22154,7 +22085,7 @@
         <v>05542-00114-00</v>
       </c>
       <c r="M120" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N120" s="17"/>
       <c r="O120" s="17"/>
@@ -22185,7 +22116,7 @@
         <v>05542-00114-01</v>
       </c>
       <c r="M121" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N121" s="17"/>
       <c r="O121" s="17"/>
@@ -22217,7 +22148,7 @@
         <v>05542-00114-02</v>
       </c>
       <c r="M122" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N122" s="17"/>
       <c r="O122" s="17"/>
@@ -22249,7 +22180,7 @@
         <v>05542-00114-03</v>
       </c>
       <c r="M123" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N123" s="17"/>
       <c r="O123" s="17"/>
@@ -22283,7 +22214,7 @@
         <v>05542-00114-04</v>
       </c>
       <c r="M124" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N124" s="17"/>
       <c r="O124" s="17"/>
@@ -22319,7 +22250,7 @@
         <v>05542-00143-00</v>
       </c>
       <c r="M125" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N125" s="17"/>
       <c r="O125" s="17"/>
@@ -22351,7 +22282,7 @@
         <v>05542-00143-01</v>
       </c>
       <c r="M126" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N126" s="17"/>
       <c r="O126" s="17"/>
@@ -22383,7 +22314,7 @@
         <v>05542-00143-02</v>
       </c>
       <c r="M127" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N127" s="17"/>
       <c r="O127" s="17"/>
@@ -22415,7 +22346,7 @@
         <v>05542-00143-03</v>
       </c>
       <c r="M128" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N128" s="17"/>
       <c r="O128" s="17"/>
@@ -22447,7 +22378,7 @@
         <v>05542-00143-04</v>
       </c>
       <c r="M129" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N129" s="17"/>
       <c r="O129" s="17"/>
@@ -22479,7 +22410,7 @@
         <v>05542-00143-05</v>
       </c>
       <c r="M130" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="24.95" customHeight="1">
@@ -22510,7 +22441,7 @@
         <v>05542-00143-06</v>
       </c>
       <c r="M131" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N131" s="17"/>
       <c r="O131" s="17"/>
@@ -22541,7 +22472,7 @@
         <v>05542-00147-00</v>
       </c>
       <c r="M132" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N132" s="17"/>
       <c r="O132" s="17"/>
@@ -22573,7 +22504,7 @@
         <v>05542-00147-01</v>
       </c>
       <c r="M133" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N133" s="17"/>
       <c r="O133" s="17"/>
@@ -22605,7 +22536,7 @@
         <v>05542-00147-02</v>
       </c>
       <c r="M134" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="24.95" customHeight="1">
@@ -22633,7 +22564,7 @@
         <v>05542-00147-03</v>
       </c>
       <c r="M135" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="24.95" customHeight="1">
@@ -22661,7 +22592,7 @@
         <v>05542-00147-04</v>
       </c>
       <c r="M136" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N136" s="17"/>
       <c r="O136" s="17"/>
@@ -22695,7 +22626,7 @@
         <v>05542-00147-05</v>
       </c>
       <c r="M137" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N137" s="23"/>
       <c r="O137" s="23"/>
@@ -22726,7 +22657,7 @@
         <v>05542-00173-00</v>
       </c>
       <c r="M138" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="24.95" customHeight="1">
@@ -22756,7 +22687,7 @@
         <v>05542-00173-01</v>
       </c>
       <c r="M139" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N139" s="17"/>
       <c r="O139" s="17"/>
@@ -22788,7 +22719,7 @@
         <v>05542-00173-02</v>
       </c>
       <c r="M140" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N140" s="17"/>
       <c r="O140" s="17"/>
@@ -22822,7 +22753,7 @@
         <v>05542-00173-03</v>
       </c>
       <c r="M141" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N141" s="18"/>
       <c r="O141" s="17"/>
@@ -22854,7 +22785,7 @@
         <v>05542-00173-04</v>
       </c>
       <c r="M142" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N142" s="18"/>
       <c r="O142" s="17"/>
@@ -22886,7 +22817,7 @@
         <v>05542-00173-05</v>
       </c>
       <c r="M143" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N143" s="18"/>
       <c r="O143" s="17"/>
@@ -22918,7 +22849,7 @@
         <v>05542-00173-06</v>
       </c>
       <c r="M144" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N144" s="17"/>
       <c r="O144" s="17"/>
@@ -22954,7 +22885,7 @@
         <v>05542-00173-07</v>
       </c>
       <c r="M145" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
@@ -22986,7 +22917,7 @@
         <v>05542-00326-00</v>
       </c>
       <c r="M146" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N146" s="17"/>
       <c r="O146" s="17"/>
@@ -23018,7 +22949,7 @@
         <v>05542-00326-01</v>
       </c>
       <c r="M147" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="17"/>
@@ -23050,7 +22981,7 @@
         <v>05542-00326-02</v>
       </c>
       <c r="M148" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N148" s="17"/>
       <c r="O148" s="17"/>
@@ -23086,7 +23017,7 @@
         <v>05542-00326-03</v>
       </c>
       <c r="M149" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N149" s="17"/>
       <c r="O149" s="17"/>
@@ -23122,7 +23053,7 @@
         <v>05542-00326-04</v>
       </c>
       <c r="M150" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N150" s="23"/>
       <c r="O150" s="23"/>
@@ -23153,7 +23084,7 @@
         <v>05542-00411-00</v>
       </c>
       <c r="M151" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N151" s="143"/>
       <c r="O151" s="143"/>
@@ -23185,7 +23116,7 @@
         <v>05542-00411-01</v>
       </c>
       <c r="M152" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N152" s="17"/>
       <c r="O152" s="17"/>
@@ -23217,7 +23148,7 @@
         <v>05542-00411-02</v>
       </c>
       <c r="M153" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N153" s="17"/>
       <c r="O153" s="17"/>
@@ -23249,7 +23180,7 @@
         <v>05542-00411-03</v>
       </c>
       <c r="M154" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N154" s="23"/>
       <c r="O154" s="23"/>
@@ -23285,7 +23216,7 @@
         <v>05542-00411-04</v>
       </c>
       <c r="M155" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N155" s="17"/>
       <c r="O155" s="17"/>
@@ -23317,7 +23248,7 @@
         <v>05542-00411-05</v>
       </c>
       <c r="M156" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N156" s="18"/>
       <c r="O156" s="17"/>
@@ -23349,7 +23280,7 @@
         <v>05542-00411-06</v>
       </c>
       <c r="M157" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N157" s="17"/>
       <c r="O157" s="17"/>
@@ -23381,7 +23312,7 @@
         <v>05542-00411-07</v>
       </c>
       <c r="M158" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N158" s="17"/>
       <c r="O158" s="17"/>
@@ -23417,7 +23348,7 @@
         <v>05542-00411-08</v>
       </c>
       <c r="M159" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
@@ -23449,7 +23380,7 @@
         <v>05542-00412-00</v>
       </c>
       <c r="M160" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="24.95" customHeight="1">
@@ -23479,7 +23410,7 @@
         <v>05542-00412-01</v>
       </c>
       <c r="M161" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="24.95" customHeight="1">
@@ -23511,7 +23442,7 @@
         <v>05542-00412-02</v>
       </c>
       <c r="M162" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="24.95" customHeight="1">
@@ -23543,7 +23474,7 @@
         <v>05542-00425-00</v>
       </c>
       <c r="M163" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
@@ -23579,7 +23510,7 @@
         <v>05542-00425-01</v>
       </c>
       <c r="M164" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N164" s="17"/>
       <c r="O164" s="17"/>
@@ -23615,7 +23546,7 @@
         <v>05542-00425-02</v>
       </c>
       <c r="M165" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N165" s="17"/>
       <c r="O165" s="17"/>
@@ -23651,7 +23582,7 @@
         <v>05542-00549-00</v>
       </c>
       <c r="M166" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N166" s="17"/>
       <c r="O166" s="17"/>
@@ -23689,7 +23620,7 @@
         <v>05542-00549-01</v>
       </c>
       <c r="M167" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N167" s="17"/>
       <c r="O167" s="17"/>
@@ -23718,7 +23649,7 @@
         <v>05542-00549-02</v>
       </c>
       <c r="M168" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="24.95" customHeight="1">
@@ -23744,7 +23675,7 @@
         <v>05542-00549-03</v>
       </c>
       <c r="M169" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="24.95" customHeight="1">
@@ -23774,7 +23705,7 @@
         <v>05542-00559-00</v>
       </c>
       <c r="M170" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="24.95" customHeight="1">
@@ -23802,7 +23733,7 @@
         <v>05542-00559-01</v>
       </c>
       <c r="M171" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="24.95" customHeight="1">
@@ -23830,7 +23761,7 @@
         <v>05542-00559-02</v>
       </c>
       <c r="M172" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="24.95" customHeight="1">
@@ -23858,7 +23789,7 @@
         <v>05542-00559-03</v>
       </c>
       <c r="M173" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="24.95" customHeight="1">
@@ -23891,7 +23822,7 @@
         <v>05542-00559-04</v>
       </c>
       <c r="M174" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="24.95" customHeight="1">
@@ -23929,7 +23860,7 @@
         <v>05542-00639-00</v>
       </c>
       <c r="M175" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N175" s="17"/>
       <c r="O175" s="17"/>
@@ -23961,7 +23892,7 @@
         <v>05542-00639-01</v>
       </c>
       <c r="M176" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N176" s="17"/>
       <c r="O176" s="17"/>
@@ -23993,7 +23924,7 @@
         <v>05542-00639-02</v>
       </c>
       <c r="M177" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="24.95" customHeight="1">
@@ -24018,7 +23949,7 @@
         <v>05542-00639-03</v>
       </c>
       <c r="M178" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="24.95" customHeight="1">
@@ -24055,7 +23986,7 @@
         <v>05542-00651-00</v>
       </c>
       <c r="M179" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="24.95" customHeight="1">
@@ -24076,7 +24007,7 @@
         <v>05542-00651-01</v>
       </c>
       <c r="M180" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="24.95" customHeight="1">
@@ -24097,7 +24028,7 @@
         <v>05542-00651-02</v>
       </c>
       <c r="M181" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="24.95" customHeight="1">
@@ -24118,7 +24049,7 @@
         <v>05542-00651-03</v>
       </c>
       <c r="M182" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="24.95" customHeight="1">
@@ -24143,7 +24074,7 @@
         <v>05542-00651-04</v>
       </c>
       <c r="M183" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="24.95" customHeight="1">
@@ -24173,7 +24104,7 @@
         <v>05642-00015-00</v>
       </c>
       <c r="M184" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
@@ -24206,7 +24137,7 @@
         <v>05642-00015-01</v>
       </c>
       <c r="M185" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N185" s="18"/>
       <c r="O185" s="17"/>
@@ -24235,7 +24166,7 @@
         <v>05642-00015-02</v>
       </c>
       <c r="M186" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
@@ -24262,7 +24193,7 @@
         <v>05642-00015-03</v>
       </c>
       <c r="M187" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -24298,7 +24229,7 @@
         <v>05642-00015-04</v>
       </c>
       <c r="M188" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N188" s="17"/>
       <c r="O188" s="17"/>
@@ -24330,7 +24261,7 @@
         <v>05642-00075-00</v>
       </c>
       <c r="M189" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N189" s="17"/>
       <c r="O189" s="17"/>
@@ -24366,7 +24297,7 @@
         <v>05642-00108-00</v>
       </c>
       <c r="M190" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N190" s="17"/>
       <c r="O190" s="17"/>
@@ -24398,7 +24329,7 @@
         <v>05642-00108-01</v>
       </c>
       <c r="M191" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N191" s="17"/>
       <c r="O191" s="17"/>
@@ -24430,7 +24361,7 @@
         <v>05642-00108-02</v>
       </c>
       <c r="M192" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N192" s="17"/>
       <c r="O192" s="17"/>
@@ -24462,7 +24393,7 @@
         <v>05642-00108-03</v>
       </c>
       <c r="M193" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N193" s="17"/>
       <c r="O193" s="17"/>
@@ -24494,7 +24425,7 @@
         <v>05642-00108-04</v>
       </c>
       <c r="M194" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N194" s="17"/>
       <c r="O194" s="17"/>
@@ -24526,7 +24457,7 @@
         <v>05642-00108-05</v>
       </c>
       <c r="M195" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N195" s="17"/>
       <c r="O195" s="17"/>
@@ -24558,7 +24489,7 @@
         <v>05642-00108-06</v>
       </c>
       <c r="M196" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N196" s="17"/>
       <c r="O196" s="17"/>
@@ -24596,7 +24527,7 @@
         <v>05642-00108-07</v>
       </c>
       <c r="M197" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N197" s="17"/>
       <c r="O197" s="17"/>
@@ -24635,7 +24566,7 @@
         <v>05642-00207-00</v>
       </c>
       <c r="M198" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N198" s="17"/>
       <c r="O198" s="17"/>
@@ -24671,7 +24602,7 @@
         <v>05642-00207-01</v>
       </c>
       <c r="M199" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N199" s="17"/>
       <c r="O199" s="17"/>
@@ -24709,7 +24640,7 @@
         <v>05642-00207-02</v>
       </c>
       <c r="M200" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N200" s="17"/>
       <c r="O200" s="17"/>
@@ -24740,7 +24671,7 @@
         <v>05642-00231-00</v>
       </c>
       <c r="M201" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N201" s="17"/>
       <c r="O201" s="17"/>
@@ -24772,7 +24703,7 @@
         <v>05642-00231-01</v>
       </c>
       <c r="M202" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N202" s="17"/>
       <c r="O202" s="17"/>
@@ -24806,7 +24737,7 @@
         <v>05642-00231-02</v>
       </c>
       <c r="M203" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N203" s="17"/>
       <c r="O203" s="17"/>
@@ -24838,7 +24769,7 @@
         <v>05642-00231-03</v>
       </c>
       <c r="M204" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N204" s="17"/>
       <c r="O204" s="17"/>
@@ -24870,7 +24801,7 @@
         <v>05642-00231-04</v>
       </c>
       <c r="M205" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N205" s="17"/>
       <c r="O205" s="17"/>
@@ -24908,7 +24839,7 @@
         <v>05642-00231-05</v>
       </c>
       <c r="M206" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N206" s="17"/>
       <c r="O206" s="17"/>
@@ -24944,7 +24875,7 @@
         <v>05642-00250-00</v>
       </c>
       <c r="M207" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N207" s="17"/>
       <c r="O207" s="17"/>
@@ -24980,7 +24911,7 @@
         <v>05642-00250-01</v>
       </c>
       <c r="M208" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N208" s="17"/>
       <c r="O208" s="17"/>
@@ -25016,7 +24947,7 @@
         <v>05642-00250-02</v>
       </c>
       <c r="M209" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
@@ -25052,7 +24983,7 @@
         <v>05642-00250-03</v>
       </c>
       <c r="M210" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
@@ -25087,7 +25018,7 @@
         <v>05642-00250-04</v>
       </c>
       <c r="M211" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
@@ -25126,7 +25057,7 @@
         <v>05642-00250-05</v>
       </c>
       <c r="M212" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
@@ -25166,7 +25097,7 @@
         <v>05642-00273-00</v>
       </c>
       <c r="M213" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N213" s="17"/>
       <c r="O213" s="17"/>
@@ -25198,7 +25129,7 @@
         <v>05642-00273-01</v>
       </c>
       <c r="M214" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N214" s="17"/>
       <c r="O214" s="17"/>
@@ -25230,7 +25161,7 @@
         <v>05642-00273-02</v>
       </c>
       <c r="M215" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N215" s="17"/>
       <c r="O215" s="17"/>
@@ -25262,7 +25193,7 @@
         <v>05642-00273-03</v>
       </c>
       <c r="M216" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N216" s="17"/>
       <c r="O216" s="17"/>
@@ -25296,7 +25227,7 @@
         <v>05642-00273-04</v>
       </c>
       <c r="M217" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N217" s="17"/>
       <c r="O217" s="17"/>
@@ -25328,7 +25259,7 @@
         <v>05642-00273-05</v>
       </c>
       <c r="M218" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N218" s="17"/>
       <c r="O218" s="17"/>
@@ -25361,7 +25292,7 @@
         <v>05642-00275-00</v>
       </c>
       <c r="M219" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N219" s="17"/>
       <c r="O219" s="17"/>
@@ -25391,7 +25322,7 @@
         <v>05642-00275-01</v>
       </c>
       <c r="M220" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N220" s="17"/>
       <c r="O220" s="17"/>
@@ -25420,7 +25351,7 @@
         <v>05642-00275-02</v>
       </c>
       <c r="M221" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N221" s="17"/>
       <c r="O221" s="17"/>
@@ -25446,7 +25377,7 @@
         <v>05642-00275-03</v>
       </c>
       <c r="M222" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N222" s="17"/>
       <c r="O222" s="17"/>
@@ -25478,7 +25409,7 @@
         <v>05642-00275-04</v>
       </c>
       <c r="M223" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N223" s="18"/>
       <c r="O223" s="17"/>
@@ -25518,7 +25449,7 @@
         <v>05642-00371-00</v>
       </c>
       <c r="M224" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N224" s="17"/>
       <c r="O224" s="17"/>
@@ -25558,7 +25489,7 @@
         <v>05642-00371-01</v>
       </c>
       <c r="M225" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N225" s="17"/>
       <c r="O225" s="17"/>
@@ -25594,7 +25525,7 @@
         <v>05642-00372-00</v>
       </c>
       <c r="M226" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N226" s="17"/>
       <c r="O226" s="17"/>
@@ -25623,7 +25554,7 @@
         <v>05642-00372-01</v>
       </c>
       <c r="M227" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N227" s="17"/>
       <c r="O227" s="17"/>
@@ -25649,7 +25580,7 @@
         <v>05642-00372-02</v>
       </c>
       <c r="M228" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="229" spans="1:17" ht="24" customHeight="1">
@@ -25671,7 +25602,7 @@
         <v>05642-00372-03</v>
       </c>
       <c r="M229" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="24" customHeight="1">
@@ -25694,7 +25625,7 @@
         <v>05642-00372-04</v>
       </c>
       <c r="M230" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N230" s="18"/>
       <c r="O230" s="17"/>
@@ -25724,7 +25655,7 @@
         <v>05642-00372-05</v>
       </c>
       <c r="M231" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="24" customHeight="1">
@@ -25749,7 +25680,7 @@
         <v>05642-00372-06</v>
       </c>
       <c r="M232" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N232" s="17"/>
       <c r="O232" s="17"/>
@@ -25776,7 +25707,7 @@
         <v>05642-00372-07</v>
       </c>
       <c r="M233" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N233" s="17"/>
       <c r="O233" s="17"/>
@@ -25811,7 +25742,7 @@
         <v>05642-00372-08</v>
       </c>
       <c r="M234" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N234" s="17"/>
       <c r="O234" s="17"/>
@@ -25847,7 +25778,7 @@
         <v>05642-00373-00</v>
       </c>
       <c r="M235" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N235" s="17"/>
       <c r="O235" s="17"/>
@@ -25879,7 +25810,7 @@
         <v>05642-00373-01</v>
       </c>
       <c r="M236" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N236" s="17"/>
       <c r="O236" s="17"/>
@@ -25911,7 +25842,7 @@
         <v>05642-00373-02</v>
       </c>
       <c r="M237" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N237" s="17"/>
       <c r="O237" s="17"/>
@@ -25943,7 +25874,7 @@
         <v>05642-00373-03</v>
       </c>
       <c r="M238" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N238" s="17"/>
       <c r="O238" s="17"/>
@@ -25975,7 +25906,7 @@
         <v>05642-00373-04</v>
       </c>
       <c r="M239" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N239" s="17"/>
       <c r="O239" s="17"/>
@@ -26006,7 +25937,7 @@
         <v>05642-00373-05</v>
       </c>
       <c r="M240" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="241" spans="1:17" ht="24.95" customHeight="1">
@@ -26036,7 +25967,7 @@
         <v>05642-00373-06</v>
       </c>
       <c r="M241" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N241" s="17"/>
       <c r="O241" s="17"/>
@@ -26076,7 +26007,7 @@
         <v>05642-00373-07</v>
       </c>
       <c r="M242" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N242" s="17"/>
       <c r="O242" s="17"/>
@@ -26116,7 +26047,7 @@
         <v>05642-00374-00</v>
       </c>
       <c r="M243" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N243" s="17"/>
       <c r="O243" s="17"/>
@@ -26152,7 +26083,7 @@
         <v>05642-00417-00</v>
       </c>
       <c r="M244" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N244" s="17"/>
       <c r="O244" s="17"/>
@@ -26184,7 +26115,7 @@
         <v>05642-00417-01</v>
       </c>
       <c r="M245" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N245" s="17"/>
       <c r="O245" s="17"/>
@@ -26216,7 +26147,7 @@
         <v>05642-00417-02</v>
       </c>
       <c r="M246" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="247" spans="1:17" ht="24.95" customHeight="1">
@@ -26244,7 +26175,7 @@
         <v>05642-00417-03</v>
       </c>
       <c r="M247" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="248" spans="1:17" ht="24.95" customHeight="1">
@@ -26272,7 +26203,7 @@
         <v>05642-00417-04</v>
       </c>
       <c r="M248" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N248" s="17"/>
       <c r="O248" s="17"/>
@@ -26304,7 +26235,7 @@
         <v>05642-00417-05</v>
       </c>
       <c r="M249" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N249" s="17"/>
       <c r="O249" s="17"/>
@@ -26336,7 +26267,7 @@
         <v>05642-00417-06</v>
       </c>
       <c r="M250" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N250" s="17"/>
       <c r="O250" s="17"/>
@@ -26372,7 +26303,7 @@
         <v>05642-00417-07</v>
       </c>
       <c r="M251" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N251" s="74"/>
       <c r="O251" s="74"/>
@@ -26408,7 +26339,7 @@
         <v>05642-00426-00</v>
       </c>
       <c r="M252" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N252" s="17"/>
       <c r="O252" s="17"/>
@@ -26440,7 +26371,7 @@
         <v>05642-00426-01</v>
       </c>
       <c r="M253" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N253" s="17"/>
       <c r="O253" s="17"/>
@@ -26472,7 +26403,7 @@
         <v>05642-00426-02</v>
       </c>
       <c r="M254" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N254" s="17"/>
       <c r="O254" s="17"/>
@@ -26504,7 +26435,7 @@
         <v>05642-00426-03</v>
       </c>
       <c r="M255" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="256" spans="1:17" ht="24.95" customHeight="1">
@@ -26531,7 +26462,7 @@
         <v>05642-00426-04</v>
       </c>
       <c r="M256" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N256" s="17"/>
       <c r="O256" s="17"/>
@@ -26565,7 +26496,7 @@
         <v>05642-00426-05</v>
       </c>
       <c r="M257" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N257" s="17"/>
       <c r="O257" s="17"/>
@@ -26599,7 +26530,7 @@
         <v>05642-00455-00</v>
       </c>
       <c r="M258" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N258" s="17"/>
       <c r="O258" s="17"/>
@@ -26628,7 +26559,7 @@
         <v>05642-00455-01</v>
       </c>
       <c r="M259" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="260" spans="1:17" ht="24.95" customHeight="1">
@@ -26656,7 +26587,7 @@
         <v>05642-00455-02</v>
       </c>
       <c r="M260" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="261" spans="1:17" ht="24.95" customHeight="1">
@@ -26684,7 +26615,7 @@
         <v>05642-00455-03</v>
       </c>
       <c r="M261" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="262" spans="1:17" ht="24.95" customHeight="1">
@@ -26712,7 +26643,7 @@
         <v>05642-00455-04</v>
       </c>
       <c r="M262" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N262" s="17"/>
       <c r="O262" s="17"/>
@@ -26744,7 +26675,7 @@
         <v>05642-00455-05</v>
       </c>
       <c r="M263" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N263" s="17"/>
       <c r="O263" s="17"/>
@@ -26776,7 +26707,7 @@
         <v>05642-00455-06</v>
       </c>
       <c r="M264" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N264" s="17"/>
       <c r="O264" s="17"/>
@@ -26812,7 +26743,7 @@
         <v>05642-00455-07</v>
       </c>
       <c r="M265" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N265" s="74"/>
       <c r="O265" s="74"/>
@@ -26846,7 +26777,7 @@
         <v>05642-00456-00</v>
       </c>
       <c r="M266" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N266" s="17"/>
       <c r="O266" s="17"/>
@@ -26878,7 +26809,7 @@
         <v>05642-00456-01</v>
       </c>
       <c r="M267" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="268" spans="1:17" ht="24.95" customHeight="1">
@@ -26906,7 +26837,7 @@
         <v>05642-00456-02</v>
       </c>
       <c r="M268" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="269" spans="1:17" ht="24.95" customHeight="1">
@@ -26934,7 +26865,7 @@
         <v>05642-00456-03</v>
       </c>
       <c r="M269" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N269" s="17"/>
       <c r="O269" s="17"/>
@@ -26966,7 +26897,7 @@
         <v>05642-00456-04</v>
       </c>
       <c r="M270" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N270" s="17"/>
       <c r="O270" s="17"/>
@@ -27000,7 +26931,7 @@
         <v>05642-00456-05</v>
       </c>
       <c r="M271" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N271" s="17"/>
       <c r="O271" s="17"/>
@@ -27038,7 +26969,7 @@
         <v>05642-00456-06</v>
       </c>
       <c r="M272" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N272" s="74"/>
       <c r="O272" s="74"/>
@@ -27072,7 +27003,7 @@
         <v>05642-00457-00</v>
       </c>
       <c r="M273" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N273" s="17"/>
       <c r="O273" s="17"/>
@@ -27112,7 +27043,7 @@
         <v>05642-00457-01</v>
       </c>
       <c r="M274" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="275" spans="1:17" ht="24.95" customHeight="1">
@@ -27144,7 +27075,7 @@
         <v>05642-00483-00</v>
       </c>
       <c r="M275" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N275" s="17"/>
       <c r="O275" s="17"/>
@@ -27176,7 +27107,7 @@
         <v>05642-00483-01</v>
       </c>
       <c r="M276" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N276" s="17"/>
       <c r="O276" s="17"/>
@@ -27210,7 +27141,7 @@
         <v>05642-00483-02</v>
       </c>
       <c r="M277" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N277" s="17"/>
       <c r="O277" s="17"/>
@@ -27242,7 +27173,7 @@
         <v>05642-00483-03</v>
       </c>
       <c r="M278" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N278" s="18"/>
       <c r="O278" s="17"/>
@@ -27274,7 +27205,7 @@
         <v>05642-00483-04</v>
       </c>
       <c r="M279" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N279" s="74"/>
       <c r="O279" s="74"/>
@@ -27312,7 +27243,7 @@
         <v>05642-00483-05</v>
       </c>
       <c r="M280" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N280" s="17"/>
       <c r="O280" s="17"/>
@@ -27348,7 +27279,7 @@
         <v>05642-00484-00</v>
       </c>
       <c r="M281" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N281" s="17"/>
       <c r="O281" s="17"/>
@@ -27380,7 +27311,7 @@
         <v>05642-00484-01</v>
       </c>
       <c r="M282" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N282" s="17"/>
       <c r="O282" s="17"/>
@@ -27412,7 +27343,7 @@
         <v>05642-00484-02</v>
       </c>
       <c r="M283" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N283" s="17"/>
       <c r="O283" s="17"/>
@@ -27444,7 +27375,7 @@
         <v>05642-00484-03</v>
       </c>
       <c r="M284" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N284" s="17"/>
       <c r="O284" s="17"/>
@@ -27476,7 +27407,7 @@
         <v>05642-00484-04</v>
       </c>
       <c r="M285" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N285" s="17"/>
       <c r="O285" s="17"/>
@@ -27510,7 +27441,7 @@
         <v>05642-00484-05</v>
       </c>
       <c r="M286" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N286" s="23"/>
       <c r="O286" s="23"/>
@@ -27542,7 +27473,7 @@
         <v>05642-00484-06</v>
       </c>
       <c r="M287" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N287" s="18"/>
       <c r="O287" s="17"/>
@@ -27582,7 +27513,7 @@
         <v>05642-00484-07</v>
       </c>
       <c r="M288" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N288" s="17"/>
       <c r="O288" s="17"/>
@@ -27618,7 +27549,7 @@
         <v>05642-00505-00</v>
       </c>
       <c r="M289" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="290" spans="1:17" ht="24.95" customHeight="1">
@@ -27644,7 +27575,7 @@
         <v>05642-00505-01</v>
       </c>
       <c r="M290" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N290" s="17"/>
       <c r="O290" s="17"/>
@@ -27676,7 +27607,7 @@
         <v>05642-00505-02</v>
       </c>
       <c r="M291" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N291" s="17"/>
       <c r="O291" s="17"/>
@@ -27710,7 +27641,7 @@
         <v>05642-00505-03</v>
       </c>
       <c r="M292" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N292" s="18"/>
       <c r="O292" s="17"/>
@@ -27744,7 +27675,7 @@
         <v>05642-00505-04</v>
       </c>
       <c r="M293" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N293" s="17"/>
       <c r="O293" s="17"/>
@@ -27786,7 +27717,7 @@
         <v>05642-00552-00</v>
       </c>
       <c r="M294" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="295" spans="1:17" ht="24.95" customHeight="1">
@@ -27818,7 +27749,7 @@
         <v>05642-00558-00</v>
       </c>
       <c r="M295" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N295" s="17"/>
       <c r="O295" s="17"/>
@@ -27850,7 +27781,7 @@
         <v>05642-00558-01</v>
       </c>
       <c r="M296" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N296" s="17"/>
       <c r="O296" s="17"/>
@@ -27882,7 +27813,7 @@
         <v>05642-00558-02</v>
       </c>
       <c r="M297" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N297" s="17"/>
       <c r="O297" s="17"/>
@@ -27914,7 +27845,7 @@
         <v>05642-00558-03</v>
       </c>
       <c r="M298" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N298" s="17"/>
       <c r="O298" s="17"/>
@@ -27948,7 +27879,7 @@
         <v>05642-00570-00</v>
       </c>
       <c r="M299" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N299" s="17"/>
       <c r="O299" s="17"/>
@@ -27979,7 +27910,7 @@
         <v>05642-00570-01</v>
       </c>
       <c r="M300" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N300" s="17"/>
       <c r="O300" s="17"/>
@@ -28019,7 +27950,7 @@
         <v>05642-00570-02</v>
       </c>
       <c r="M301" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N301" s="17"/>
       <c r="O301" s="17"/>
@@ -28053,7 +27984,7 @@
         <v>05642-00573-00</v>
       </c>
       <c r="M302" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N302" s="17"/>
       <c r="O302" s="17"/>
@@ -28087,7 +28018,7 @@
         <v>05642-00573-01</v>
       </c>
       <c r="M303" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N303" s="17"/>
       <c r="O303" s="17"/>
@@ -28127,7 +28058,7 @@
         <v>05642-00573-02</v>
       </c>
       <c r="M304" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N304" s="143"/>
       <c r="O304" s="143"/>
@@ -28161,7 +28092,7 @@
         <v>05642-00575-00</v>
       </c>
       <c r="M305" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N305" s="17"/>
       <c r="O305" s="17"/>
@@ -28193,7 +28124,7 @@
         <v>05642-00575-01</v>
       </c>
       <c r="M306" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N306" s="17"/>
       <c r="O306" s="17"/>
@@ -28231,7 +28162,7 @@
         <v>05642-00575-02</v>
       </c>
       <c r="M307" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N307" s="143"/>
       <c r="O307" s="143"/>
@@ -28265,7 +28196,7 @@
         <v>05642-00576-00</v>
       </c>
       <c r="M308" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N308" s="17"/>
       <c r="O308" s="17"/>
@@ -28301,7 +28232,7 @@
         <v>05642-00576-01</v>
       </c>
       <c r="M309" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N309" s="17"/>
       <c r="O309" s="17"/>
@@ -28337,7 +28268,7 @@
         <v>05642-00585-00</v>
       </c>
       <c r="M310" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N310" s="17"/>
       <c r="O310" s="17"/>
@@ -28373,7 +28304,7 @@
         <v>05642-00586-00</v>
       </c>
       <c r="M311" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N311" s="18"/>
       <c r="O311" s="17"/>
@@ -28405,7 +28336,7 @@
         <v>05642-00586-01</v>
       </c>
       <c r="M312" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N312" s="18"/>
       <c r="O312" s="17"/>
@@ -28437,7 +28368,7 @@
         <v>05642-00586-02</v>
       </c>
       <c r="M313" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N313" s="17"/>
       <c r="O313" s="17"/>
@@ -28469,7 +28400,7 @@
         <v>05642-00586-03</v>
       </c>
       <c r="M314" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N314" s="18"/>
       <c r="O314" s="17"/>
@@ -28501,7 +28432,7 @@
         <v>05642-00586-04</v>
       </c>
       <c r="M315" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N315" s="17"/>
       <c r="O315" s="17"/>
@@ -28534,7 +28465,7 @@
         <v>05642-00586-05</v>
       </c>
       <c r="M316" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N316" s="17"/>
       <c r="O316" s="17"/>
@@ -28566,7 +28497,7 @@
         <v>05642-00586-06</v>
       </c>
       <c r="M317" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N317" s="17"/>
       <c r="O317" s="17"/>
@@ -28600,7 +28531,7 @@
         <v>05642-00586-07</v>
       </c>
       <c r="M318" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N318" s="17"/>
       <c r="O318" s="17"/>
@@ -28636,7 +28567,7 @@
         <v>05642-00602-00</v>
       </c>
       <c r="M319" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N319" s="18"/>
       <c r="O319" s="17"/>
@@ -28670,7 +28601,7 @@
         <v>05642-00602-01</v>
       </c>
       <c r="M320" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N320" s="17"/>
       <c r="O320" s="17"/>
@@ -28702,7 +28633,7 @@
         <v>05642-00602-02</v>
       </c>
       <c r="M321" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N321" s="17"/>
       <c r="O321" s="17"/>
@@ -28734,7 +28665,7 @@
         <v>05642-00602-03</v>
       </c>
       <c r="M322" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N322" s="17"/>
       <c r="O322" s="17"/>
@@ -28766,7 +28697,7 @@
         <v>05642-00602-04</v>
       </c>
       <c r="M323" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N323" s="17"/>
       <c r="O323" s="17"/>
@@ -28806,7 +28737,7 @@
         <v>05642-00602-05</v>
       </c>
       <c r="M324" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N324" s="17"/>
       <c r="O324" s="17"/>
@@ -28842,7 +28773,7 @@
         <v>05642-00606-00</v>
       </c>
       <c r="M325" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N325" s="18"/>
       <c r="O325" s="17"/>
@@ -28874,7 +28805,7 @@
         <v>05642-00606-01</v>
       </c>
       <c r="M326" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N326" s="17"/>
       <c r="O326" s="17"/>
@@ -28906,7 +28837,7 @@
         <v>05642-00606-02</v>
       </c>
       <c r="M327" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N327" s="17"/>
       <c r="O327" s="17"/>
@@ -28940,7 +28871,7 @@
         <v>05642-00606-03</v>
       </c>
       <c r="M328" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N328" s="17"/>
       <c r="O328" s="17"/>
@@ -28975,7 +28906,7 @@
         <v>05642-00606-04</v>
       </c>
       <c r="M329" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N329" s="17"/>
       <c r="O329" s="17"/>
@@ -29009,7 +28940,7 @@
         <v>05642-00606-05</v>
       </c>
       <c r="M330" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N330" s="17"/>
       <c r="O330" s="17"/>
@@ -29045,7 +28976,7 @@
         <v>05642-00683-00</v>
       </c>
       <c r="M331" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N331" s="17"/>
       <c r="O331" s="17"/>
@@ -29077,7 +29008,7 @@
         <v>05642-00683-01</v>
       </c>
       <c r="M332" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N332" s="17"/>
       <c r="O332" s="17"/>
@@ -29111,7 +29042,7 @@
         <v>05642-00683-02</v>
       </c>
       <c r="M333" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N333" s="17"/>
       <c r="O333" s="17"/>
@@ -29143,7 +29074,7 @@
         <v>05642-00683-03</v>
       </c>
       <c r="M334" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N334" s="17"/>
       <c r="O334" s="17"/>
@@ -29175,7 +29106,7 @@
         <v>05642-00683-04</v>
       </c>
       <c r="M335" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N335" s="17"/>
       <c r="O335" s="17"/>
@@ -29207,7 +29138,7 @@
         <v>05642-00683-05</v>
       </c>
       <c r="M336" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N336" s="17"/>
       <c r="O336" s="17"/>
@@ -29239,7 +29170,7 @@
         <v>05642-00683-06</v>
       </c>
       <c r="M337" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N337" s="17"/>
       <c r="O337" s="17"/>
@@ -29271,7 +29202,7 @@
         <v>05642-00683-07</v>
       </c>
       <c r="M338" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N338" s="17"/>
       <c r="O338" s="17"/>
@@ -29303,7 +29234,7 @@
         <v>05642-00683-08</v>
       </c>
       <c r="M339" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N339" s="17"/>
       <c r="O339" s="17"/>
@@ -29343,7 +29274,7 @@
         <v>05642-00683-09</v>
       </c>
       <c r="M340" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N340" s="17"/>
       <c r="O340" s="17"/>
@@ -29379,7 +29310,7 @@
         <v>05642-00684-00</v>
       </c>
       <c r="M341" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N341" s="17"/>
       <c r="O341" s="17"/>
@@ -29409,7 +29340,7 @@
         <v>05642-00684-01</v>
       </c>
       <c r="M342" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N342" s="17"/>
       <c r="O342" s="17"/>
@@ -29449,7 +29380,7 @@
         <v>05642-00684-02</v>
       </c>
       <c r="M343" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N343" s="17"/>
       <c r="O343" s="17"/>
@@ -29485,7 +29416,7 @@
         <v>05642-00685-00</v>
       </c>
       <c r="M344" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N344" s="17"/>
       <c r="O344" s="17"/>
@@ -29515,7 +29446,7 @@
         <v>05642-00685-01</v>
       </c>
       <c r="M345" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N345" s="17"/>
       <c r="O345" s="17"/>
@@ -29547,7 +29478,7 @@
         <v>05642-00685-02</v>
       </c>
       <c r="M346" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N346" s="17"/>
       <c r="O346" s="17"/>
@@ -29579,7 +29510,7 @@
         <v>05642-00685-03</v>
       </c>
       <c r="M347" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N347" s="17"/>
       <c r="O347" s="17"/>
@@ -29621,7 +29552,7 @@
         <v>05642-00685-04</v>
       </c>
       <c r="M348" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N348" s="17"/>
       <c r="O348" s="17"/>
@@ -29657,7 +29588,7 @@
         <v>05642-00924-00</v>
       </c>
       <c r="M349" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N349" s="17"/>
       <c r="O349" s="17"/>
@@ -29691,7 +29622,7 @@
         <v>05642-00924-01</v>
       </c>
       <c r="M350" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N350" s="17"/>
       <c r="O350" s="17"/>
@@ -29723,7 +29654,7 @@
         <v>05642-00924-02</v>
       </c>
       <c r="M351" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N351" s="17"/>
       <c r="O351" s="17"/>
@@ -29755,7 +29686,7 @@
         <v>05642-00924-03</v>
       </c>
       <c r="M352" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N352" s="17"/>
       <c r="O352" s="17"/>
@@ -29791,7 +29722,7 @@
         <v>05642-00924-04</v>
       </c>
       <c r="M353" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N353" s="17"/>
       <c r="O353" s="17"/>
@@ -29825,7 +29756,7 @@
         <v>05642-00998-00</v>
       </c>
       <c r="M354" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="355" spans="1:17" ht="24.95" customHeight="1">
@@ -29861,7 +29792,7 @@
         <v>05642-00998-01</v>
       </c>
       <c r="M355" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="356" spans="1:17" ht="24.95" customHeight="1">
@@ -29891,7 +29822,7 @@
         <v>05642-00998-02</v>
       </c>
       <c r="M356" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="357" spans="1:17" ht="24.95" customHeight="1">
@@ -29920,7 +29851,7 @@
         <v>05642-00999-00</v>
       </c>
       <c r="M357" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="358" spans="1:17" ht="24.95" customHeight="1">
@@ -29958,7 +29889,7 @@
         <v>05642-00999-01</v>
       </c>
       <c r="M358" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="359" spans="1:17" ht="24.95" customHeight="1">
@@ -29986,7 +29917,7 @@
         <v>05642-00999-02</v>
       </c>
       <c r="M359" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="360" spans="1:17" ht="24.95" customHeight="1">
@@ -30018,7 +29949,7 @@
         <v>05642-57920-00</v>
       </c>
       <c r="M360" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N360" s="54"/>
       <c r="O360" s="54"/>
@@ -30052,7 +29983,7 @@
         <v>05642-57920-01</v>
       </c>
       <c r="M361" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N361" s="53"/>
       <c r="O361" s="53"/>
@@ -30090,7 +30021,7 @@
         <v>05642-57920-02</v>
       </c>
       <c r="M362" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N362" s="17"/>
       <c r="O362" s="17"/>
@@ -30124,7 +30055,7 @@
         <v>05642-65120-00</v>
       </c>
       <c r="M363" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N363" s="17"/>
       <c r="O363" s="17"/>
@@ -30156,7 +30087,7 @@
         <v>05642-65120-01</v>
       </c>
       <c r="M364" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N364" s="17"/>
       <c r="O364" s="17"/>
@@ -30194,7 +30125,7 @@
         <v>05642-65120-02</v>
       </c>
       <c r="M365" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N365" s="23"/>
       <c r="O365" s="23"/>
@@ -30238,7 +30169,7 @@
         <v>05742-00038-00</v>
       </c>
       <c r="M366" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N366" s="17"/>
       <c r="O366" s="17"/>
@@ -30274,7 +30205,7 @@
         <v>05742-00042-00</v>
       </c>
       <c r="M367" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N367" s="17"/>
       <c r="O367" s="17"/>
@@ -30314,7 +30245,7 @@
         <v>05742-00042-01</v>
       </c>
       <c r="M368" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N368" s="17"/>
       <c r="O368" s="17"/>
@@ -30350,7 +30281,7 @@
         <v>05742-00045-00</v>
       </c>
       <c r="M369" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N369" s="17"/>
       <c r="O369" s="17"/>
@@ -30390,7 +30321,7 @@
         <v>05742-00045-01</v>
       </c>
       <c r="M370" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N370" s="17"/>
       <c r="O370" s="17"/>
@@ -30426,7 +30357,7 @@
         <v>05742-00048-00</v>
       </c>
       <c r="M371" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N371" s="17"/>
       <c r="O371" s="17"/>
@@ -30458,7 +30389,7 @@
         <v>05742-00048-01</v>
       </c>
       <c r="M372" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N372" s="17"/>
       <c r="O372" s="17"/>
@@ -30498,7 +30429,7 @@
         <v>05742-00048-02</v>
       </c>
       <c r="M373" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N373" s="17"/>
       <c r="O373" s="17"/>
@@ -30534,7 +30465,7 @@
         <v>05742-00052-00</v>
       </c>
       <c r="M374" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N374" s="17"/>
       <c r="O374" s="17"/>
@@ -30566,7 +30497,7 @@
         <v>05742-00052-01</v>
       </c>
       <c r="M375" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N375" s="17"/>
       <c r="O375" s="17"/>
@@ -30598,7 +30529,7 @@
         <v>05742-00052-02</v>
       </c>
       <c r="M376" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N376" s="17"/>
       <c r="O376" s="17"/>
@@ -30638,7 +30569,7 @@
         <v>05742-00052-03</v>
       </c>
       <c r="M377" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N377" s="17"/>
       <c r="O377" s="17"/>
@@ -30674,7 +30605,7 @@
         <v>05742-00102-00</v>
       </c>
       <c r="M378" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N378" s="17"/>
       <c r="O378" s="17"/>
@@ -30706,7 +30637,7 @@
         <v>05742-00102-01</v>
       </c>
       <c r="M379" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N379" s="17"/>
       <c r="O379" s="17"/>
@@ -30738,7 +30669,7 @@
         <v>05742-00102-02</v>
       </c>
       <c r="M380" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N380" s="17"/>
       <c r="O380" s="17"/>
@@ -30770,7 +30701,7 @@
         <v>05742-00102-03</v>
       </c>
       <c r="M381" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N381" s="17"/>
       <c r="O381" s="17"/>
@@ -30802,7 +30733,7 @@
         <v>05742-00102-04</v>
       </c>
       <c r="M382" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N382" s="17"/>
       <c r="O382" s="17"/>
@@ -30842,7 +30773,7 @@
         <v>05742-00102-05</v>
       </c>
       <c r="M383" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N383" s="17"/>
       <c r="O383" s="17"/>
@@ -30878,7 +30809,7 @@
         <v>05742-00277-00</v>
       </c>
       <c r="M384" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N384" s="17"/>
       <c r="O384" s="17"/>
@@ -30910,7 +30841,7 @@
         <v>05742-00277-01</v>
       </c>
       <c r="M385" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N385" s="17"/>
       <c r="O385" s="17"/>
@@ -30942,7 +30873,7 @@
         <v>05742-00277-02</v>
       </c>
       <c r="M386" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N386" s="17"/>
       <c r="O386" s="17"/>
@@ -30974,7 +30905,7 @@
         <v>05742-00277-03</v>
       </c>
       <c r="M387" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N387" s="17"/>
       <c r="O387" s="17"/>
@@ -31006,7 +30937,7 @@
         <v>05742-00277-04</v>
       </c>
       <c r="M388" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N388" s="17"/>
       <c r="O388" s="17"/>
@@ -31038,7 +30969,7 @@
         <v>05742-00277-05</v>
       </c>
       <c r="M389" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N389" s="17"/>
       <c r="O389" s="17"/>
@@ -31070,7 +31001,7 @@
         <v>05742-00277-06</v>
       </c>
       <c r="M390" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N390" s="17"/>
       <c r="O390" s="17"/>
@@ -31110,7 +31041,7 @@
         <v>05742-00277-07</v>
       </c>
       <c r="M391" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N391" s="17"/>
       <c r="O391" s="17"/>
@@ -31146,7 +31077,7 @@
         <v>05742-00306-00</v>
       </c>
       <c r="M392" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N392" s="4"/>
       <c r="O392" s="4"/>
@@ -31178,7 +31109,7 @@
         <v>05742-00306-01</v>
       </c>
       <c r="M393" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N393" s="18"/>
       <c r="O393" s="17"/>
@@ -31210,7 +31141,7 @@
         <v>05742-00306-02</v>
       </c>
       <c r="M394" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N394" s="17"/>
       <c r="O394" s="17"/>
@@ -31250,7 +31181,7 @@
         <v>05742-00306-03</v>
       </c>
       <c r="M395" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N395" s="17"/>
       <c r="O395" s="17"/>
@@ -31285,7 +31216,7 @@
         <v>05742-00323-00</v>
       </c>
       <c r="M396" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="397" spans="1:17" ht="24.95" customHeight="1">
@@ -31313,7 +31244,7 @@
         <v>05742-00323-01</v>
       </c>
       <c r="M397" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N397" s="17"/>
       <c r="O397" s="17"/>
@@ -31345,7 +31276,7 @@
         <v>05742-00323-02</v>
       </c>
       <c r="M398" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N398" s="17"/>
       <c r="O398" s="17"/>
@@ -31377,7 +31308,7 @@
         <v>05742-00323-03</v>
       </c>
       <c r="M399" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N399" s="17"/>
       <c r="O399" s="17"/>
@@ -31417,7 +31348,7 @@
         <v>05742-00323-04</v>
       </c>
       <c r="M400" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N400" s="17"/>
       <c r="O400" s="17"/>
@@ -31453,7 +31384,7 @@
         <v>05742-00334-00</v>
       </c>
       <c r="M401" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
@@ -31485,7 +31416,7 @@
         <v>05742-00334-01</v>
       </c>
       <c r="M402" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N402" s="17"/>
       <c r="O402" s="17"/>
@@ -31517,7 +31448,7 @@
         <v>05742-00334-02</v>
       </c>
       <c r="M403" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N403" s="17"/>
       <c r="O403" s="17"/>
@@ -31557,7 +31488,7 @@
         <v>05742-00334-03</v>
       </c>
       <c r="M404" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N404" s="17"/>
       <c r="O404" s="17"/>
@@ -31593,7 +31524,7 @@
         <v>05742-00335-00</v>
       </c>
       <c r="M405" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N405" s="17"/>
       <c r="O405" s="17"/>
@@ -31625,7 +31556,7 @@
         <v>05742-00335-01</v>
       </c>
       <c r="M406" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N406" s="17"/>
       <c r="O406" s="17"/>
@@ -31657,7 +31588,7 @@
         <v>05742-00335-02</v>
       </c>
       <c r="M407" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N407" s="17"/>
       <c r="O407" s="17"/>
@@ -31695,7 +31626,7 @@
         <v>05742-00335-03</v>
       </c>
       <c r="M408" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N408" s="17"/>
       <c r="O408" s="17"/>
@@ -31731,7 +31662,7 @@
         <v>05742-00359-00</v>
       </c>
       <c r="M409" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N409" s="18"/>
       <c r="O409" s="17"/>
@@ -31763,7 +31694,7 @@
         <v>05742-00359-01</v>
       </c>
       <c r="M410" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N410" s="17"/>
       <c r="O410" s="17"/>
@@ -31795,7 +31726,7 @@
         <v>05742-00359-02</v>
       </c>
       <c r="M411" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N411" s="18"/>
       <c r="O411" s="17"/>
@@ -31827,7 +31758,7 @@
         <v>05742-00359-03</v>
       </c>
       <c r="M412" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N412" s="143"/>
       <c r="O412" s="143"/>
@@ -31859,7 +31790,7 @@
         <v>05742-00359-04</v>
       </c>
       <c r="M413" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N413" s="17"/>
       <c r="O413" s="17"/>
@@ -31893,7 +31824,7 @@
         <v>05742-00359-05</v>
       </c>
       <c r="M414" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N414" s="23"/>
       <c r="O414" s="23"/>
@@ -31925,7 +31856,7 @@
         <v>05742-00359-06</v>
       </c>
       <c r="M415" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N415" s="17"/>
       <c r="O415" s="17"/>
@@ -31961,7 +31892,7 @@
         <v>05742-00359-07</v>
       </c>
       <c r="M416" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N416" s="17"/>
       <c r="O416" s="17"/>
@@ -31997,7 +31928,7 @@
         <v>05742-00773-00</v>
       </c>
       <c r="M417" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="418" spans="1:17" ht="24.95" customHeight="1">
@@ -32029,7 +31960,7 @@
         <v>05742-00773-01</v>
       </c>
       <c r="M418" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="419" spans="1:17" ht="24.95" customHeight="1">
@@ -32061,7 +31992,7 @@
         <v>05742-06450-00</v>
       </c>
       <c r="M419" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N419" s="53"/>
       <c r="O419" s="53"/>
@@ -32093,7 +32024,7 @@
         <v>05742-06450-01</v>
       </c>
       <c r="M420" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N420" s="17"/>
       <c r="O420" s="17"/>
@@ -32125,7 +32056,7 @@
         <v>05742-06450-02</v>
       </c>
       <c r="M421" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N421" s="17"/>
       <c r="O421" s="17"/>
@@ -32157,7 +32088,7 @@
         <v>05742-06450-03</v>
       </c>
       <c r="M422" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N422" s="17"/>
       <c r="O422" s="17"/>
@@ -32189,7 +32120,7 @@
         <v>05742-06450-04</v>
       </c>
       <c r="M423" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N423" s="17"/>
       <c r="O423" s="17"/>
@@ -32221,7 +32152,7 @@
         <v>05742-06450-05</v>
       </c>
       <c r="M424" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N424" s="17"/>
       <c r="O424" s="17"/>
@@ -32261,7 +32192,7 @@
         <v>05742-06450-06</v>
       </c>
       <c r="M425" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N425" s="17"/>
       <c r="O425" s="17"/>
@@ -32295,7 +32226,7 @@
         <v>05742-07350-00</v>
       </c>
       <c r="M426" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N426" s="17"/>
       <c r="O426" s="17"/>
@@ -32327,7 +32258,7 @@
         <v>05742-07350-01</v>
       </c>
       <c r="M427" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N427" s="17"/>
       <c r="O427" s="17"/>
@@ -32366,7 +32297,7 @@
         <v>05742-07350-02</v>
       </c>
       <c r="M428" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N428" s="17"/>
       <c r="O428" s="17"/>
@@ -32400,7 +32331,7 @@
         <v>06542-00076-00</v>
       </c>
       <c r="M429" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N429" s="17"/>
       <c r="O429" s="17"/>
@@ -32432,7 +32363,7 @@
         <v>06542-00076-01</v>
       </c>
       <c r="M430" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="431" spans="1:17" ht="24.95" customHeight="1">
@@ -32460,7 +32391,7 @@
         <v>06542-00076-02</v>
       </c>
       <c r="M431" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N431" s="17"/>
       <c r="O431" s="17"/>
@@ -32498,7 +32429,7 @@
         <v>06542-00076-03</v>
       </c>
       <c r="M432" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N432" s="17"/>
       <c r="O432" s="17"/>
@@ -32536,7 +32467,7 @@
         <v>06542-00132-00</v>
       </c>
       <c r="M433" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N433" s="17"/>
       <c r="O433" s="17"/>
@@ -32568,7 +32499,7 @@
         <v>06542-00132-01</v>
       </c>
       <c r="M434" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N434" s="17"/>
       <c r="O434" s="17"/>
@@ -32600,7 +32531,7 @@
         <v>06542-00132-02</v>
       </c>
       <c r="M435" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N435" s="17"/>
       <c r="O435" s="17"/>
@@ -32632,7 +32563,7 @@
         <v>06542-00132-03</v>
       </c>
       <c r="M436" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N436" s="17"/>
       <c r="O436" s="17"/>
@@ -32664,7 +32595,7 @@
         <v>06542-00132-04</v>
       </c>
       <c r="M437" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N437" s="18"/>
       <c r="O437" s="17"/>
@@ -32696,7 +32627,7 @@
         <v>06542-00132-05</v>
       </c>
       <c r="M438" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N438" s="17"/>
       <c r="O438" s="17"/>
@@ -32731,7 +32662,7 @@
         <v>06542-00132-06</v>
       </c>
       <c r="M439" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N439" s="17"/>
       <c r="O439" s="17"/>
@@ -32767,7 +32698,7 @@
         <v>06642-00116-00</v>
       </c>
       <c r="M440" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N440" s="17"/>
       <c r="O440" s="17"/>
@@ -32799,7 +32730,7 @@
         <v>06642-00116-01</v>
       </c>
       <c r="M441" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N441" s="17"/>
       <c r="O441" s="17"/>
@@ -32831,7 +32762,7 @@
         <v>06642-00116-02</v>
       </c>
       <c r="M442" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="443" spans="1:17" ht="24.95" customHeight="1">
@@ -32867,7 +32798,7 @@
         <v>06642-00116-03</v>
       </c>
       <c r="M443" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N443" s="17"/>
       <c r="O443" s="17"/>
@@ -32901,7 +32832,7 @@
         <v>06642-00161-00</v>
       </c>
       <c r="M444" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N444" s="17"/>
       <c r="O444" s="17"/>
@@ -32933,7 +32864,7 @@
         <v>06642-00161-01</v>
       </c>
       <c r="M445" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N445" s="18"/>
       <c r="O445" s="17"/>
@@ -32965,7 +32896,7 @@
         <v>06642-00161-02</v>
       </c>
       <c r="M446" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N446" s="18"/>
       <c r="O446" s="17"/>
@@ -32997,7 +32928,7 @@
         <v>06642-00161-03</v>
       </c>
       <c r="M447" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N447" s="17"/>
       <c r="O447" s="17"/>
@@ -33029,7 +32960,7 @@
         <v>06642-00161-04</v>
       </c>
       <c r="M448" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N448" s="17"/>
       <c r="O448" s="17"/>
@@ -33061,7 +32992,7 @@
         <v>06642-00161-05</v>
       </c>
       <c r="M449" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N449" s="18"/>
       <c r="O449" s="17"/>
@@ -33101,7 +33032,7 @@
         <v>06642-00161-06</v>
       </c>
       <c r="M450" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N450" s="17"/>
       <c r="O450" s="17"/>
@@ -33137,7 +33068,7 @@
         <v>06642-00175-00</v>
       </c>
       <c r="M451" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="452" spans="1:17" ht="24.95" customHeight="1">
@@ -33173,7 +33104,7 @@
         <v>06642-00175-01</v>
       </c>
       <c r="M452" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N452" s="17"/>
       <c r="O452" s="17"/>
@@ -33209,7 +33140,7 @@
         <v>06842-00220-00</v>
       </c>
       <c r="M453" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N453" s="18"/>
       <c r="O453" s="17"/>
@@ -33243,7 +33174,7 @@
         <v>06842-00220-01</v>
       </c>
       <c r="M454" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N454" s="17"/>
       <c r="O454" s="17"/>
@@ -33281,7 +33212,7 @@
         <v>06842-00230-00</v>
       </c>
       <c r="M455" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N455" s="17"/>
       <c r="O455" s="17"/>
@@ -33313,7 +33244,7 @@
         <v>06842-00230-01</v>
       </c>
       <c r="M456" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N456" s="17"/>
       <c r="O456" s="17"/>
@@ -33345,7 +33276,7 @@
         <v>06842-00230-02</v>
       </c>
       <c r="M457" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N457" s="17"/>
       <c r="O457" s="17"/>
@@ -33377,7 +33308,7 @@
         <v>06842-00230-03</v>
       </c>
       <c r="M458" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N458" s="17"/>
       <c r="O458" s="17"/>
@@ -33409,7 +33340,7 @@
         <v>06842-00230-04</v>
       </c>
       <c r="M459" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N459" s="18"/>
       <c r="O459" s="17"/>
@@ -33449,7 +33380,7 @@
         <v>06842-00230-05</v>
       </c>
       <c r="M460" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N460" s="17"/>
       <c r="O460" s="17"/>
@@ -33487,7 +33418,7 @@
         <v>06842-00234-00</v>
       </c>
       <c r="M461" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N461" s="17"/>
       <c r="O461" s="17"/>
@@ -33519,7 +33450,7 @@
         <v>06842-00258-00</v>
       </c>
       <c r="M462" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N462" s="17"/>
       <c r="O462" s="17"/>
@@ -33549,7 +33480,7 @@
         <v>06842-00258-01</v>
       </c>
       <c r="M463" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N463" s="17"/>
       <c r="O463" s="17"/>
@@ -33579,7 +33510,7 @@
         <v>06842-00258-02</v>
       </c>
       <c r="M464" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N464" s="17"/>
       <c r="O464" s="17"/>
@@ -33609,7 +33540,7 @@
         <v>06842-00258-03</v>
       </c>
       <c r="M465" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="466" spans="1:17" ht="24.95" customHeight="1">
@@ -33636,7 +33567,7 @@
         <v>06842-00258-04</v>
       </c>
       <c r="M466" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="467" spans="1:17" ht="24.95" customHeight="1">
@@ -33666,7 +33597,7 @@
         <v>06842-00258-05</v>
       </c>
       <c r="M467" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="468" spans="1:17" ht="24.95" customHeight="1">
@@ -33700,7 +33631,7 @@
         <v>06942-00019-00</v>
       </c>
       <c r="M468" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N468" s="17"/>
       <c r="O468" s="17"/>
@@ -33734,7 +33665,7 @@
         <v>06942-00019-01</v>
       </c>
       <c r="M469" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N469" s="17"/>
       <c r="O469" s="17"/>
@@ -33768,7 +33699,7 @@
         <v>06942-00019-02</v>
       </c>
       <c r="M470" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N470" s="17"/>
       <c r="O470" s="17"/>
@@ -33802,7 +33733,7 @@
         <v>06942-00019-03</v>
       </c>
       <c r="M471" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N471" s="17"/>
       <c r="O471" s="17"/>
@@ -33836,7 +33767,7 @@
         <v>06942-00019-04</v>
       </c>
       <c r="M472" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N472" s="17"/>
       <c r="O472" s="17"/>
@@ -33870,7 +33801,7 @@
         <v>06942-00019-05</v>
       </c>
       <c r="M473" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N473" s="17"/>
       <c r="O473" s="17"/>
@@ -33904,7 +33835,7 @@
         <v>06942-00019-06</v>
       </c>
       <c r="M474" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N474" s="17"/>
       <c r="O474" s="17"/>
@@ -33938,7 +33869,7 @@
         <v>06942-00019-07</v>
       </c>
       <c r="M475" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N475" s="17"/>
       <c r="O475" s="17"/>
@@ -33972,7 +33903,7 @@
         <v>06942-00019-08</v>
       </c>
       <c r="M476" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N476" s="17"/>
       <c r="O476" s="17"/>
@@ -34005,7 +33936,7 @@
         <v>06942-00019-09</v>
       </c>
       <c r="M477" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="478" spans="1:17" ht="24.95" customHeight="1">
@@ -34035,7 +33966,7 @@
         <v>06942-00019-10</v>
       </c>
       <c r="M478" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="479" spans="1:17" ht="24.95" customHeight="1">
@@ -34065,7 +33996,7 @@
         <v>06942-00019-11</v>
       </c>
       <c r="M479" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N479" s="18"/>
       <c r="O479" s="17"/>
@@ -34105,7 +34036,7 @@
         <v>06942-00019-12</v>
       </c>
       <c r="M480" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N480" s="17"/>
       <c r="O480" s="17"/>
@@ -34141,7 +34072,7 @@
         <v>06942-00021-00</v>
       </c>
       <c r="M481" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N481" s="17"/>
       <c r="O481" s="17"/>
@@ -34181,7 +34112,7 @@
         <v>06942-00021-01</v>
       </c>
       <c r="M482" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N482" s="17"/>
       <c r="O482" s="17"/>
@@ -34217,7 +34148,7 @@
         <v>06942-00234-00</v>
       </c>
       <c r="M483" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N483" s="17"/>
       <c r="O483" s="17"/>
@@ -34257,7 +34188,7 @@
         <v>06942-00234-01</v>
       </c>
       <c r="M484" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N484" s="17"/>
       <c r="O484" s="17"/>
@@ -34293,7 +34224,7 @@
         <v>06942-00290-00</v>
       </c>
       <c r="M485" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N485" s="17"/>
       <c r="O485" s="17"/>
@@ -34325,7 +34256,7 @@
         <v>06942-00290-01</v>
       </c>
       <c r="M486" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N486" s="17"/>
       <c r="O486" s="17"/>
@@ -34357,7 +34288,7 @@
         <v>06942-00290-02</v>
       </c>
       <c r="M487" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N487" s="17"/>
       <c r="O487" s="17"/>
@@ -34389,7 +34320,7 @@
         <v>06942-00290-03</v>
       </c>
       <c r="M488" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N488" s="17"/>
       <c r="O488" s="17"/>
@@ -34421,7 +34352,7 @@
         <v>06942-00290-04</v>
       </c>
       <c r="M489" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N489" s="17"/>
       <c r="O489" s="17"/>
@@ -34453,7 +34384,7 @@
         <v>06942-00290-05</v>
       </c>
       <c r="M490" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N490" s="17"/>
       <c r="O490" s="17"/>
@@ -34485,7 +34416,7 @@
         <v>06942-00290-06</v>
       </c>
       <c r="M491" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="492" spans="1:17" ht="24.95" customHeight="1">
@@ -34513,7 +34444,7 @@
         <v>06942-00290-07</v>
       </c>
       <c r="M492" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N492" s="17"/>
       <c r="O492" s="17"/>
@@ -34545,7 +34476,7 @@
         <v>06942-00290-08</v>
       </c>
       <c r="M493" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N493" s="18"/>
       <c r="O493" s="17"/>
@@ -34585,7 +34516,7 @@
         <v>06942-00290-09</v>
       </c>
       <c r="M494" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N494" s="17"/>
       <c r="O494" s="17"/>
@@ -34619,7 +34550,7 @@
         <v>06942-00365-00</v>
       </c>
       <c r="M495" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="496" spans="1:17" ht="24.95" customHeight="1">
@@ -34655,7 +34586,7 @@
         <v>06942-00365-01</v>
       </c>
       <c r="M496" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N496" s="17"/>
       <c r="O496" s="17"/>
@@ -34691,7 +34622,7 @@
         <v>06942-00371-00</v>
       </c>
       <c r="M497" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N497" s="17"/>
       <c r="O497" s="17"/>
@@ -34723,7 +34654,7 @@
         <v>06942-00371-01</v>
       </c>
       <c r="M498" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N498" s="18"/>
       <c r="O498" s="17"/>
@@ -34757,7 +34688,7 @@
         <v>06942-00371-02</v>
       </c>
       <c r="M499" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N499" s="18"/>
       <c r="O499" s="17"/>
@@ -34789,7 +34720,7 @@
         <v>06942-00371-03</v>
       </c>
       <c r="M500" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N500" s="17"/>
       <c r="O500" s="17"/>
@@ -34821,7 +34752,7 @@
         <v>06942-00371-04</v>
       </c>
       <c r="M501" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N501" s="18"/>
       <c r="O501" s="17"/>
@@ -34861,7 +34792,7 @@
         <v>06942-00371-05</v>
       </c>
       <c r="M502" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N502" s="17"/>
       <c r="O502" s="17"/>
@@ -34895,7 +34826,7 @@
         <v>06942-05320-00</v>
       </c>
       <c r="M503" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N503" s="53"/>
       <c r="O503" s="53"/>
@@ -34927,7 +34858,7 @@
         <v>06942-05320-01</v>
       </c>
       <c r="M504" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N504" s="53"/>
       <c r="O504" s="53"/>
@@ -34959,7 +34890,7 @@
         <v>06942-05320-02</v>
       </c>
       <c r="M505" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N505" s="53"/>
       <c r="O505" s="53"/>
@@ -34991,7 +34922,7 @@
         <v>06942-05320-03</v>
       </c>
       <c r="M506" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N506" s="17"/>
       <c r="O506" s="17"/>
@@ -35023,7 +34954,7 @@
         <v>06942-05320-04</v>
       </c>
       <c r="M507" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N507" s="17"/>
       <c r="O507" s="17"/>
@@ -35055,7 +34986,7 @@
         <v>06942-05320-05</v>
       </c>
       <c r="M508" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N508" s="17"/>
       <c r="O508" s="17"/>
@@ -35087,7 +35018,7 @@
         <v>06942-05320-06</v>
       </c>
       <c r="M509" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N509" s="17"/>
       <c r="O509" s="17"/>
@@ -35119,7 +35050,7 @@
         <v>06942-05320-07</v>
       </c>
       <c r="M510" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N510" s="17"/>
       <c r="O510" s="17"/>
@@ -35151,7 +35082,7 @@
         <v>06942-05320-08</v>
       </c>
       <c r="M511" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N511" s="17"/>
       <c r="O511" s="17"/>
@@ -35183,7 +35114,7 @@
         <v>06942-05320-09</v>
       </c>
       <c r="M512" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N512" s="17"/>
       <c r="O512" s="17"/>
@@ -35215,7 +35146,7 @@
         <v>06942-05320-10</v>
       </c>
       <c r="M513" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N513" s="17"/>
       <c r="O513" s="17"/>
@@ -35247,7 +35178,7 @@
         <v>06942-05320-11</v>
       </c>
       <c r="M514" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N514" s="17"/>
       <c r="O514" s="17"/>
@@ -35279,7 +35210,7 @@
         <v>06942-05320-12</v>
       </c>
       <c r="M515" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N515" s="17"/>
       <c r="O515" s="17"/>
@@ -35311,7 +35242,7 @@
         <v>06942-05320-13</v>
       </c>
       <c r="M516" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N516" s="17"/>
       <c r="O516" s="17"/>
@@ -35343,7 +35274,7 @@
         <v>06942-05320-14</v>
       </c>
       <c r="M517" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N517" s="17"/>
       <c r="O517" s="17"/>
@@ -35383,7 +35314,7 @@
         <v>06942-05320-15</v>
       </c>
       <c r="M518" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N518" s="17"/>
       <c r="O518" s="17"/>
@@ -35415,7 +35346,7 @@
         <v>07042-00010-00</v>
       </c>
       <c r="M519" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N519" s="17"/>
       <c r="O519" s="17"/>
@@ -35447,7 +35378,7 @@
         <v>07042-00010-01</v>
       </c>
       <c r="M520" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N520" s="17"/>
       <c r="O520" s="17"/>
@@ -35479,7 +35410,7 @@
         <v>07042-00010-02</v>
       </c>
       <c r="M521" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N521" s="17"/>
       <c r="O521" s="17"/>
@@ -35519,7 +35450,7 @@
         <v>07042-00010-03</v>
       </c>
       <c r="M522" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N522" s="17"/>
       <c r="O522" s="17"/>
@@ -35551,7 +35482,7 @@
         <v>07042-00026-00</v>
       </c>
       <c r="M523" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="524" spans="1:17" ht="24.95" customHeight="1">
@@ -35579,7 +35510,7 @@
         <v>07042-00059-00</v>
       </c>
       <c r="M524" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="525" spans="1:17" ht="24.95" customHeight="1">
@@ -35607,7 +35538,7 @@
         <v>07042-00059-01</v>
       </c>
       <c r="M525" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N525" s="17"/>
       <c r="O525" s="17"/>
@@ -35639,7 +35570,7 @@
         <v>07042-00059-02</v>
       </c>
       <c r="M526" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N526" s="17"/>
       <c r="O526" s="17"/>
@@ -35671,7 +35602,7 @@
         <v>07042-00059-03</v>
       </c>
       <c r="M527" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N527" s="18"/>
       <c r="O527" s="17"/>
@@ -35709,7 +35640,7 @@
         <v>07042-00059-04</v>
       </c>
       <c r="M528" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N528" s="17"/>
       <c r="O528" s="17"/>
@@ -35741,7 +35672,7 @@
         <v>07142-00010-00</v>
       </c>
       <c r="M529" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N529" s="17"/>
       <c r="O529" s="17"/>
@@ -35777,7 +35708,7 @@
         <v>07142-00010-01</v>
       </c>
       <c r="M530" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N530" s="17"/>
       <c r="O530" s="17"/>
@@ -35811,7 +35742,7 @@
         <v>07142-00040-00</v>
       </c>
       <c r="M531" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="532" spans="1:17" ht="24.95" customHeight="1">
@@ -35839,7 +35770,7 @@
         <v>07142-00040-01</v>
       </c>
       <c r="M532" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="533" spans="1:17" ht="24.95" customHeight="1">
@@ -35869,7 +35800,7 @@
         <v>07142-00057-00</v>
       </c>
       <c r="M533" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N533" s="17"/>
       <c r="O533" s="17"/>
@@ -35901,7 +35832,7 @@
         <v>07142-00057-01</v>
       </c>
       <c r="M534" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N534" s="18"/>
       <c r="O534" s="17"/>
@@ -35933,7 +35864,7 @@
         <v>07142-00057-02</v>
       </c>
       <c r="M535" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N535" s="17"/>
       <c r="O535" s="17"/>
@@ -35969,7 +35900,7 @@
         <v>07142-00057-03</v>
       </c>
       <c r="M536" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N536" s="17"/>
       <c r="O536" s="17"/>
@@ -35999,7 +35930,7 @@
         <v>07143-00044-00</v>
       </c>
       <c r="M537" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="538" spans="1:17" ht="24.95" customHeight="1">
@@ -36025,7 +35956,7 @@
         <v>07143-00044-01</v>
       </c>
       <c r="M538" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N538" s="17"/>
       <c r="O538" s="17"/>
@@ -36055,7 +35986,7 @@
         <v>07143-00044-02</v>
       </c>
       <c r="M539" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N539" s="17"/>
       <c r="O539" s="17"/>
@@ -36089,7 +36020,7 @@
         <v>07143-00044-03</v>
       </c>
       <c r="M540" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="541" spans="1:17" ht="24.95" customHeight="1">
@@ -36123,7 +36054,7 @@
         <v>17301-43650-00</v>
       </c>
       <c r="M541" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N541" s="53"/>
       <c r="O541" s="53"/>
@@ -36153,7 +36084,7 @@
         <v>17301-43650-01</v>
       </c>
       <c r="M542" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N542" s="17"/>
       <c r="O542" s="17"/>
@@ -36185,7 +36116,7 @@
         <v>17301-43650-02</v>
       </c>
       <c r="M543" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N543" s="17"/>
       <c r="O543" s="17"/>
@@ -36221,7 +36152,7 @@
         <v>17301-43651-00</v>
       </c>
       <c r="M544" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="545" spans="1:17" ht="24.95" customHeight="1">
@@ -36247,7 +36178,7 @@
         <v>17301-43651-01</v>
       </c>
       <c r="M545" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N545" s="17"/>
       <c r="O545" s="17"/>
@@ -36279,7 +36210,7 @@
         <v>17301-43651-02</v>
       </c>
       <c r="M546" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N546" s="17"/>
       <c r="O546" s="17"/>
@@ -36315,7 +36246,7 @@
         <v>17301-43660-00</v>
       </c>
       <c r="M547" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="548" spans="1:17" ht="24.95" customHeight="1">
@@ -36341,7 +36272,7 @@
         <v>17301-43660-01</v>
       </c>
       <c r="M548" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N548" s="17"/>
       <c r="O548" s="17"/>
@@ -36371,7 +36302,7 @@
         <v>17301-43660-02</v>
       </c>
       <c r="M549" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N549" s="17"/>
       <c r="O549" s="17"/>
@@ -36401,7 +36332,7 @@
         <v>17301-43660-03</v>
       </c>
       <c r="M550" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N550" s="17"/>
       <c r="O550" s="17"/>
@@ -36431,7 +36362,7 @@
         <v>17301-43660-04</v>
       </c>
       <c r="M551" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N551" s="17"/>
       <c r="O551" s="17"/>
@@ -36461,7 +36392,7 @@
         <v>17301-43660-05</v>
       </c>
       <c r="M552" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N552" s="17"/>
       <c r="O552" s="17"/>
@@ -36491,7 +36422,7 @@
         <v>17301-43660-06</v>
       </c>
       <c r="M553" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="554" spans="1:17" ht="24.95" customHeight="1">
@@ -36517,7 +36448,7 @@
         <v>17301-43660-07</v>
       </c>
       <c r="M554" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N554" s="17"/>
       <c r="O554" s="17"/>
@@ -36547,7 +36478,7 @@
         <v>17301-43660-08</v>
       </c>
       <c r="M555" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N555" s="17"/>
       <c r="O555" s="17"/>
@@ -36579,7 +36510,7 @@
         <v>17301-43660-09</v>
       </c>
       <c r="M556" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N556" s="18"/>
       <c r="O556" s="17"/>
@@ -36609,7 +36540,7 @@
         <v>17301-43661-00</v>
       </c>
       <c r="M557" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="558" spans="1:17" ht="24.95" customHeight="1">
@@ -36635,7 +36566,7 @@
         <v>17301-43661-01</v>
       </c>
       <c r="M558" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N558" s="17"/>
       <c r="O558" s="17"/>
@@ -36665,7 +36596,7 @@
         <v>17301-43661-02</v>
       </c>
       <c r="M559" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N559" s="17"/>
       <c r="O559" s="17"/>
@@ -36695,7 +36626,7 @@
         <v>17301-43661-03</v>
       </c>
       <c r="M560" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N560" s="17"/>
       <c r="O560" s="17"/>
@@ -36727,7 +36658,7 @@
         <v>17301-43661-04</v>
       </c>
       <c r="M561" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N561" s="17"/>
       <c r="O561" s="17"/>
@@ -36757,7 +36688,7 @@
         <v>17301-43661-05</v>
       </c>
       <c r="M562" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N562" s="17"/>
       <c r="O562" s="17"/>
@@ -36787,7 +36718,7 @@
         <v>17301-43661-06</v>
       </c>
       <c r="M563" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="564" spans="1:17" ht="24.95" customHeight="1">
@@ -36813,7 +36744,7 @@
         <v>17301-43661-07</v>
       </c>
       <c r="M564" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N564" s="17"/>
       <c r="O564" s="17"/>
@@ -36843,7 +36774,7 @@
         <v>17301-43661-08</v>
       </c>
       <c r="M565" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N565" s="17"/>
       <c r="O565" s="17"/>
@@ -36874,7 +36805,7 @@
         <v>17301-43661-09</v>
       </c>
       <c r="M566" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N566" s="17"/>
       <c r="O566" s="17"/>
@@ -36904,7 +36835,7 @@
         <v>17301-43664-00</v>
       </c>
       <c r="M567" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="568" spans="1:17" ht="24" customHeight="1">
@@ -36929,7 +36860,7 @@
         <v>17301-43664-01</v>
       </c>
       <c r="M568" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N568" s="17"/>
       <c r="O568" s="17"/>
@@ -36959,7 +36890,7 @@
         <v>17301-43664-02</v>
       </c>
       <c r="M569" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N569" s="17"/>
       <c r="O569" s="17"/>
@@ -36989,7 +36920,7 @@
         <v>17301-43664-03</v>
       </c>
       <c r="M570" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N570" s="18"/>
       <c r="O570" s="17"/>
@@ -37019,7 +36950,7 @@
         <v>17301-43664-04</v>
       </c>
       <c r="M571" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N571" s="18"/>
       <c r="O571" s="17"/>
@@ -37049,7 +36980,7 @@
         <v>17301-43664-05</v>
       </c>
       <c r="M572" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N572" s="17"/>
       <c r="O572" s="17"/>
@@ -37079,7 +37010,7 @@
         <v>17301-43664-06</v>
       </c>
       <c r="M573" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N573" s="17"/>
       <c r="O573" s="17"/>
@@ -37108,7 +37039,7 @@
         <v>17301-43664-07</v>
       </c>
       <c r="M574" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N574" s="17"/>
       <c r="O574" s="17"/>
@@ -37138,7 +37069,7 @@
         <v>17301-43664-08</v>
       </c>
       <c r="M575" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N575" s="17"/>
       <c r="O575" s="17"/>
@@ -37168,7 +37099,7 @@
         <v>17301-43664-09</v>
       </c>
       <c r="M576" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N576" s="23"/>
       <c r="O576" s="23"/>
@@ -37197,7 +37128,7 @@
         <v>17301-43664-10</v>
       </c>
       <c r="M577" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="578" spans="1:17" ht="24" customHeight="1">
@@ -37223,7 +37154,7 @@
         <v>17301-43664-11</v>
       </c>
       <c r="M578" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N578" s="17"/>
       <c r="O578" s="17"/>
@@ -37255,7 +37186,7 @@
         <v>17301-43664-12</v>
       </c>
       <c r="M579" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N579" s="17"/>
       <c r="O579" s="17"/>
@@ -37284,7 +37215,7 @@
         <v>17301-43665-00</v>
       </c>
       <c r="M580" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N580" s="17"/>
       <c r="O580" s="17"/>
@@ -37316,7 +37247,7 @@
         <v>17301-43665-01</v>
       </c>
       <c r="M581" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N581" s="17"/>
       <c r="O581" s="17"/>
@@ -37346,7 +37277,7 @@
         <v>17301-43665-02</v>
       </c>
       <c r="M582" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N582" s="17"/>
       <c r="O582" s="17"/>
@@ -37375,7 +37306,7 @@
         <v>17301-43665-03</v>
       </c>
       <c r="M583" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N583" s="18"/>
       <c r="O583" s="17"/>
@@ -37405,7 +37336,7 @@
         <v>17301-43665-04</v>
       </c>
       <c r="M584" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N584" s="18"/>
       <c r="O584" s="17"/>
@@ -37435,7 +37366,7 @@
         <v>17301-43665-05</v>
       </c>
       <c r="M585" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N585" s="17"/>
       <c r="O585" s="17"/>
@@ -37465,7 +37396,7 @@
         <v>17301-43665-06</v>
       </c>
       <c r="M586" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N586" s="17"/>
       <c r="O586" s="17"/>
@@ -37495,7 +37426,7 @@
         <v>17301-43665-07</v>
       </c>
       <c r="M587" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N587" s="17"/>
       <c r="O587" s="17"/>
@@ -37527,7 +37458,7 @@
         <v>17301-43665-08</v>
       </c>
       <c r="M588" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N588" s="143"/>
       <c r="O588" s="143"/>
@@ -37556,7 +37487,7 @@
         <v>17301-43665-09</v>
       </c>
       <c r="M589" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N589" s="17"/>
       <c r="O589" s="17"/>
@@ -37586,7 +37517,7 @@
         <v>17301-43665-10</v>
       </c>
       <c r="M590" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="591" spans="1:17" ht="24" customHeight="1">
@@ -37612,7 +37543,7 @@
         <v>17301-43665-11</v>
       </c>
       <c r="M591" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N591" s="17"/>
       <c r="O591" s="17"/>
@@ -37644,7 +37575,7 @@
         <v>17301-43665-12</v>
       </c>
       <c r="M592" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N592" s="17"/>
       <c r="O592" s="17"/>
@@ -37674,7 +37605,7 @@
         <v>17301-43666-00</v>
       </c>
       <c r="M593" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N593" s="17"/>
       <c r="O593" s="17"/>
@@ -37704,7 +37635,7 @@
         <v>17301-43666-01</v>
       </c>
       <c r="M594" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N594" s="17"/>
       <c r="O594" s="17"/>
@@ -37734,7 +37665,7 @@
         <v>17301-43666-02</v>
       </c>
       <c r="M595" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N595" s="17"/>
       <c r="O595" s="17"/>
@@ -37766,7 +37697,7 @@
         <v>17301-43666-03</v>
       </c>
       <c r="M596" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N596" s="18"/>
       <c r="O596" s="17"/>
@@ -37796,7 +37727,7 @@
         <v>17301-43666-04</v>
       </c>
       <c r="M597" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N597" s="18"/>
       <c r="O597" s="17"/>
@@ -37826,7 +37757,7 @@
         <v>17301-43666-05</v>
       </c>
       <c r="M598" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N598" s="17"/>
       <c r="O598" s="17"/>
@@ -37856,7 +37787,7 @@
         <v>17301-43666-06</v>
       </c>
       <c r="M599" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N599" s="17"/>
       <c r="O599" s="17"/>
@@ -37886,7 +37817,7 @@
         <v>17301-43666-07</v>
       </c>
       <c r="M600" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N600" s="17"/>
       <c r="O600" s="17"/>
@@ -37916,7 +37847,7 @@
         <v>17301-43666-08</v>
       </c>
       <c r="M601" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N601" s="143"/>
       <c r="O601" s="143"/>
@@ -37946,7 +37877,7 @@
         <v>17301-43666-09</v>
       </c>
       <c r="M602" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N602" s="17"/>
       <c r="O602" s="17"/>
@@ -37976,7 +37907,7 @@
         <v>17301-43666-10</v>
       </c>
       <c r="M603" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N603" s="17"/>
       <c r="O603" s="17"/>
@@ -38006,7 +37937,7 @@
         <v>17301-43666-11</v>
       </c>
       <c r="M604" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N604" s="17"/>
       <c r="O604" s="17"/>
@@ -38038,7 +37969,7 @@
         <v>17301-43666-12</v>
       </c>
       <c r="M605" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N605" s="17"/>
       <c r="O605" s="17"/>
@@ -38073,7 +38004,7 @@
         <v>17301-44340-00</v>
       </c>
       <c r="M606" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="607" spans="1:17" ht="24" customHeight="1">
@@ -38100,7 +38031,7 @@
         <v>63542-00556-00</v>
       </c>
       <c r="M607" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="N607" s="17"/>
       <c r="O607" s="17"/>
@@ -38128,7 +38059,7 @@
         <v>06842-00488-00</v>
       </c>
       <c r="M608" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="609" spans="2:13" ht="24" customHeight="1">
@@ -38155,7 +38086,7 @@
         <v>06542-00132-07</v>
       </c>
       <c r="M609" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="610" spans="2:13" ht="24" customHeight="1">
@@ -38182,7 +38113,7 @@
         <v>06842-00230-07</v>
       </c>
       <c r="M610" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="611" spans="2:13" ht="24" customHeight="1">
@@ -38209,7 +38140,7 @@
         <v>06842-00230-06</v>
       </c>
       <c r="M611" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="612" spans="2:13" ht="24" customHeight="1">
@@ -38236,7 +38167,7 @@
         <v>06842-00234-01</v>
       </c>
       <c r="M612" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="613" spans="2:13" ht="24" customHeight="1">
@@ -38263,7 +38194,7 @@
         <v>06842-00488-01</v>
       </c>
       <c r="M613" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="614" spans="2:13" ht="24" customHeight="1">
@@ -38290,7 +38221,7 @@
         <v>06942-00371-06</v>
       </c>
       <c r="M614" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="615" spans="2:13">
@@ -38317,7 +38248,7 @@
         <v>05742-00323-05</v>
       </c>
       <c r="M615" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="616" spans="2:13" ht="24" customHeight="1">
@@ -38344,7 +38275,7 @@
         <v>05742-00334-04</v>
       </c>
       <c r="M616" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="617" spans="2:13" ht="24" customHeight="1">
@@ -38371,7 +38302,7 @@
         <v>05742-00335-04</v>
       </c>
       <c r="M617" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="618" spans="2:13" ht="24" customHeight="1">
@@ -38398,7 +38329,7 @@
         <v>05742-00359-08</v>
       </c>
       <c r="M618" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="619" spans="2:13" ht="24" customHeight="1">
@@ -38425,7 +38356,7 @@
         <v>05742-00773-02</v>
       </c>
       <c r="M619" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="620" spans="2:13" ht="24" customHeight="1">
@@ -38452,7 +38383,7 @@
         <v>17301-43843-00</v>
       </c>
       <c r="M620" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="621" spans="2:13" ht="24" customHeight="1">
@@ -38479,7 +38410,7 @@
         <v>17301-43843-01</v>
       </c>
       <c r="M621" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="622" spans="2:13" ht="24" customHeight="1">
@@ -38506,7 +38437,7 @@
         <v>03642-00072-01</v>
       </c>
       <c r="M622" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="623" spans="2:13" ht="24" customHeight="1">
@@ -38533,7 +38464,7 @@
         <v>03542-00091-01</v>
       </c>
       <c r="M623" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="624" spans="2:13" ht="24" customHeight="1">
@@ -38560,7 +38491,7 @@
         <v xml:space="preserve">	05742-00550-00</v>
       </c>
       <c r="M624" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="625" spans="2:13" ht="24" customHeight="1">
@@ -38587,7 +38518,7 @@
         <v xml:space="preserve">	05742-00550-01</v>
       </c>
       <c r="M625" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="626" spans="2:13" ht="24" customHeight="1">
@@ -38614,7 +38545,7 @@
         <v>03342-00130-01</v>
       </c>
       <c r="M626" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="627" spans="2:13" ht="24" customHeight="1">
@@ -38634,14 +38565,14 @@
         <v>47</v>
       </c>
       <c r="I627" s="329" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="L627" s="14" t="str">
         <f t="shared" si="12"/>
         <v>17301-43691-00</v>
       </c>
       <c r="M627" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="628" spans="2:13" ht="24" customHeight="1">
@@ -38661,14 +38592,14 @@
         <v>1422</v>
       </c>
       <c r="I628" s="238" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="L628" s="14" t="str">
         <f t="shared" si="12"/>
         <v>17301-43691-01</v>
       </c>
       <c r="M628" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="629" spans="2:13" ht="24" customHeight="1">
@@ -38688,14 +38619,14 @@
         <v>1423</v>
       </c>
       <c r="I629" s="238" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="L629" s="14" t="str">
         <f t="shared" si="12"/>
         <v>17301-43691-02</v>
       </c>
       <c r="M629" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="630" spans="2:13" ht="24" customHeight="1">
@@ -38719,7 +38650,7 @@
         <v>17301-43431-00</v>
       </c>
       <c r="M630" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="631" spans="2:13" ht="24" customHeight="1">
@@ -38743,7 +38674,7 @@
         <v>17301-43431-01</v>
       </c>
       <c r="M631" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="632" spans="2:13" ht="24" customHeight="1">
@@ -38767,7 +38698,7 @@
         <v>17301-43431-02</v>
       </c>
       <c r="M632" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="633" spans="2:13" ht="24" customHeight="1">
@@ -38791,7 +38722,7 @@
         <v>17301-43431-03</v>
       </c>
       <c r="M633" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="634" spans="2:13" ht="24" customHeight="1">
@@ -38815,7 +38746,7 @@
         <v>17301-43432-00</v>
       </c>
       <c r="M634" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="635" spans="2:13" ht="24" customHeight="1">
@@ -38839,7 +38770,7 @@
         <v>17301-43432-01</v>
       </c>
       <c r="M635" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="636" spans="2:13" ht="24" customHeight="1">
@@ -38863,7 +38794,7 @@
         <v>17301-43432-02</v>
       </c>
       <c r="M636" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="637" spans="2:13" ht="24" customHeight="1">
@@ -38887,7 +38818,7 @@
         <v>17301-43432-03</v>
       </c>
       <c r="M637" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="638" spans="2:13" ht="24" customHeight="1">
@@ -38911,7 +38842,7 @@
         <v>17301-43435-00</v>
       </c>
       <c r="M638" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="639" spans="2:13" ht="24" customHeight="1">
@@ -38935,7 +38866,7 @@
         <v>17301-43435-01</v>
       </c>
       <c r="M639" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="640" spans="2:13" ht="24" customHeight="1">
@@ -38960,7 +38891,7 @@
         <v>17301-43435-02</v>
       </c>
       <c r="M640" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="641" spans="2:13" ht="24" customHeight="1">
@@ -38984,7 +38915,7 @@
         <v>17301-43435-03</v>
       </c>
       <c r="M641" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="642" spans="2:13" ht="24" customHeight="1">
@@ -39008,7 +38939,7 @@
         <v>17301-43436-00</v>
       </c>
       <c r="M642" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="643" spans="2:13" ht="24" customHeight="1">
@@ -39032,7 +38963,7 @@
         <v>17301-43436-01</v>
       </c>
       <c r="M643" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="644" spans="2:13" ht="24" customHeight="1">
@@ -39056,7 +38987,7 @@
         <v>17301-43436-02</v>
       </c>
       <c r="M644" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="645" spans="2:13" ht="24" customHeight="1">
@@ -39080,7 +39011,7 @@
         <v>17301-43436-03</v>
       </c>
       <c r="M645" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="646" spans="2:13" ht="24" customHeight="1">
@@ -39107,7 +39038,7 @@
         <v>03742-00133-13</v>
       </c>
       <c r="M646" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="647" spans="2:13" ht="24" customHeight="1">
@@ -39134,7 +39065,7 @@
         <v>03742-00529-02</v>
       </c>
       <c r="M647" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="648" spans="2:13" ht="24" customHeight="1">
@@ -39158,7 +39089,7 @@
         <v>17301-43438-00</v>
       </c>
       <c r="M648" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="649" spans="2:13" ht="24" customHeight="1">
@@ -39182,7 +39113,7 @@
         <v>17301-43438-01</v>
       </c>
       <c r="M649" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="650" spans="2:13" ht="24" customHeight="1">
@@ -39206,7 +39137,7 @@
         <v>17301-43438-02</v>
       </c>
       <c r="M650" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="651" spans="2:13" ht="24" customHeight="1">
@@ -39230,7 +39161,7 @@
         <v>17301-43438-03</v>
       </c>
       <c r="M651" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="652" spans="2:13" ht="24" customHeight="1">
@@ -39254,7 +39185,7 @@
         <v>17301-43830-00</v>
       </c>
       <c r="M652" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="653" spans="2:13" ht="24" customHeight="1">
@@ -39281,7 +39212,7 @@
         <v>17301-43830-01</v>
       </c>
       <c r="M653" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="654" spans="2:13" ht="24" customHeight="1">
@@ -39308,7 +39239,7 @@
         <v>17301-43830-02</v>
       </c>
       <c r="M654" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="655" spans="2:13" ht="24" customHeight="1">
@@ -39335,7 +39266,7 @@
         <v>17301-43830-03</v>
       </c>
       <c r="M655" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="656" spans="2:13" ht="24" customHeight="1">
@@ -39359,7 +39290,7 @@
         <v>17301-43870	-00</v>
       </c>
       <c r="M656" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="657" spans="2:13" ht="24" customHeight="1">
@@ -39383,7 +39314,7 @@
         <v>17301-43870	-01</v>
       </c>
       <c r="M657" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="658" spans="2:13" ht="24" customHeight="1">
@@ -39407,7 +39338,7 @@
         <v>17301-43870	-02</v>
       </c>
       <c r="M658" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="659" spans="2:13" ht="24" customHeight="1">
@@ -39434,7 +39365,7 @@
         <v>05642-00505-05</v>
       </c>
       <c r="M659" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="660" spans="2:13" ht="24" customHeight="1">
@@ -39461,7 +39392,7 @@
         <v>05642-00606-06</v>
       </c>
       <c r="M660" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="661" spans="2:13" ht="24" customHeight="1">
@@ -39488,7 +39419,7 @@
         <v>05742-00773-03</v>
       </c>
       <c r="M661" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="662" spans="2:13" ht="24" customHeight="1">
@@ -39515,7 +39446,7 @@
         <v>05742-00359-09</v>
       </c>
       <c r="M662" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="663" spans="2:13" ht="24" customHeight="1">
@@ -39542,7 +39473,7 @@
         <v>05742-00335-05</v>
       </c>
       <c r="M663" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="664" spans="2:13" ht="24" customHeight="1">
@@ -39569,7 +39500,7 @@
         <v>05742-00334-05</v>
       </c>
       <c r="M664" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="665" spans="2:13" ht="24" customHeight="1">
@@ -39596,7 +39527,7 @@
         <v>05742-00323-06</v>
       </c>
       <c r="M665" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="666" spans="2:13" ht="24" customHeight="1">
@@ -39617,7 +39548,7 @@
         <v>05701-00005-00</v>
       </c>
       <c r="M666" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="667" spans="2:13" ht="24" customHeight="1">
@@ -39641,7 +39572,7 @@
         <v>05701-00005-01</v>
       </c>
       <c r="M667" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="668" spans="2:13" ht="24" customHeight="1">
@@ -39665,7 +39596,7 @@
         <v>05701-00005-02</v>
       </c>
       <c r="M668" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="669" spans="2:13" ht="24" customHeight="1">
@@ -39689,7 +39620,7 @@
         <v>05701-00005-03</v>
       </c>
       <c r="M669" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="670" spans="2:13" ht="24" customHeight="1">
@@ -39713,7 +39644,7 @@
         <v>05701-00005-04</v>
       </c>
       <c r="M670" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="671" spans="2:13" ht="24" customHeight="1">
@@ -39737,7 +39668,7 @@
         <v>05701-00005-05</v>
       </c>
       <c r="M671" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="672" spans="2:13" ht="24" customHeight="1">
@@ -39761,7 +39692,7 @@
         <v>05701-00026-00</v>
       </c>
       <c r="M672" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="673" spans="2:13" ht="24" customHeight="1">
@@ -39785,7 +39716,7 @@
         <v>05701-00026-01</v>
       </c>
       <c r="M673" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="674" spans="2:13" ht="24" customHeight="1">
@@ -39809,7 +39740,7 @@
         <v>05701-00026-02</v>
       </c>
       <c r="M674" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="675" spans="2:13" ht="24" customHeight="1">
@@ -39833,7 +39764,7 @@
         <v>05701-00026-03</v>
       </c>
       <c r="M675" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="676" spans="2:13" ht="24" customHeight="1">
@@ -39857,7 +39788,7 @@
         <v>05701-00026-04</v>
       </c>
       <c r="M676" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="677" spans="2:13" ht="24" customHeight="1">
@@ -39881,7 +39812,7 @@
         <v>05601-00120-00</v>
       </c>
       <c r="M677" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="678" spans="2:13" ht="24" customHeight="1">
@@ -39905,7 +39836,7 @@
         <v>05601-00120-01</v>
       </c>
       <c r="M678" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="679" spans="2:13" ht="24" customHeight="1">
@@ -39929,7 +39860,7 @@
         <v>05601-00120-02</v>
       </c>
       <c r="M679" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="680" spans="2:13" ht="24" customHeight="1">
@@ -39953,7 +39884,7 @@
         <v>05601-00120-03</v>
       </c>
       <c r="M680" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="681" spans="2:13" ht="24" customHeight="1">
@@ -39977,7 +39908,7 @@
         <v>05601-00120-04</v>
       </c>
       <c r="M681" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="682" spans="2:13" ht="24" customHeight="1">
@@ -40001,7 +39932,7 @@
         <v>05601-00120-05</v>
       </c>
       <c r="M682" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="683" spans="2:13" ht="24" customHeight="1">
@@ -40012,7 +39943,7 @@
         <v>1608</v>
       </c>
       <c r="M683" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="684" spans="2:13" ht="24" customHeight="1">
@@ -40036,7 +39967,7 @@
         <v>17050-05220-00</v>
       </c>
       <c r="M684" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="685" spans="2:13" ht="24" customHeight="1">
@@ -40060,7 +39991,7 @@
         <v>17050-05220-01</v>
       </c>
       <c r="M685" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="686" spans="2:13" ht="24" customHeight="1">
@@ -40087,7 +40018,7 @@
         <v>17050-05220-02</v>
       </c>
       <c r="M686" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="687" spans="2:13" ht="24" customHeight="1">
@@ -40114,7 +40045,7 @@
         <v>17050-05220-03</v>
       </c>
       <c r="M687" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="688" spans="2:13" ht="24" customHeight="1">
@@ -40138,7 +40069,7 @@
         <v>17050-05227-00</v>
       </c>
       <c r="M688" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="689" spans="2:13" ht="24" customHeight="1">
@@ -40162,7 +40093,7 @@
         <v>17050-05227-01</v>
       </c>
       <c r="M689" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="690" spans="2:13" ht="24" customHeight="1">
@@ -40173,23 +40104,23 @@
         <v>1700</v>
       </c>
       <c r="D690" s="383" t="s">
-        <v>1702</v>
+        <v>120</v>
       </c>
       <c r="E690" s="130">
         <v>8</v>
       </c>
       <c r="F690" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I690" s="238" t="s">
         <v>1709</v>
-      </c>
-      <c r="I690" s="238" t="s">
-        <v>1716</v>
       </c>
       <c r="L690" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00277-08</v>
       </c>
       <c r="M690" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="691" spans="2:13" ht="24" customHeight="1">
@@ -40200,23 +40131,23 @@
         <v>1700</v>
       </c>
       <c r="D691" s="383" t="s">
-        <v>1703</v>
+        <v>121</v>
       </c>
       <c r="E691" s="130">
         <v>4</v>
       </c>
       <c r="F691" s="4" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="I691" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L691" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00306-04</v>
       </c>
       <c r="M691" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="692" spans="2:13" ht="24" customHeight="1">
@@ -40227,23 +40158,23 @@
         <v>1700</v>
       </c>
       <c r="D692" s="383" t="s">
-        <v>1704</v>
+        <v>123</v>
       </c>
       <c r="E692" s="130">
         <v>7</v>
       </c>
       <c r="F692" s="4" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="I692" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L692" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00323-07</v>
       </c>
       <c r="M692" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="693" spans="2:13" ht="24" customHeight="1">
@@ -40254,23 +40185,23 @@
         <v>1700</v>
       </c>
       <c r="D693" s="383" t="s">
-        <v>1705</v>
+        <v>125</v>
       </c>
       <c r="E693" s="130">
         <v>6</v>
       </c>
       <c r="F693" s="4" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="I693" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L693" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00334-06</v>
       </c>
       <c r="M693" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="694" spans="2:13" ht="24" customHeight="1">
@@ -40281,23 +40212,23 @@
         <v>1700</v>
       </c>
       <c r="D694" s="383" t="s">
-        <v>1706</v>
+        <v>126</v>
       </c>
       <c r="E694" s="130">
         <v>6</v>
       </c>
       <c r="F694" s="4" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="I694" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L694" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00335-06</v>
       </c>
       <c r="M694" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="695" spans="2:13" ht="24" customHeight="1">
@@ -40308,23 +40239,23 @@
         <v>1700</v>
       </c>
       <c r="D695" s="383" t="s">
-        <v>1707</v>
+        <v>128</v>
       </c>
       <c r="E695" s="130">
         <v>10</v>
       </c>
       <c r="F695" s="4" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="I695" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L695" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00359-10</v>
       </c>
       <c r="M695" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="696" spans="2:13" ht="24" customHeight="1">
@@ -40335,77 +40266,77 @@
         <v>1700</v>
       </c>
       <c r="D696" s="383" t="s">
-        <v>1708</v>
+        <v>131</v>
       </c>
       <c r="E696" s="130">
         <v>4</v>
       </c>
       <c r="F696" s="4" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="I696" s="238" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="L696" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05742-00773-04</v>
       </c>
       <c r="M696" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="697" spans="2:13" ht="24" customHeight="1">
       <c r="B697" s="4" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="C697" s="358" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="D697" s="383" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="E697" s="130">
         <v>1</v>
       </c>
       <c r="F697" s="4" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="I697" s="329" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="L697" s="14" t="str">
         <f t="shared" si="14"/>
         <v>03242-00069-01</v>
       </c>
       <c r="M697" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="698" spans="2:13" ht="24" customHeight="1">
       <c r="B698" s="4" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="C698" s="358" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="D698" s="383" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="E698" s="130">
         <v>0</v>
       </c>
       <c r="F698" s="4" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="I698" s="329" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="L698" s="14" t="str">
         <f t="shared" si="14"/>
         <v>17301-43696-00</v>
       </c>
       <c r="M698" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="699" spans="2:13" ht="24" customHeight="1">
@@ -40413,10 +40344,10 @@
         <v>36</v>
       </c>
       <c r="C699" s="358" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D699" s="383" t="s">
-        <v>1727</v>
+        <v>37</v>
       </c>
       <c r="E699" s="130">
         <v>8</v>
@@ -40425,14 +40356,14 @@
         <v>1475</v>
       </c>
       <c r="I699" s="238" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="L699" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00173-08</v>
       </c>
       <c r="M699" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="700" spans="2:13" ht="24" customHeight="1">
@@ -40440,26 +40371,26 @@
         <v>36</v>
       </c>
       <c r="C700" s="358" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D700" s="383" t="s">
-        <v>1730</v>
+        <v>39</v>
       </c>
       <c r="E700" s="130">
         <v>9</v>
       </c>
       <c r="F700" s="4" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="I700" s="238" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="L700" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00411-09</v>
       </c>
       <c r="M700" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="701" spans="2:13" ht="24" customHeight="1">
@@ -40467,26 +40398,26 @@
         <v>36</v>
       </c>
       <c r="C701" s="358" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D701" s="383" t="s">
-        <v>1731</v>
+        <v>41</v>
       </c>
       <c r="E701" s="130">
         <v>3</v>
       </c>
       <c r="F701" s="4" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="I701" s="238" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="L701" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00412-03</v>
       </c>
       <c r="M701" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="702" spans="2:13" ht="24" customHeight="1">
@@ -40494,26 +40425,26 @@
         <v>36</v>
       </c>
       <c r="C702" s="358" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D702" s="383" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="E702" s="130">
         <v>9</v>
       </c>
       <c r="F702" s="4" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="I702" s="238" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="L702" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05501-00029-09</v>
       </c>
       <c r="M702" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="703" spans="2:13" ht="24" customHeight="1">
@@ -40521,26 +40452,26 @@
         <v>36</v>
       </c>
       <c r="C703" s="358" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D703" s="383" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="E703" s="130">
         <v>4</v>
       </c>
       <c r="F703" s="4" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="I703" s="238" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="L703" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05501-00086-04</v>
       </c>
       <c r="M703" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="704" spans="2:13" ht="24" customHeight="1">
@@ -40548,10 +40479,10 @@
         <v>36</v>
       </c>
       <c r="C704" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D704" s="383" t="s">
-        <v>1727</v>
+        <v>37</v>
       </c>
       <c r="E704" s="130">
         <v>9</v>
@@ -40560,14 +40491,14 @@
         <v>408</v>
       </c>
       <c r="I704" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L704" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00173-09</v>
       </c>
       <c r="M704" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="705" spans="2:13" ht="24" customHeight="1">
@@ -40575,26 +40506,26 @@
         <v>36</v>
       </c>
       <c r="C705" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D705" s="383" t="s">
-        <v>1730</v>
+        <v>39</v>
       </c>
       <c r="E705" s="130">
         <v>10</v>
       </c>
       <c r="F705" s="4" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="I705" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L705" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00411-10</v>
       </c>
       <c r="M705" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="706" spans="2:13" ht="24" customHeight="1">
@@ -40602,188 +40533,188 @@
         <v>36</v>
       </c>
       <c r="C706" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D706" s="383" t="s">
-        <v>1731</v>
+        <v>41</v>
       </c>
       <c r="E706" s="130">
         <v>4</v>
       </c>
       <c r="F706" s="4" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="I706" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L706" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00412-04</v>
       </c>
       <c r="M706" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="707" spans="2:13" ht="24" customHeight="1">
       <c r="B707" s="4" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="C707" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D707" s="383" t="s">
-        <v>1743</v>
+        <v>235</v>
       </c>
       <c r="E707" s="130">
         <v>11</v>
       </c>
       <c r="F707" s="4" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="I707" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L707" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05642-00683-11</v>
       </c>
       <c r="M707" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="708" spans="2:13" ht="24" customHeight="1">
       <c r="B708" s="4" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="C708" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D708" s="383" t="s">
-        <v>1744</v>
+        <v>236</v>
       </c>
       <c r="E708" s="130">
         <v>6</v>
       </c>
       <c r="F708" s="4" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="I708" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L708" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05642-00924-06</v>
       </c>
       <c r="M708" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="709" spans="2:13" ht="24" customHeight="1">
       <c r="B709" s="4" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="C709" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D709" s="383" t="s">
-        <v>1745</v>
+        <v>238</v>
       </c>
       <c r="E709" s="130">
         <v>4</v>
       </c>
       <c r="F709" s="4" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="I709" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L709" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05642-00998-04</v>
       </c>
       <c r="M709" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="710" spans="2:13" ht="24" customHeight="1">
       <c r="B710" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C710" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D710" s="383" t="s">
-        <v>1749</v>
+        <v>246</v>
       </c>
       <c r="E710" s="130">
         <v>5</v>
       </c>
       <c r="F710" s="4" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="I710" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L710" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00549-05</v>
       </c>
       <c r="M710" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="711" spans="2:13" ht="24" customHeight="1">
       <c r="B711" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C711" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D711" s="383" t="s">
-        <v>1750</v>
+        <v>481</v>
       </c>
       <c r="E711" s="130">
         <v>6</v>
       </c>
       <c r="F711" s="4" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="I711" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L711" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00559-06</v>
       </c>
       <c r="M711" s="393" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="712" spans="2:13" ht="24" customHeight="1">
       <c r="B712" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C712" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D712" s="383" t="s">
-        <v>1751</v>
+        <v>247</v>
       </c>
       <c r="E712" s="130">
         <v>5</v>
       </c>
       <c r="F712" s="4" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="I712" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L712" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05542-00639-05</v>
       </c>
       <c r="M712" s="393" t="s">
-        <v>1762</v>
+        <v>47</v>
       </c>
     </row>
     <row r="713" spans="2:13" ht="24" customHeight="1">
@@ -40791,26 +40722,26 @@
         <v>36</v>
       </c>
       <c r="C713" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D713" s="383" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="E713" s="130">
         <v>10</v>
       </c>
       <c r="F713" s="4" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="I713" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L713" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05501-00059-10</v>
       </c>
       <c r="M713" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="714" spans="2:13" ht="24" customHeight="1">
@@ -40818,197 +40749,209 @@
         <v>36</v>
       </c>
       <c r="C714" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D714" s="383" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="E714" s="130">
         <v>5</v>
       </c>
       <c r="F714" s="4" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="I714" s="238" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L714" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05501-00086-05</v>
       </c>
       <c r="M714" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="715" spans="2:13" ht="24" customHeight="1">
       <c r="B715" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C715" s="358" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D715" s="383" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="E715" s="130">
         <v>2</v>
       </c>
       <c r="F715" s="4" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="I715" s="238" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="L715" s="14" t="str">
         <f t="shared" si="14"/>
         <v>05501-00060-02</v>
       </c>
       <c r="M715" s="393" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="716" spans="2:13" ht="24" customHeight="1">
       <c r="B716" s="4" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C716" s="358" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="D716" s="383" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="E716" s="130">
         <v>0</v>
       </c>
       <c r="I716" s="238" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="L716" s="14" t="str">
         <f t="shared" si="14"/>
         <v>17301-43690-00</v>
       </c>
+      <c r="M716" s="393" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="717" spans="2:13" ht="24" customHeight="1">
       <c r="B717" s="4" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C717" s="358" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="D717" s="383" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="E717" s="130">
         <v>1</v>
       </c>
       <c r="I717" s="329" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="L717" s="14" t="str">
         <f t="shared" si="14"/>
         <v>17301-43690-01</v>
       </c>
+      <c r="M717" s="393" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="718" spans="2:13" ht="24" customHeight="1">
       <c r="B718" s="4" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C718" s="358" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="D718" s="383" t="s">
-        <v>1767</v>
+        <v>611</v>
       </c>
       <c r="E718" s="130">
         <v>2</v>
       </c>
       <c r="F718" s="4" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="I718" s="329" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="L718" s="14" t="str">
         <f t="shared" si="14"/>
         <v>17301-43690-02</v>
       </c>
+      <c r="M718" s="393" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="719" spans="2:13" ht="24" customHeight="1">
       <c r="B719" s="4" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C719" s="358" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="D719" s="383" t="s">
-        <v>1767</v>
+        <v>611</v>
       </c>
       <c r="E719" s="130">
         <v>3</v>
       </c>
       <c r="F719" s="4" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="I719" s="329" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="L719" s="14" t="str">
         <f t="shared" si="14"/>
         <v>17301-43690-03</v>
       </c>
+      <c r="M719" s="170" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="720" spans="2:13" ht="24" customHeight="1">
       <c r="B720" s="4" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="C720" s="358" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="D720" s="383" t="s">
-        <v>1785</v>
+        <v>200</v>
       </c>
       <c r="E720" s="130">
         <v>3</v>
       </c>
       <c r="F720" s="4" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="I720" s="238" t="s">
-        <v>1787</v>
+        <v>1770</v>
       </c>
       <c r="L720" s="14" t="str">
         <f t="shared" si="14"/>
         <v>03742-00529-03</v>
       </c>
-      <c r="M720" s="170" t="s">
-        <v>1283</v>
+      <c r="M720" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="721" spans="2:13" ht="24" customHeight="1">
       <c r="B721" s="4" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="C721" s="358" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="D721" s="383" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="E721" s="130">
         <v>0</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="I721" s="238" t="s">
-        <v>1786</v>
+        <v>1769</v>
       </c>
       <c r="L721" s="14" t="str">
         <f t="shared" si="14"/>
         <v>03742-00557-00</v>
       </c>
       <c r="M721" s="4" t="s">
-        <v>1788</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -66223,8 +66166,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="24" customHeight="1"/>
@@ -67246,7 +67189,7 @@
       <c r="R34" s="48"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="2:19" ht="30" customHeight="1">
+    <row r="35" spans="2:19" ht="35.25" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
@@ -82091,17 +82034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91d85bdb-9e43-4612-a355-15dcada7f308">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="59ea8695-c762-4878-851f-fa6dcb8e5ca6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -82110,7 +82042,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010035C72C03AE168243B5B9E5D1E81515B6" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="07f015596866f3bb30c527f478b0e2ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91d85bdb-9e43-4612-a355-15dcada7f308" xmlns:ns3="59ea8695-c762-4878-851f-fa6dcb8e5ca6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0bae843de98ba6a800a80b6193d6941" ns2:_="" ns3:_="">
     <xsd:import namespace="91d85bdb-9e43-4612-a355-15dcada7f308"/>
@@ -82351,24 +82283,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C132A-861B-42F5-8545-9D1F1DA06BBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="59ea8695-c762-4878-851f-fa6dcb8e5ca6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="91d85bdb-9e43-4612-a355-15dcada7f308"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91d85bdb-9e43-4612-a355-15dcada7f308">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="59ea8695-c762-4878-851f-fa6dcb8e5ca6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A65B04-09B4-4C85-8512-1DFC0D49F61A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -82376,7 +82302,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A80381-6AFA-47C4-B429-753276B0765E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -82393,4 +82319,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C132A-861B-42F5-8545-9D1F1DA06BBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="59ea8695-c762-4878-851f-fa6dcb8e5ca6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="91d85bdb-9e43-4612-a355-15dcada7f308"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/コントローラ履歴/コントローラ品番一覧.xlsx
+++ b/コントローラ履歴/コントローラ品番一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117029\Documents\Git\myTest\コントローラ履歴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F4DFD-F3A7-4975-AD60-EE34489B79FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B510C-719D-4B2E-8018-4217457F82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="品番" sheetId="37" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'d30'!$B$53:$Q$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">バージョン!$A$1:$M$719</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">適用号機!$A$1:$R$1310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">品番!$A$1:$I$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">品番!$A$1:$I$206</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'d29'!$B$1:$Q$179</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'d30'!$B$1:$Q$181</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">バージョン!$A$1:$J$593</definedName>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9850" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9998" uniqueCount="1824">
   <si>
     <t>メインプログラム</t>
     <phoneticPr fontId="1"/>
@@ -10435,10 +10435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>17301-43690</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規、E3Fキャノピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10718,6 +10714,525 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17301-43840</t>
+  </si>
+  <si>
+    <t>17301-43840</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A14IW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55898</t>
+  </si>
+  <si>
+    <t>55898</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55973</t>
+  </si>
+  <si>
+    <t>55973</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>56474</t>
+  </si>
+  <si>
+    <t>56474</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60245</t>
+  </si>
+  <si>
+    <t>60245</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60642</t>
+  </si>
+  <si>
+    <t>60642</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61698</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62495</t>
+  </si>
+  <si>
+    <t>62495</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規：</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54721</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B007816</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様：ラジオ情報表示改善（番組名、ミュートボタン、スキャンなど）</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>バングミメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P117</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様：ラジオ番組一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バングミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合：A14IWの流量設定の初期値が仕様と違う</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仕様：反射防止のため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パネル変更</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不具合：ラジオアンテナ電源が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にならない
+仕様：自動圧抜き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ON/OFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>切替追加</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アツヌ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P124</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P133</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合：バックカメラ画像の揺れ改善
+仕様：拡張出力機能追加、ジョイスティックステアリング機能追加、オートディギング機能追加、エコプラス機能追加</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P135</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合：電話番号が表示されない</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合：機種判別に失敗しパラメータがリセットされる
+仕様：オートディギングピン情報追加</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キシュハンベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A14IW/A13AW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17301-43842</t>
+  </si>
+  <si>
+    <t>17301-43842</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様：EN474:2020対応</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61205</t>
+  </si>
+  <si>
+    <t>61205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61591</t>
+  </si>
+  <si>
+    <t>61591</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>63514</t>
+  </si>
+  <si>
+    <t>63514</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規：EN474-5対応（品番設定のみ）</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仕様：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EN474-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対応、カメラ画面の制御変更</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合：機種判別に失敗しパラメータがリセットされる
+仕様：緊急ステアリング警告アイコン追加</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キシュハンベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P215</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様：緊急ステアリングソレノイド断線エラー追加</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ダンセン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P206</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P212</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11213,7 +11728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="439">
+  <cellXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12394,18 +12909,108 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12435,95 +13040,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13379,11 +13904,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DF6BF6-A611-4891-A0B0-2705877FFC23}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="13.5"/>
@@ -16682,13 +17207,13 @@
         <v>174</v>
       </c>
       <c r="F133" s="394" t="s">
-        <v>1747</v>
+        <v>611</v>
       </c>
       <c r="H133" s="255">
         <v>49120</v>
       </c>
       <c r="I133" s="291" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -17975,26 +18500,69 @@
         <v>1383</v>
       </c>
       <c r="D204" s="244" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E204" s="244" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F204" s="384" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G204" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H204">
         <v>63310</v>
       </c>
       <c r="I204" t="s">
-        <v>1765</v>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
+      <c r="B205" s="244" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C205" s="244" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E205" s="244" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F205" s="439" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G205" s="442" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9">
+      <c r="B206" s="244" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C206" s="244" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E206" s="244" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H206">
+        <v>61205</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I219" xr:uid="{58DF6BF6-A611-4891-A0B0-2705877FFC23}"/>
+  <autoFilter ref="A1:I206" xr:uid="{58DF6BF6-A611-4891-A0B0-2705877FFC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A149:N198">
     <sortCondition ref="F149:F198"/>
   </sortState>
@@ -18012,11 +18580,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A729B8-C4D0-4CE2-9108-57EB31D6998F}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q721"/>
+  <dimension ref="A1:Q1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L683" sqref="L683"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D736" sqref="D736"/>
+      <selection pane="bottomLeft" activeCell="C734" sqref="C734:E734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="24" customHeight="1"/>
@@ -38565,7 +39134,7 @@
         <v>47</v>
       </c>
       <c r="I627" s="329" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="L627" s="14" t="str">
         <f t="shared" si="12"/>
@@ -38592,7 +39161,7 @@
         <v>1422</v>
       </c>
       <c r="I628" s="238" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L628" s="14" t="str">
         <f t="shared" si="12"/>
@@ -38619,7 +39188,7 @@
         <v>1423</v>
       </c>
       <c r="I629" s="238" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="L629" s="14" t="str">
         <f t="shared" si="12"/>
@@ -39963,7 +40532,7 @@
         <v>1626</v>
       </c>
       <c r="L684" s="14" t="str">
-        <f t="shared" ref="L684:L721" si="14">D684 &amp;"-" &amp; TEXT(E684,"00")</f>
+        <f t="shared" ref="L684:L734" si="14">D684 &amp;"-" &amp; TEXT(E684,"00")</f>
         <v>17050-05220-00</v>
       </c>
       <c r="M684" s="393" t="s">
@@ -40800,19 +41369,19 @@
     </row>
     <row r="716" spans="2:13" ht="24" customHeight="1">
       <c r="B716" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C716" s="358" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D716" s="383" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E716" s="130">
         <v>0</v>
       </c>
       <c r="I716" s="238" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L716" s="14" t="str">
         <f t="shared" si="14"/>
@@ -40824,19 +41393,19 @@
     </row>
     <row r="717" spans="2:13" ht="24" customHeight="1">
       <c r="B717" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C717" s="358" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D717" s="383" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E717" s="130">
         <v>1</v>
       </c>
       <c r="I717" s="329" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="L717" s="14" t="str">
         <f t="shared" si="14"/>
@@ -40848,10 +41417,10 @@
     </row>
     <row r="718" spans="2:13" ht="24" customHeight="1">
       <c r="B718" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C718" s="358" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D718" s="383" t="s">
         <v>611</v>
@@ -40860,10 +41429,10 @@
         <v>2</v>
       </c>
       <c r="F718" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I718" s="329" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="L718" s="14" t="str">
         <f t="shared" si="14"/>
@@ -40875,10 +41444,10 @@
     </row>
     <row r="719" spans="2:13" ht="24" customHeight="1">
       <c r="B719" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C719" s="358" t="s">
         <v>1749</v>
-      </c>
-      <c r="C719" s="358" t="s">
-        <v>1750</v>
       </c>
       <c r="D719" s="383" t="s">
         <v>611</v>
@@ -40887,10 +41456,10 @@
         <v>3</v>
       </c>
       <c r="F719" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I719" s="329" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="L719" s="14" t="str">
         <f t="shared" si="14"/>
@@ -40902,10 +41471,10 @@
     </row>
     <row r="720" spans="2:13" ht="24" customHeight="1">
       <c r="B720" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C720" s="358" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D720" s="383" t="s">
         <v>200</v>
@@ -40914,10 +41483,10 @@
         <v>3</v>
       </c>
       <c r="F720" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I720" s="238" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="L720" s="14" t="str">
         <f t="shared" si="14"/>
@@ -40929,29 +41498,384 @@
     </row>
     <row r="721" spans="2:13" ht="24" customHeight="1">
       <c r="B721" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C721" s="358" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D721" s="383" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E721" s="130">
         <v>0</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I721" s="238" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="L721" s="14" t="str">
         <f t="shared" si="14"/>
         <v>03742-00557-00</v>
       </c>
       <c r="M721" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="722" spans="2:13" ht="24" customHeight="1">
+      <c r="B722" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C722" s="358" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D722" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E722" s="130">
+        <v>0</v>
+      </c>
+      <c r="I722" s="238" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L722" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-00</v>
+      </c>
+      <c r="M722" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="723" spans="2:13" ht="24" customHeight="1">
+      <c r="B723" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C723" s="358" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D723" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E723" s="130">
+        <v>1</v>
+      </c>
+      <c r="F723" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I723" s="238" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L723" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-01</v>
+      </c>
+      <c r="M723" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="724" spans="2:13" ht="24" customHeight="1">
+      <c r="B724" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C724" s="358" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D724" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E724" s="130">
+        <v>2</v>
+      </c>
+      <c r="F724" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I724" s="238" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L724" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-02</v>
+      </c>
+      <c r="M724" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="725" spans="2:13" ht="24" customHeight="1">
+      <c r="B725" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C725" s="358" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D725" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E725" s="130">
+        <v>3</v>
+      </c>
+      <c r="F725" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I725" s="238" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L725" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-03</v>
+      </c>
+      <c r="M725" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="726" spans="2:13" ht="24" customHeight="1">
+      <c r="B726" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C726" s="358" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D726" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E726" s="130">
+        <v>4</v>
+      </c>
+      <c r="F726" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I726" s="329" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L726" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-04</v>
+      </c>
+      <c r="M726" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="727" spans="2:13" ht="36">
+      <c r="B727" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C727" s="358" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D727" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E727" s="130">
+        <v>5</v>
+      </c>
+      <c r="F727" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I727" s="440" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L727" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-05</v>
+      </c>
+      <c r="M727" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="728" spans="2:13" ht="51.75">
+      <c r="B728" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C728" s="358" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D728" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E728" s="130">
+        <v>6</v>
+      </c>
+      <c r="F728" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I728" s="441" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L728" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-06</v>
+      </c>
+      <c r="M728" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="729" spans="2:13" ht="24" customHeight="1">
+      <c r="B729" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C729" s="358" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D729" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E729" s="130">
+        <v>7</v>
+      </c>
+      <c r="F729" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I729" s="238" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L729" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-07</v>
+      </c>
+      <c r="M729" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="730" spans="2:13" ht="34.5">
+      <c r="B730" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C730" s="358" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D730" s="383" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E730" s="130">
+        <v>8</v>
+      </c>
+      <c r="F730" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I730" s="441" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L730" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43840-08</v>
+      </c>
+      <c r="M730" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="731" spans="2:13" ht="24" customHeight="1">
+      <c r="B731" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C731" s="358" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D731" s="383" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E731" s="130">
+        <v>0</v>
+      </c>
+      <c r="I731" s="238" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L731" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43842-00</v>
+      </c>
+      <c r="M731" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="732" spans="2:13" ht="24" customHeight="1">
+      <c r="B732" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C732" s="358" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D732" s="383" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E732" s="130">
+        <v>1</v>
+      </c>
+      <c r="F732" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I732" s="329" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L732" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43842-01</v>
+      </c>
+      <c r="M732" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="733" spans="2:13" ht="34.5">
+      <c r="B733" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C733" s="358" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D733" s="383" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E733" s="130">
+        <v>2</v>
+      </c>
+      <c r="F733" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I733" s="441" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L733" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43842-02</v>
+      </c>
+      <c r="M733" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="734" spans="2:13" ht="24" customHeight="1">
+      <c r="B734" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C734" s="358" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D734" s="383" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E734" s="130">
+        <v>3</v>
+      </c>
+      <c r="F734" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I734" s="238" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L734" s="14" t="str">
+        <f t="shared" si="14"/>
+        <v>17301-43842-03</v>
+      </c>
+      <c r="M734" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1345" spans="6:6" ht="24" customHeight="1">
+      <c r="F1345" s="4">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1346" spans="6:6" ht="24" customHeight="1">
+      <c r="F1346" s="4">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -40980,11 +41904,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6F3FAF-CA73-438B-8BC3-5C3841A3CDA0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R1328"/>
+  <dimension ref="A1:R1348"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1332" sqref="F1332"/>
+      <pane ySplit="1" topLeftCell="A1307" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D736" sqref="D736"/>
+      <selection pane="bottomLeft" activeCell="A1347" sqref="A1347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="13.5"/>
@@ -46085,7 +47010,7 @@
         <v>872</v>
       </c>
       <c r="G251" s="189"/>
-      <c r="H251" s="395" t="s">
+      <c r="H251" s="396" t="s">
         <v>845</v>
       </c>
       <c r="J251" s="197"/>
@@ -46114,7 +47039,7 @@
         <v>721</v>
       </c>
       <c r="G252" s="189"/>
-      <c r="H252" s="395"/>
+      <c r="H252" s="396"/>
       <c r="J252" s="197"/>
       <c r="L252" s="191"/>
       <c r="M252" s="187"/>
@@ -46141,7 +47066,7 @@
         <v>575</v>
       </c>
       <c r="G253" s="189"/>
-      <c r="H253" s="395"/>
+      <c r="H253" s="396"/>
       <c r="J253" s="197"/>
       <c r="L253" s="191"/>
       <c r="M253" s="187"/>
@@ -46168,7 +47093,7 @@
         <v>872</v>
       </c>
       <c r="G254" s="189"/>
-      <c r="H254" s="395"/>
+      <c r="H254" s="396"/>
       <c r="J254" s="197"/>
       <c r="L254" s="191"/>
       <c r="M254" s="187"/>
@@ -46195,7 +47120,7 @@
         <v>721</v>
       </c>
       <c r="G255" s="189"/>
-      <c r="H255" s="395"/>
+      <c r="H255" s="396"/>
       <c r="J255" s="197"/>
       <c r="L255" s="191"/>
       <c r="M255" s="187"/>
@@ -46222,7 +47147,7 @@
         <v>575</v>
       </c>
       <c r="G256" s="189"/>
-      <c r="H256" s="395"/>
+      <c r="H256" s="396"/>
       <c r="J256" s="197"/>
       <c r="L256" s="191"/>
       <c r="M256" s="187"/>
@@ -46964,7 +47889,7 @@
         <v>2536</v>
       </c>
       <c r="G291" s="189"/>
-      <c r="H291" s="395" t="s">
+      <c r="H291" s="396" t="s">
         <v>853</v>
       </c>
       <c r="I291"/>
@@ -46993,7 +47918,7 @@
         <v>2536</v>
       </c>
       <c r="G292" s="189"/>
-      <c r="H292" s="395"/>
+      <c r="H292" s="396"/>
       <c r="I292"/>
       <c r="L292" s="186"/>
       <c r="M292" s="186"/>
@@ -47046,7 +47971,7 @@
         <v>4996</v>
       </c>
       <c r="G294" s="189"/>
-      <c r="H294" s="395" t="s">
+      <c r="H294" s="396" t="s">
         <v>854</v>
       </c>
       <c r="I294"/>
@@ -47072,7 +47997,7 @@
         <v>4996</v>
       </c>
       <c r="G295" s="189"/>
-      <c r="H295" s="395"/>
+      <c r="H295" s="396"/>
       <c r="I295"/>
       <c r="L295" s="191"/>
       <c r="M295" s="186"/>
@@ -47226,7 +48151,7 @@
         <v>2418</v>
       </c>
       <c r="G301" s="189"/>
-      <c r="H301" s="395" t="s">
+      <c r="H301" s="396" t="s">
         <v>855</v>
       </c>
       <c r="I301"/>
@@ -47251,7 +48176,7 @@
         <v>2418</v>
       </c>
       <c r="G302" s="189"/>
-      <c r="H302" s="395"/>
+      <c r="H302" s="396"/>
       <c r="I302"/>
       <c r="L302" s="191"/>
       <c r="M302" s="186"/>
@@ -47277,7 +48202,7 @@
         <v>2418</v>
       </c>
       <c r="G303" s="189"/>
-      <c r="H303" s="395"/>
+      <c r="H303" s="396"/>
       <c r="I303"/>
       <c r="L303" s="191"/>
       <c r="M303" s="186"/>
@@ -50178,7 +51103,7 @@
         <v>3148</v>
       </c>
       <c r="G448" s="189"/>
-      <c r="H448" s="395" t="s">
+      <c r="H448" s="396" t="s">
         <v>918</v>
       </c>
       <c r="J448" s="197"/>
@@ -50205,7 +51130,7 @@
         <v>3148</v>
       </c>
       <c r="G449" s="189"/>
-      <c r="H449" s="395"/>
+      <c r="H449" s="396"/>
       <c r="J449" s="197"/>
       <c r="M449" s="187"/>
       <c r="N449" s="188"/>
@@ -62083,7 +63008,7 @@
       <c r="G1092" s="189" t="s">
         <v>1180</v>
       </c>
-      <c r="H1092" s="395" t="s">
+      <c r="H1092" s="396" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -62105,7 +63030,7 @@
       </c>
       <c r="F1093" s="189"/>
       <c r="G1093" s="189"/>
-      <c r="H1093" s="395"/>
+      <c r="H1093" s="396"/>
     </row>
     <row r="1094" spans="1:8">
       <c r="A1094" s="180">
@@ -62127,7 +63052,7 @@
       <c r="G1094" s="189" t="s">
         <v>1180</v>
       </c>
-      <c r="H1094" s="395"/>
+      <c r="H1094" s="396"/>
     </row>
     <row r="1095" spans="1:8">
       <c r="A1095" s="180">
@@ -62147,7 +63072,7 @@
       </c>
       <c r="F1095" s="189"/>
       <c r="G1095" s="189"/>
-      <c r="H1095" s="395"/>
+      <c r="H1095" s="396"/>
     </row>
     <row r="1096" spans="1:8">
       <c r="A1096" s="181">
@@ -62169,7 +63094,7 @@
       <c r="G1096" s="189" t="s">
         <v>1180</v>
       </c>
-      <c r="H1096" s="395"/>
+      <c r="H1096" s="396"/>
     </row>
     <row r="1097" spans="1:8">
       <c r="A1097" s="181">
@@ -62189,7 +63114,7 @@
       </c>
       <c r="F1097" s="189"/>
       <c r="G1097" s="189"/>
-      <c r="H1097" s="395"/>
+      <c r="H1097" s="396"/>
     </row>
     <row r="1098" spans="1:8">
       <c r="A1098" s="181">
@@ -63500,7 +64425,7 @@
       <c r="F1182" s="189">
         <v>116</v>
       </c>
-      <c r="H1182" s="395" t="s">
+      <c r="H1182" s="396" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -63523,7 +64448,7 @@
       <c r="F1183" s="189">
         <v>116</v>
       </c>
-      <c r="H1183" s="395"/>
+      <c r="H1183" s="396"/>
     </row>
     <row r="1184" spans="1:8">
       <c r="A1184" s="181">
@@ -63612,7 +64537,7 @@
       <c r="F1188" s="189">
         <v>274</v>
       </c>
-      <c r="H1188" s="395" t="s">
+      <c r="H1188" s="396" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -63635,7 +64560,7 @@
       <c r="F1189" s="189">
         <v>274</v>
       </c>
-      <c r="H1189" s="395"/>
+      <c r="H1189" s="396"/>
     </row>
     <row r="1190" spans="1:8" ht="27">
       <c r="A1190" s="180">
@@ -64196,7 +65121,7 @@
       <c r="F1220" s="189">
         <v>505</v>
       </c>
-      <c r="H1220" s="395" t="s">
+      <c r="H1220" s="396" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -64219,7 +65144,7 @@
       <c r="F1221" s="189">
         <v>505</v>
       </c>
-      <c r="H1221" s="395"/>
+      <c r="H1221" s="396"/>
     </row>
     <row r="1222" spans="1:8">
       <c r="A1222" s="181">
@@ -64243,7 +65168,7 @@
       <c r="G1222" s="182" t="s">
         <v>1180</v>
       </c>
-      <c r="H1222" s="395" t="s">
+      <c r="H1222" s="396" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -64269,7 +65194,7 @@
       <c r="G1223" s="182" t="s">
         <v>1180</v>
       </c>
-      <c r="H1223" s="395"/>
+      <c r="H1223" s="396"/>
     </row>
     <row r="1224" spans="1:8">
       <c r="A1224" s="181">
@@ -64304,7 +65229,7 @@
       <c r="D1225" s="182" t="s">
         <v>1191</v>
       </c>
-      <c r="H1225" s="396" t="s">
+      <c r="H1225" s="395" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -64321,7 +65246,7 @@
       <c r="D1226" s="182" t="s">
         <v>1191</v>
       </c>
-      <c r="H1226" s="396"/>
+      <c r="H1226" s="395"/>
     </row>
     <row r="1227" spans="1:8">
       <c r="A1227" s="181">
@@ -64336,7 +65261,7 @@
       <c r="D1227" s="182" t="s">
         <v>1165</v>
       </c>
-      <c r="H1227" s="396"/>
+      <c r="H1227" s="395"/>
     </row>
     <row r="1228" spans="1:8">
       <c r="A1228" s="181">
@@ -64351,7 +65276,7 @@
       <c r="D1228" s="182" t="s">
         <v>1164</v>
       </c>
-      <c r="H1228" s="396"/>
+      <c r="H1228" s="395"/>
     </row>
     <row r="1229" spans="1:8">
       <c r="A1229" s="181">
@@ -64366,7 +65291,7 @@
       <c r="D1229" s="182" t="s">
         <v>1164</v>
       </c>
-      <c r="H1229" s="396"/>
+      <c r="H1229" s="395"/>
     </row>
     <row r="1230" spans="1:8">
       <c r="A1230" s="181">
@@ -64381,7 +65306,7 @@
       <c r="D1230" s="182" t="s">
         <v>1165</v>
       </c>
-      <c r="H1230" s="396"/>
+      <c r="H1230" s="395"/>
     </row>
     <row r="1231" spans="1:8">
       <c r="A1231" s="180">
@@ -64673,7 +65598,7 @@
       <c r="F1245" s="189">
         <v>1139</v>
       </c>
-      <c r="H1245" s="395" t="s">
+      <c r="H1245" s="396" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -64696,7 +65621,7 @@
       <c r="F1246" s="189">
         <v>1139</v>
       </c>
-      <c r="H1246" s="395"/>
+      <c r="H1246" s="396"/>
     </row>
     <row r="1247" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1247" s="181">
@@ -64720,7 +65645,7 @@
       <c r="G1247" s="182" t="s">
         <v>1213</v>
       </c>
-      <c r="H1247" s="395" t="s">
+      <c r="H1247" s="396" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -64746,7 +65671,7 @@
       <c r="G1248" s="182" t="s">
         <v>1180</v>
       </c>
-      <c r="H1248" s="395"/>
+      <c r="H1248" s="396"/>
     </row>
     <row r="1249" spans="1:8">
       <c r="A1249" s="180">
@@ -64867,7 +65792,7 @@
       <c r="F1254" s="189">
         <v>1139</v>
       </c>
-      <c r="H1254" s="395" t="s">
+      <c r="H1254" s="396" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -64890,7 +65815,7 @@
       <c r="F1255" s="189">
         <v>1139</v>
       </c>
-      <c r="H1255" s="395"/>
+      <c r="H1255" s="396"/>
     </row>
     <row r="1256" spans="1:8">
       <c r="A1256" s="181">
@@ -64911,7 +65836,7 @@
       <c r="F1256" s="189">
         <v>69</v>
       </c>
-      <c r="H1256" s="395" t="s">
+      <c r="H1256" s="396" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -64934,7 +65859,7 @@
       <c r="F1257" s="189">
         <v>69</v>
       </c>
-      <c r="H1257" s="395"/>
+      <c r="H1257" s="396"/>
     </row>
     <row r="1258" spans="1:8">
       <c r="A1258" s="180">
@@ -65017,7 +65942,7 @@
       <c r="F1261" s="189">
         <v>1355</v>
       </c>
-      <c r="H1261" s="395" t="s">
+      <c r="H1261" s="396" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -65038,7 +65963,7 @@
       <c r="F1262" s="189">
         <v>1355</v>
       </c>
-      <c r="H1262" s="395"/>
+      <c r="H1262" s="396"/>
     </row>
     <row r="1263" spans="1:8">
       <c r="A1263" s="181">
@@ -65057,7 +65982,7 @@
       <c r="F1263" s="189">
         <v>154</v>
       </c>
-      <c r="H1263" s="395" t="s">
+      <c r="H1263" s="396" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -65078,7 +66003,7 @@
       <c r="F1264" s="189">
         <v>154</v>
       </c>
-      <c r="H1264" s="395"/>
+      <c r="H1264" s="396"/>
     </row>
     <row r="1265" spans="1:8">
       <c r="A1265" s="180">
@@ -65119,7 +66044,7 @@
       <c r="F1266" s="189">
         <v>264</v>
       </c>
-      <c r="H1266" s="395" t="s">
+      <c r="H1266" s="396" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -65142,7 +66067,7 @@
       <c r="F1267" s="189">
         <v>264</v>
       </c>
-      <c r="H1267" s="395"/>
+      <c r="H1267" s="396"/>
     </row>
     <row r="1268" spans="1:8">
       <c r="A1268" s="180">
@@ -66129,20 +67054,343 @@
         <v>665</v>
       </c>
     </row>
+    <row r="1329" spans="1:6">
+      <c r="A1329" s="180" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1329" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1329" s="181">
+        <v>1</v>
+      </c>
+      <c r="D1329" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1329" s="182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6">
+      <c r="A1330" s="180" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1330" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1330" s="181">
+        <v>1</v>
+      </c>
+      <c r="D1330" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1330" s="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6">
+      <c r="A1331" s="180" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1331" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1331" s="181">
+        <v>2</v>
+      </c>
+      <c r="D1331" s="182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6">
+      <c r="A1332" s="180" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1332" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1332" s="181">
+        <v>2</v>
+      </c>
+      <c r="D1332" s="182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6">
+      <c r="A1333" s="180" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1333" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1333" s="181">
+        <v>3</v>
+      </c>
+      <c r="D1333" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1333" s="182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6">
+      <c r="A1334" s="180" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1334" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1334" s="181">
+        <v>3</v>
+      </c>
+      <c r="D1334" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1334" s="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6">
+      <c r="A1335" s="180" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1335" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1335" s="181">
+        <v>4</v>
+      </c>
+      <c r="D1335" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1335" s="182">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6">
+      <c r="A1336" s="180" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1336" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1336" s="181">
+        <v>4</v>
+      </c>
+      <c r="D1336" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1336" s="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6">
+      <c r="A1337" s="180" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1337" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1337" s="181">
+        <v>5</v>
+      </c>
+      <c r="D1337" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1337" s="182">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6">
+      <c r="A1338" s="180" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1338" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1338" s="181">
+        <v>5</v>
+      </c>
+      <c r="D1338" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1338" s="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6">
+      <c r="A1339" s="180" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1339" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1339" s="181">
+        <v>6</v>
+      </c>
+      <c r="D1339" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1339" s="182">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6">
+      <c r="A1340" s="180" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1340" s="180" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1340" s="181">
+        <v>6</v>
+      </c>
+      <c r="D1340" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1340" s="182">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6">
+      <c r="A1341" s="180" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1341" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1341" s="181">
+        <v>0</v>
+      </c>
+      <c r="D1341" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1341" s="182">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6">
+      <c r="A1342" s="180" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1342" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1342" s="181">
+        <v>0</v>
+      </c>
+      <c r="D1342" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1342" s="182">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6">
+      <c r="A1343" s="180" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1343" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1343" s="181">
+        <v>1</v>
+      </c>
+      <c r="D1343" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1343" s="182">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6">
+      <c r="A1344" s="180" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1344" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1344" s="181">
+        <v>1</v>
+      </c>
+      <c r="D1344" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1344" s="182">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6">
+      <c r="A1345" s="180" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1345" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1345" s="181">
+        <v>2</v>
+      </c>
+      <c r="D1345" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1345" s="182">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6">
+      <c r="A1346" s="180" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1346" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1346" s="181">
+        <v>2</v>
+      </c>
+      <c r="D1346" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1346" s="182">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6">
+      <c r="A1347" s="180" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1347" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1347" s="181">
+        <v>3</v>
+      </c>
+      <c r="D1347" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1347" s="182">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6">
+      <c r="A1348" s="180" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1348" s="180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1348" s="181">
+        <v>3</v>
+      </c>
+      <c r="D1348" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1348" s="182">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1310" xr:uid="{6B6F3FAF-CA73-438B-8BC3-5C3841A3CDA0}"/>
   <mergeCells count="18">
-    <mergeCell ref="H1225:H1230"/>
-    <mergeCell ref="H1092:H1097"/>
-    <mergeCell ref="H1182:H1183"/>
-    <mergeCell ref="H1188:H1189"/>
-    <mergeCell ref="H1220:H1221"/>
-    <mergeCell ref="H1222:H1223"/>
-    <mergeCell ref="H448:H449"/>
-    <mergeCell ref="H251:H256"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="H294:H295"/>
-    <mergeCell ref="H301:H303"/>
     <mergeCell ref="H1263:H1264"/>
     <mergeCell ref="H1266:H1267"/>
     <mergeCell ref="H1245:H1246"/>
@@ -66150,6 +67398,17 @@
     <mergeCell ref="H1254:H1255"/>
     <mergeCell ref="H1256:H1257"/>
     <mergeCell ref="H1261:H1262"/>
+    <mergeCell ref="H448:H449"/>
+    <mergeCell ref="H251:H256"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="H294:H295"/>
+    <mergeCell ref="H301:H303"/>
+    <mergeCell ref="H1225:H1230"/>
+    <mergeCell ref="H1092:H1097"/>
+    <mergeCell ref="H1182:H1183"/>
+    <mergeCell ref="H1188:H1189"/>
+    <mergeCell ref="H1220:H1221"/>
+    <mergeCell ref="H1222:H1223"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D196:D201">
@@ -66166,8 +67425,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="24" customHeight="1"/>
@@ -66204,12 +67463,12 @@
       <c r="C2" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="397" t="s">
         <v>554</v>
       </c>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="432"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="399"/>
       <c r="H2" s="2" t="s">
         <v>555</v>
       </c>
@@ -66238,12 +67497,12 @@
       <c r="C3" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D3" s="430" t="s">
+      <c r="D3" s="397" t="s">
         <v>560</v>
       </c>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="432"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="399"/>
       <c r="H3" s="3" t="s">
         <v>561</v>
       </c>
@@ -66267,12 +67526,12 @@
       <c r="C4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D4" s="430" t="s">
+      <c r="D4" s="397" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="431"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="432"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="399"/>
       <c r="H4" s="3" t="s">
         <v>561</v>
       </c>
@@ -66296,12 +67555,12 @@
       <c r="C5" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D5" s="430" t="s">
+      <c r="D5" s="397" t="s">
         <v>565</v>
       </c>
-      <c r="E5" s="431"/>
-      <c r="F5" s="431"/>
-      <c r="G5" s="432"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="399"/>
       <c r="H5" s="3" t="s">
         <v>566</v>
       </c>
@@ -66325,12 +67584,12 @@
       <c r="C6" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="397" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="432"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="399"/>
       <c r="H6" s="3" t="s">
         <v>569</v>
       </c>
@@ -66354,12 +67613,12 @@
       <c r="C7" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="430" t="s">
+      <c r="D7" s="397" t="s">
         <v>571</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="432"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="399"/>
       <c r="H7" s="3" t="s">
         <v>572</v>
       </c>
@@ -66383,12 +67642,12 @@
       <c r="C8" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D8" s="430" t="s">
+      <c r="D8" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="431"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="432"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="398"/>
+      <c r="G8" s="399"/>
       <c r="H8" s="3" t="s">
         <v>572</v>
       </c>
@@ -66412,12 +67671,12 @@
       <c r="C9" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="430" t="s">
+      <c r="D9" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E9" s="431"/>
-      <c r="F9" s="431"/>
-      <c r="G9" s="432"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="399"/>
       <c r="H9" s="3" t="s">
         <v>576</v>
       </c>
@@ -66441,12 +67700,12 @@
       <c r="C10" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D10" s="430" t="s">
+      <c r="D10" s="397" t="s">
         <v>578</v>
       </c>
-      <c r="E10" s="431"/>
-      <c r="F10" s="431"/>
-      <c r="G10" s="432"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="399"/>
       <c r="H10" s="3" t="s">
         <v>579</v>
       </c>
@@ -66470,12 +67729,12 @@
       <c r="C11" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D11" s="430" t="s">
+      <c r="D11" s="397" t="s">
         <v>581</v>
       </c>
-      <c r="E11" s="431"/>
-      <c r="F11" s="431"/>
-      <c r="G11" s="432"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="399"/>
       <c r="H11" s="3" t="s">
         <v>582</v>
       </c>
@@ -66499,12 +67758,12 @@
       <c r="C12" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D12" s="430" t="s">
+      <c r="D12" s="397" t="s">
         <v>584</v>
       </c>
-      <c r="E12" s="431"/>
-      <c r="F12" s="431"/>
-      <c r="G12" s="432"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="399"/>
       <c r="H12" s="3" t="s">
         <v>585</v>
       </c>
@@ -66528,12 +67787,12 @@
       <c r="C13" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D13" s="430" t="s">
+      <c r="D13" s="397" t="s">
         <v>587</v>
       </c>
-      <c r="E13" s="431"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="432"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="399"/>
       <c r="H13" s="3" t="s">
         <v>588</v>
       </c>
@@ -66557,12 +67816,12 @@
       <c r="C14" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D14" s="430" t="s">
+      <c r="D14" s="397" t="s">
         <v>590</v>
       </c>
-      <c r="E14" s="431"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="432"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="399"/>
       <c r="H14" s="3" t="s">
         <v>591</v>
       </c>
@@ -66586,12 +67845,12 @@
       <c r="C15" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D15" s="430" t="s">
+      <c r="D15" s="397" t="s">
         <v>593</v>
       </c>
-      <c r="E15" s="431"/>
-      <c r="F15" s="431"/>
-      <c r="G15" s="432"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="399"/>
       <c r="H15" s="3" t="s">
         <v>591</v>
       </c>
@@ -66615,12 +67874,12 @@
       <c r="C16" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D16" s="430" t="s">
+      <c r="D16" s="397" t="s">
         <v>593</v>
       </c>
-      <c r="E16" s="431"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="432"/>
+      <c r="E16" s="398"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="399"/>
       <c r="H16" s="3" t="s">
         <v>595</v>
       </c>
@@ -66644,12 +67903,12 @@
       <c r="C17" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D17" s="430" t="s">
+      <c r="D17" s="397" t="s">
         <v>597</v>
       </c>
-      <c r="E17" s="431"/>
-      <c r="F17" s="431"/>
-      <c r="G17" s="432"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="399"/>
       <c r="H17" s="3" t="s">
         <v>598</v>
       </c>
@@ -66673,12 +67932,12 @@
       <c r="C18" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D18" s="430" t="s">
+      <c r="D18" s="397" t="s">
         <v>600</v>
       </c>
-      <c r="E18" s="431"/>
-      <c r="F18" s="431"/>
-      <c r="G18" s="432"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="399"/>
       <c r="H18" s="3" t="s">
         <v>598</v>
       </c>
@@ -66702,12 +67961,12 @@
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="430" t="s">
+      <c r="D19" s="397" t="s">
         <v>601</v>
       </c>
-      <c r="E19" s="431"/>
-      <c r="F19" s="431"/>
-      <c r="G19" s="432"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="399"/>
       <c r="H19" s="3" t="s">
         <v>602</v>
       </c>
@@ -66731,12 +67990,12 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="430" t="s">
+      <c r="D20" s="397" t="s">
         <v>601</v>
       </c>
-      <c r="E20" s="431"/>
-      <c r="F20" s="431"/>
-      <c r="G20" s="432"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="399"/>
       <c r="H20" s="3" t="s">
         <v>603</v>
       </c>
@@ -66760,12 +68019,12 @@
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="430" t="s">
+      <c r="D21" s="397" t="s">
         <v>604</v>
       </c>
-      <c r="E21" s="431"/>
-      <c r="F21" s="431"/>
-      <c r="G21" s="432"/>
+      <c r="E21" s="398"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="3" t="s">
         <v>602</v>
       </c>
@@ -66789,12 +68048,12 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="430" t="s">
+      <c r="D22" s="397" t="s">
         <v>604</v>
       </c>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="432"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="3" t="s">
         <v>603</v>
       </c>
@@ -66818,12 +68077,12 @@
       <c r="C23" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D23" s="430" t="s">
+      <c r="D23" s="397" t="s">
         <v>606</v>
       </c>
-      <c r="E23" s="431"/>
-      <c r="F23" s="431"/>
-      <c r="G23" s="432"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="3" t="s">
         <v>607</v>
       </c>
@@ -66847,12 +68106,12 @@
       <c r="C24" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D24" s="430" t="s">
+      <c r="D24" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E24" s="431"/>
-      <c r="F24" s="431"/>
-      <c r="G24" s="432"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="399"/>
       <c r="H24" s="3" t="s">
         <v>610</v>
       </c>
@@ -66876,12 +68135,12 @@
       <c r="C25" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D25" s="430" t="s">
+      <c r="D25" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E25" s="431"/>
-      <c r="F25" s="431"/>
-      <c r="G25" s="432"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="399"/>
       <c r="H25" s="3" t="s">
         <v>612</v>
       </c>
@@ -66905,12 +68164,12 @@
       <c r="C26" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D26" s="430" t="s">
+      <c r="D26" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E26" s="431"/>
-      <c r="F26" s="431"/>
-      <c r="G26" s="432"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="398"/>
+      <c r="G26" s="399"/>
       <c r="H26" s="3" t="s">
         <v>612</v>
       </c>
@@ -66923,12 +68182,12 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="437"/>
-      <c r="M26" s="438"/>
-      <c r="N26" s="438"/>
-      <c r="O26" s="438"/>
-      <c r="P26" s="438"/>
-      <c r="Q26" s="438"/>
+      <c r="L26" s="400"/>
+      <c r="M26" s="401"/>
+      <c r="N26" s="401"/>
+      <c r="O26" s="401"/>
+      <c r="P26" s="401"/>
+      <c r="Q26" s="401"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
@@ -66939,12 +68198,12 @@
       <c r="C27" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D27" s="430" t="s">
+      <c r="D27" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E27" s="431"/>
-      <c r="F27" s="431"/>
-      <c r="G27" s="432"/>
+      <c r="E27" s="398"/>
+      <c r="F27" s="398"/>
+      <c r="G27" s="399"/>
       <c r="H27" s="3" t="s">
         <v>615</v>
       </c>
@@ -66957,12 +68216,12 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="437"/>
-      <c r="M27" s="438"/>
-      <c r="N27" s="438"/>
-      <c r="O27" s="438"/>
-      <c r="P27" s="438"/>
-      <c r="Q27" s="438"/>
+      <c r="L27" s="400"/>
+      <c r="M27" s="401"/>
+      <c r="N27" s="401"/>
+      <c r="O27" s="401"/>
+      <c r="P27" s="401"/>
+      <c r="Q27" s="401"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
@@ -66973,12 +68232,12 @@
       <c r="C28" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D28" s="430" t="s">
+      <c r="D28" s="397" t="s">
         <v>617</v>
       </c>
-      <c r="E28" s="431"/>
-      <c r="F28" s="431"/>
-      <c r="G28" s="432"/>
+      <c r="E28" s="398"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="399"/>
       <c r="H28" s="3" t="s">
         <v>618</v>
       </c>
@@ -67007,12 +68266,12 @@
       <c r="C29" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D29" s="430" t="s">
+      <c r="D29" s="397" t="s">
         <v>617</v>
       </c>
-      <c r="E29" s="431"/>
-      <c r="F29" s="431"/>
-      <c r="G29" s="432"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="3" t="s">
         <v>620</v>
       </c>
@@ -67041,12 +68300,12 @@
       <c r="C30" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D30" s="430" t="s">
+      <c r="D30" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E30" s="431"/>
-      <c r="F30" s="431"/>
-      <c r="G30" s="432"/>
+      <c r="E30" s="398"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="3" t="s">
         <v>622</v>
       </c>
@@ -67075,12 +68334,12 @@
       <c r="C31" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D31" s="430" t="s">
+      <c r="D31" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E31" s="431"/>
-      <c r="F31" s="431"/>
-      <c r="G31" s="432"/>
+      <c r="E31" s="398"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="399"/>
       <c r="H31" s="3" t="s">
         <v>624</v>
       </c>
@@ -67109,12 +68368,12 @@
       <c r="C32" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D32" s="430" t="s">
+      <c r="D32" s="397" t="s">
         <v>626</v>
       </c>
-      <c r="E32" s="431"/>
-      <c r="F32" s="431"/>
-      <c r="G32" s="432"/>
+      <c r="E32" s="398"/>
+      <c r="F32" s="398"/>
+      <c r="G32" s="399"/>
       <c r="H32" s="3" t="s">
         <v>627</v>
       </c>
@@ -67138,12 +68397,12 @@
       <c r="C33" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="430" t="s">
+      <c r="D33" s="397" t="s">
         <v>629</v>
       </c>
-      <c r="E33" s="431"/>
-      <c r="F33" s="431"/>
-      <c r="G33" s="432"/>
+      <c r="E33" s="398"/>
+      <c r="F33" s="398"/>
+      <c r="G33" s="399"/>
       <c r="H33" s="3" t="s">
         <v>627</v>
       </c>
@@ -67167,12 +68426,12 @@
       <c r="C34" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D34" s="430" t="s">
+      <c r="D34" s="397" t="s">
         <v>631</v>
       </c>
-      <c r="E34" s="431"/>
-      <c r="F34" s="431"/>
-      <c r="G34" s="432"/>
+      <c r="E34" s="398"/>
+      <c r="F34" s="398"/>
+      <c r="G34" s="399"/>
       <c r="H34" s="3" t="s">
         <v>598</v>
       </c>
@@ -67196,12 +68455,12 @@
       <c r="C35" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D35" s="430" t="s">
+      <c r="D35" s="397" t="s">
         <v>633</v>
       </c>
-      <c r="E35" s="431"/>
-      <c r="F35" s="431"/>
-      <c r="G35" s="432"/>
+      <c r="E35" s="398"/>
+      <c r="F35" s="398"/>
+      <c r="G35" s="399"/>
       <c r="H35" s="3" t="s">
         <v>598</v>
       </c>
@@ -67225,12 +68484,12 @@
       <c r="C36" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D36" s="430" t="s">
+      <c r="D36" s="397" t="s">
         <v>635</v>
       </c>
-      <c r="E36" s="431"/>
-      <c r="F36" s="431"/>
-      <c r="G36" s="432"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="399"/>
       <c r="H36" s="3" t="s">
         <v>598</v>
       </c>
@@ -67254,12 +68513,12 @@
       <c r="C37" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="D37" s="430" t="s">
+      <c r="D37" s="397" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="431"/>
-      <c r="F37" s="431"/>
-      <c r="G37" s="432"/>
+      <c r="E37" s="398"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="399"/>
       <c r="H37" s="3" t="s">
         <v>598</v>
       </c>
@@ -67283,12 +68542,12 @@
       <c r="C38" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D38" s="430" t="s">
+      <c r="D38" s="397" t="s">
         <v>639</v>
       </c>
-      <c r="E38" s="431"/>
-      <c r="F38" s="431"/>
-      <c r="G38" s="432"/>
+      <c r="E38" s="398"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="399"/>
       <c r="H38" s="3" t="s">
         <v>598</v>
       </c>
@@ -67315,12 +68574,12 @@
       <c r="C39" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D39" s="430" t="s">
+      <c r="D39" s="397" t="s">
         <v>641</v>
       </c>
-      <c r="E39" s="431"/>
-      <c r="F39" s="431"/>
-      <c r="G39" s="432"/>
+      <c r="E39" s="398"/>
+      <c r="F39" s="398"/>
+      <c r="G39" s="399"/>
       <c r="H39" s="3" t="s">
         <v>642</v>
       </c>
@@ -67344,12 +68603,12 @@
       <c r="C40" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D40" s="430" t="s">
+      <c r="D40" s="397" t="s">
         <v>644</v>
       </c>
-      <c r="E40" s="431"/>
-      <c r="F40" s="431"/>
-      <c r="G40" s="432"/>
+      <c r="E40" s="398"/>
+      <c r="F40" s="398"/>
+      <c r="G40" s="399"/>
       <c r="H40" s="3" t="s">
         <v>645</v>
       </c>
@@ -67373,12 +68632,12 @@
       <c r="C41" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D41" s="430" t="s">
+      <c r="D41" s="397" t="s">
         <v>647</v>
       </c>
-      <c r="E41" s="431"/>
-      <c r="F41" s="431"/>
-      <c r="G41" s="432"/>
+      <c r="E41" s="398"/>
+      <c r="F41" s="398"/>
+      <c r="G41" s="399"/>
       <c r="H41" s="3" t="s">
         <v>645</v>
       </c>
@@ -67402,12 +68661,12 @@
       <c r="C42" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D42" s="430" t="s">
+      <c r="D42" s="397" t="s">
         <v>647</v>
       </c>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="432"/>
+      <c r="E42" s="398"/>
+      <c r="F42" s="398"/>
+      <c r="G42" s="399"/>
       <c r="H42" s="3" t="s">
         <v>649</v>
       </c>
@@ -67431,12 +68690,12 @@
       <c r="C43" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D43" s="430" t="s">
+      <c r="D43" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E43" s="431"/>
-      <c r="F43" s="431"/>
-      <c r="G43" s="432"/>
+      <c r="E43" s="398"/>
+      <c r="F43" s="398"/>
+      <c r="G43" s="399"/>
       <c r="H43" s="2" t="s">
         <v>651</v>
       </c>
@@ -67458,12 +68717,12 @@
       <c r="C44" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D44" s="430" t="s">
+      <c r="D44" s="397" t="s">
         <v>653</v>
       </c>
-      <c r="E44" s="431"/>
-      <c r="F44" s="431"/>
-      <c r="G44" s="432"/>
+      <c r="E44" s="398"/>
+      <c r="F44" s="398"/>
+      <c r="G44" s="399"/>
       <c r="H44" s="3" t="s">
         <v>654</v>
       </c>
@@ -67481,12 +68740,12 @@
       <c r="C45" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D45" s="430" t="s">
+      <c r="D45" s="397" t="s">
         <v>656</v>
       </c>
-      <c r="E45" s="431"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="432"/>
+      <c r="E45" s="398"/>
+      <c r="F45" s="398"/>
+      <c r="G45" s="399"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
         <v>3</v>
@@ -67508,12 +68767,12 @@
       <c r="C46" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D46" s="430" t="s">
+      <c r="D46" s="397" t="s">
         <v>658</v>
       </c>
-      <c r="E46" s="431"/>
-      <c r="F46" s="431"/>
-      <c r="G46" s="432"/>
+      <c r="E46" s="398"/>
+      <c r="F46" s="398"/>
+      <c r="G46" s="399"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <v>3</v>
@@ -67540,12 +68799,12 @@
       <c r="C47" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D47" s="430" t="s">
+      <c r="D47" s="397" t="s">
         <v>660</v>
       </c>
-      <c r="E47" s="431"/>
-      <c r="F47" s="431"/>
-      <c r="G47" s="432"/>
+      <c r="E47" s="398"/>
+      <c r="F47" s="398"/>
+      <c r="G47" s="399"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
         <v>3</v>
@@ -67567,12 +68826,12 @@
       <c r="C48" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D48" s="430" t="s">
+      <c r="D48" s="397" t="s">
         <v>662</v>
       </c>
-      <c r="E48" s="431"/>
-      <c r="F48" s="431"/>
-      <c r="G48" s="432"/>
+      <c r="E48" s="398"/>
+      <c r="F48" s="398"/>
+      <c r="G48" s="399"/>
       <c r="H48" s="2" t="s">
         <v>663</v>
       </c>
@@ -67589,17 +68848,17 @@
       </c>
     </row>
     <row r="50" spans="2:25" ht="56.25" customHeight="1" thickBot="1">
-      <c r="C50" s="433" t="s">
+      <c r="C50" s="407" t="s">
         <v>665</v>
       </c>
-      <c r="D50" s="434"/>
-      <c r="E50" s="434"/>
-      <c r="F50" s="434"/>
-      <c r="G50" s="434"/>
-      <c r="H50" s="434"/>
-      <c r="I50" s="434"/>
-      <c r="J50" s="434"/>
-      <c r="K50" s="435"/>
+      <c r="D50" s="408"/>
+      <c r="E50" s="408"/>
+      <c r="F50" s="408"/>
+      <c r="G50" s="408"/>
+      <c r="H50" s="408"/>
+      <c r="I50" s="408"/>
+      <c r="J50" s="408"/>
+      <c r="K50" s="409"/>
     </row>
     <row r="51" spans="2:25" ht="24" customHeight="1">
       <c r="C51" s="5"/>
@@ -67705,7 +68964,7 @@
       <c r="B55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="420" t="s">
+      <c r="C55" s="402" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -67748,7 +69007,7 @@
       <c r="B56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="421"/>
+      <c r="C56" s="403"/>
       <c r="D56" s="26" t="s">
         <v>14</v>
       </c>
@@ -67789,7 +69048,7 @@
       <c r="B57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="421"/>
+      <c r="C57" s="403"/>
       <c r="D57" s="26" t="s">
         <v>17</v>
       </c>
@@ -67830,7 +69089,7 @@
       <c r="B58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="421"/>
+      <c r="C58" s="403"/>
       <c r="D58" s="26" t="s">
         <v>18</v>
       </c>
@@ -67871,7 +69130,7 @@
       <c r="B59" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="421"/>
+      <c r="C59" s="403"/>
       <c r="D59" s="26" t="s">
         <v>19</v>
       </c>
@@ -67912,7 +69171,7 @@
       <c r="B60" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="421"/>
+      <c r="C60" s="403"/>
       <c r="D60" s="26" t="s">
         <v>21</v>
       </c>
@@ -67953,7 +69212,7 @@
       <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="421"/>
+      <c r="C61" s="403"/>
       <c r="D61" s="26" t="s">
         <v>23</v>
       </c>
@@ -67994,7 +69253,7 @@
       <c r="B62" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="422"/>
+      <c r="C62" s="404"/>
       <c r="D62" s="26" t="s">
         <v>25</v>
       </c>
@@ -68029,7 +69288,7 @@
       <c r="B63" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="420" t="s">
+      <c r="C63" s="402" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="85" t="s">
@@ -68068,7 +69327,7 @@
       <c r="Q63" s="28">
         <v>1.06</v>
       </c>
-      <c r="R63" s="436"/>
+      <c r="R63" s="410"/>
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
@@ -68080,7 +69339,7 @@
       <c r="B64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="421"/>
+      <c r="C64" s="403"/>
       <c r="D64" s="86" t="s">
         <v>30</v>
       </c>
@@ -68117,7 +69376,7 @@
       <c r="Q64" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R64" s="436"/>
+      <c r="R64" s="410"/>
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
@@ -68129,7 +69388,7 @@
       <c r="B65" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="421"/>
+      <c r="C65" s="403"/>
       <c r="D65" s="86" t="s">
         <v>32</v>
       </c>
@@ -68164,7 +69423,7 @@
       <c r="Q65" s="28">
         <v>3.11</v>
       </c>
-      <c r="R65" s="436"/>
+      <c r="R65" s="410"/>
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="18"/>
@@ -68176,7 +69435,7 @@
       <c r="B66" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="422"/>
+      <c r="C66" s="404"/>
       <c r="D66" s="86" t="s">
         <v>34</v>
       </c>
@@ -68213,7 +69472,7 @@
       <c r="Q66" s="28">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R66" s="426"/>
+      <c r="R66" s="411"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="18"/>
@@ -68225,7 +69484,7 @@
       <c r="B67" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="420" t="s">
+      <c r="C67" s="402" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="85" t="s">
@@ -68260,7 +69519,7 @@
       <c r="Q67" s="27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R67" s="428"/>
+      <c r="R67" s="405"/>
       <c r="S67" s="17"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
@@ -68273,7 +69532,7 @@
       <c r="B68" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="421"/>
+      <c r="C68" s="403"/>
       <c r="D68" s="85" t="s">
         <v>39</v>
       </c>
@@ -68306,7 +69565,7 @@
       <c r="Q68" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R68" s="429"/>
+      <c r="R68" s="406"/>
       <c r="S68" s="17"/>
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
@@ -68319,7 +69578,7 @@
       <c r="B69" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="422"/>
+      <c r="C69" s="404"/>
       <c r="D69" s="85" t="s">
         <v>41</v>
       </c>
@@ -68416,10 +69675,10 @@
       <c r="B71" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="420" t="s">
+      <c r="C71" s="402" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="420" t="s">
+      <c r="D71" s="402" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -68453,7 +69712,7 @@
         <v>187</v>
       </c>
       <c r="Q71" s="28"/>
-      <c r="R71" s="425" t="s">
+      <c r="R71" s="412" t="s">
         <v>685</v>
       </c>
       <c r="S71" s="18" t="s">
@@ -68472,8 +69731,8 @@
       <c r="B72" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="422"/>
-      <c r="D72" s="422"/>
+      <c r="C72" s="404"/>
+      <c r="D72" s="404"/>
       <c r="E72" s="26" t="s">
         <v>281</v>
       </c>
@@ -68505,7 +69764,7 @@
       <c r="Q72" s="28">
         <v>2.0299999999999998</v>
       </c>
-      <c r="R72" s="426"/>
+      <c r="R72" s="411"/>
       <c r="S72" s="18" t="s">
         <v>688</v>
       </c>
@@ -68566,7 +69825,7 @@
       <c r="B74" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="421" t="s">
+      <c r="C74" s="403" t="s">
         <v>52</v>
       </c>
       <c r="D74" s="85" t="s">
@@ -68617,7 +69876,7 @@
       <c r="B75" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="421"/>
+      <c r="C75" s="403"/>
       <c r="D75" s="85" t="s">
         <v>55</v>
       </c>
@@ -68666,7 +69925,7 @@
       <c r="B76" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="421"/>
+      <c r="C76" s="403"/>
       <c r="D76" s="69" t="s">
         <v>56</v>
       </c>
@@ -68706,7 +69965,7 @@
       <c r="B77" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="421"/>
+      <c r="C77" s="403"/>
       <c r="D77" s="85" t="s">
         <v>58</v>
       </c>
@@ -68758,7 +70017,7 @@
       <c r="B78" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="421"/>
+      <c r="C78" s="403"/>
       <c r="D78" s="69" t="s">
         <v>60</v>
       </c>
@@ -68796,7 +70055,7 @@
       <c r="B79" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="421"/>
+      <c r="C79" s="403"/>
       <c r="D79" s="69" t="s">
         <v>62</v>
       </c>
@@ -68844,7 +70103,7 @@
       <c r="B80" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="422"/>
+      <c r="C80" s="404"/>
       <c r="D80" s="26" t="s">
         <v>66</v>
       </c>
@@ -68921,7 +70180,7 @@
       <c r="Q81" s="28">
         <v>1.05</v>
       </c>
-      <c r="R81" s="427"/>
+      <c r="R81" s="413"/>
       <c r="T81" s="17"/>
       <c r="U81" s="17"/>
       <c r="V81" s="17"/>
@@ -68933,7 +70192,7 @@
       <c r="B82" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="421" t="s">
+      <c r="C82" s="403" t="s">
         <v>70</v>
       </c>
       <c r="D82" s="25" t="s">
@@ -68970,7 +70229,7 @@
       <c r="Q82" s="28">
         <v>3.3</v>
       </c>
-      <c r="R82" s="427"/>
+      <c r="R82" s="413"/>
       <c r="T82" s="17"/>
       <c r="U82" s="17"/>
       <c r="V82" s="17"/>
@@ -68982,7 +70241,7 @@
       <c r="B83" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="421"/>
+      <c r="C83" s="403"/>
       <c r="D83" s="25" t="s">
         <v>73</v>
       </c>
@@ -69015,7 +70274,7 @@
       <c r="Q83" s="28">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R83" s="427"/>
+      <c r="R83" s="413"/>
       <c r="T83" s="17"/>
       <c r="U83" s="17"/>
       <c r="V83" s="17"/>
@@ -69027,7 +70286,7 @@
       <c r="B84" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="421"/>
+      <c r="C84" s="403"/>
       <c r="D84" s="25" t="s">
         <v>75</v>
       </c>
@@ -69062,7 +70321,7 @@
       <c r="Q84" s="28">
         <v>5.03</v>
       </c>
-      <c r="R84" s="427"/>
+      <c r="R84" s="413"/>
       <c r="T84" s="17"/>
       <c r="U84" s="17"/>
       <c r="V84" s="17"/>
@@ -69074,7 +70333,7 @@
       <c r="B85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="422"/>
+      <c r="C85" s="404"/>
       <c r="D85" s="25" t="s">
         <v>77</v>
       </c>
@@ -69109,7 +70368,7 @@
       <c r="Q85" s="28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R85" s="427"/>
+      <c r="R85" s="413"/>
       <c r="T85" s="17"/>
       <c r="U85" s="17"/>
       <c r="V85" s="17"/>
@@ -69121,7 +70380,7 @@
       <c r="B86" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="421" t="s">
+      <c r="C86" s="403" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="60" t="s">
@@ -69165,10 +70424,10 @@
         <v>1.04</v>
       </c>
       <c r="R86" s="416"/>
-      <c r="S86" s="423" t="s">
+      <c r="S86" s="418" t="s">
         <v>315</v>
       </c>
-      <c r="T86" s="424"/>
+      <c r="T86" s="419"/>
       <c r="U86" s="17"/>
       <c r="V86" s="17"/>
       <c r="W86" s="17"/>
@@ -69179,7 +70438,7 @@
       <c r="B87" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="421"/>
+      <c r="C87" s="403"/>
       <c r="D87" s="25" t="s">
         <v>81</v>
       </c>
@@ -69235,7 +70494,7 @@
       <c r="B88" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="421"/>
+      <c r="C88" s="403"/>
       <c r="D88" s="25" t="s">
         <v>84</v>
       </c>
@@ -69295,7 +70554,7 @@
       <c r="B89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="421"/>
+      <c r="C89" s="403"/>
       <c r="D89" s="25" t="s">
         <v>86</v>
       </c>
@@ -69348,7 +70607,7 @@
       <c r="B90" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="421"/>
+      <c r="C90" s="403"/>
       <c r="D90" s="25" t="s">
         <v>88</v>
       </c>
@@ -69399,7 +70658,7 @@
       <c r="B91" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="421"/>
+      <c r="C91" s="403"/>
       <c r="D91" s="25" t="s">
         <v>91</v>
       </c>
@@ -69449,7 +70708,7 @@
       <c r="B92" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="421"/>
+      <c r="C92" s="403"/>
       <c r="D92" s="25" t="s">
         <v>93</v>
       </c>
@@ -69499,7 +70758,7 @@
       <c r="B93" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="421"/>
+      <c r="C93" s="403"/>
       <c r="D93" s="25" t="s">
         <v>95</v>
       </c>
@@ -69548,7 +70807,7 @@
       <c r="B94" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="422"/>
+      <c r="C94" s="404"/>
       <c r="D94" s="25" t="s">
         <v>97</v>
       </c>
@@ -69649,7 +70908,7 @@
       <c r="B96" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="421" t="s">
+      <c r="C96" s="403" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -69684,7 +70943,7 @@
       <c r="Q96" s="37">
         <v>1.03</v>
       </c>
-      <c r="R96" s="410"/>
+      <c r="R96" s="420"/>
       <c r="T96" s="18"/>
       <c r="U96" s="17"/>
       <c r="V96" s="17"/>
@@ -69696,7 +70955,7 @@
       <c r="B97" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="422"/>
+      <c r="C97" s="404"/>
       <c r="D97" s="58" t="s">
         <v>102</v>
       </c>
@@ -69729,7 +70988,7 @@
       <c r="Q97" s="37">
         <v>2</v>
       </c>
-      <c r="R97" s="411"/>
+      <c r="R97" s="421"/>
       <c r="T97" s="18"/>
       <c r="U97" s="17"/>
       <c r="V97" s="17"/>
@@ -69741,7 +71000,7 @@
       <c r="B98" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="420" t="s">
+      <c r="C98" s="402" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="26" t="s">
@@ -69795,7 +71054,7 @@
       <c r="B99" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="421"/>
+      <c r="C99" s="403"/>
       <c r="D99" s="31" t="s">
         <v>107</v>
       </c>
@@ -69846,7 +71105,7 @@
       <c r="B100" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="422"/>
+      <c r="C100" s="404"/>
       <c r="D100" s="86" t="s">
         <v>108</v>
       </c>
@@ -69897,7 +71156,7 @@
       <c r="B101" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="420" t="s">
+      <c r="C101" s="402" t="s">
         <v>110</v>
       </c>
       <c r="D101" s="26" t="s">
@@ -69953,7 +71212,7 @@
       <c r="B102" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="422"/>
+      <c r="C102" s="404"/>
       <c r="D102" s="26" t="s">
         <v>112</v>
       </c>
@@ -70004,7 +71263,7 @@
       <c r="B103" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="397" t="s">
+      <c r="C103" s="422" t="s">
         <v>113</v>
       </c>
       <c r="D103" s="26" t="s">
@@ -70041,7 +71300,7 @@
       <c r="Q103" s="28">
         <v>1.03</v>
       </c>
-      <c r="R103" s="415" t="s">
+      <c r="R103" s="424" t="s">
         <v>113</v>
       </c>
       <c r="T103" s="17"/>
@@ -70055,7 +71314,7 @@
       <c r="B104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="399"/>
+      <c r="C104" s="423"/>
       <c r="D104" s="26" t="s">
         <v>115</v>
       </c>
@@ -70143,7 +71402,7 @@
       <c r="Q105" s="28">
         <v>1.03</v>
       </c>
-      <c r="R105" s="415" t="s">
+      <c r="R105" s="424" t="s">
         <v>117</v>
       </c>
       <c r="T105" s="17"/>
@@ -70157,7 +71416,7 @@
       <c r="B106" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="412" t="s">
+      <c r="C106" s="414" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="31" t="s">
@@ -70214,7 +71473,7 @@
       <c r="B107" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="413"/>
+      <c r="C107" s="425"/>
       <c r="D107" s="31" t="s">
         <v>121</v>
       </c>
@@ -70273,7 +71532,7 @@
       <c r="B108" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="413"/>
+      <c r="C108" s="425"/>
       <c r="D108" s="31" t="s">
         <v>123</v>
       </c>
@@ -70331,7 +71590,7 @@
       <c r="B109" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="413"/>
+      <c r="C109" s="425"/>
       <c r="D109" s="31" t="s">
         <v>125</v>
       </c>
@@ -70389,7 +71648,7 @@
       <c r="B110" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="413"/>
+      <c r="C110" s="425"/>
       <c r="D110" s="31" t="s">
         <v>126</v>
       </c>
@@ -70447,7 +71706,7 @@
       <c r="B111" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="413"/>
+      <c r="C111" s="425"/>
       <c r="D111" s="31" t="s">
         <v>128</v>
       </c>
@@ -70499,7 +71758,7 @@
       <c r="B112" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="414"/>
+      <c r="C112" s="415"/>
       <c r="D112" s="31" t="s">
         <v>131</v>
       </c>
@@ -70548,7 +71807,7 @@
       <c r="B113" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="412" t="s">
+      <c r="C113" s="414" t="s">
         <v>132</v>
       </c>
       <c r="D113" s="26" t="s">
@@ -70603,7 +71862,7 @@
       <c r="B114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="414"/>
+      <c r="C114" s="415"/>
       <c r="D114" s="26" t="s">
         <v>134</v>
       </c>
@@ -70656,7 +71915,7 @@
       <c r="B115" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="412" t="s">
+      <c r="C115" s="414" t="s">
         <v>136</v>
       </c>
       <c r="D115" s="26" t="s">
@@ -70714,7 +71973,7 @@
       <c r="B116" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="413"/>
+      <c r="C116" s="425"/>
       <c r="D116" s="26" t="s">
         <v>137</v>
       </c>
@@ -70776,7 +72035,7 @@
       <c r="B117" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="413"/>
+      <c r="C117" s="425"/>
       <c r="D117" s="26" t="s">
         <v>142</v>
       </c>
@@ -70825,7 +72084,7 @@
       <c r="B118" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="414"/>
+      <c r="C118" s="415"/>
       <c r="D118" s="34" t="s">
         <v>140</v>
       </c>
@@ -71022,7 +72281,7 @@
       <c r="Q121" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R121" s="415" t="s">
+      <c r="R121" s="424" t="s">
         <v>147</v>
       </c>
       <c r="T121" s="17"/>
@@ -71036,7 +72295,7 @@
       <c r="B122" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="412" t="s">
+      <c r="C122" s="414" t="s">
         <v>147</v>
       </c>
       <c r="D122" s="26" t="s">
@@ -71087,7 +72346,7 @@
       <c r="B123" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="413"/>
+      <c r="C123" s="425"/>
       <c r="D123" s="26" t="s">
         <v>150</v>
       </c>
@@ -71132,7 +72391,7 @@
       <c r="B124" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="414"/>
+      <c r="C124" s="415"/>
       <c r="D124" s="26" t="s">
         <v>152</v>
       </c>
@@ -71324,7 +72583,7 @@
       <c r="B128" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="418" t="s">
+      <c r="C128" s="428" t="s">
         <v>156</v>
       </c>
       <c r="D128" s="76" t="s">
@@ -71368,7 +72627,7 @@
       <c r="B129" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="419"/>
+      <c r="C129" s="429"/>
       <c r="D129" s="80" t="s">
         <v>158</v>
       </c>
@@ -71709,7 +72968,7 @@
       <c r="B137" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="397" t="s">
+      <c r="C137" s="422" t="s">
         <v>174</v>
       </c>
       <c r="D137" s="26" t="s">
@@ -71746,7 +73005,7 @@
       <c r="B138" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="398"/>
+      <c r="C138" s="426"/>
       <c r="D138" s="26" t="s">
         <v>175</v>
       </c>
@@ -71781,7 +73040,7 @@
       <c r="B139" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C139" s="398"/>
+      <c r="C139" s="426"/>
       <c r="D139" s="26" t="s">
         <v>177</v>
       </c>
@@ -71822,7 +73081,7 @@
       <c r="B140" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="398"/>
+      <c r="C140" s="426"/>
       <c r="D140" s="26" t="s">
         <v>1247</v>
       </c>
@@ -71866,7 +73125,7 @@
       <c r="B141" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C141" s="398"/>
+      <c r="C141" s="426"/>
       <c r="D141" s="26" t="s">
         <v>1252</v>
       </c>
@@ -71908,7 +73167,7 @@
       <c r="B142" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C142" s="398"/>
+      <c r="C142" s="426"/>
       <c r="D142" s="26" t="s">
         <v>1256</v>
       </c>
@@ -71950,7 +73209,7 @@
       <c r="B143" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C143" s="398"/>
+      <c r="C143" s="426"/>
       <c r="D143" s="26" t="s">
         <v>1259</v>
       </c>
@@ -71992,7 +73251,7 @@
       <c r="B144" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C144" s="399"/>
+      <c r="C144" s="423"/>
       <c r="D144" s="26" t="s">
         <v>1263</v>
       </c>
@@ -72151,7 +73410,7 @@
       <c r="B148" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C148" s="420" t="s">
+      <c r="C148" s="402" t="s">
         <v>185</v>
       </c>
       <c r="D148" s="26" t="s">
@@ -72190,7 +73449,7 @@
       <c r="Q148" s="28">
         <v>1.02</v>
       </c>
-      <c r="R148" s="409" t="s">
+      <c r="R148" s="427" t="s">
         <v>185</v>
       </c>
       <c r="T148" s="17"/>
@@ -72204,7 +73463,7 @@
       <c r="B149" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C149" s="421"/>
+      <c r="C149" s="403"/>
       <c r="D149" s="26" t="s">
         <v>188</v>
       </c>
@@ -72241,7 +73500,7 @@
       <c r="Q149" s="28">
         <v>2.1</v>
       </c>
-      <c r="R149" s="410"/>
+      <c r="R149" s="420"/>
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
       <c r="V149" s="17"/>
@@ -72253,7 +73512,7 @@
       <c r="B150" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C150" s="421"/>
+      <c r="C150" s="403"/>
       <c r="D150" s="26" t="s">
         <v>190</v>
       </c>
@@ -72288,7 +73547,7 @@
       <c r="O150" s="27"/>
       <c r="P150" s="27"/>
       <c r="Q150" s="28"/>
-      <c r="R150" s="410"/>
+      <c r="R150" s="420"/>
       <c r="T150" s="17"/>
       <c r="U150" s="17"/>
       <c r="V150" s="17"/>
@@ -72300,7 +73559,7 @@
       <c r="B151" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="421"/>
+      <c r="C151" s="403"/>
       <c r="D151" s="26" t="s">
         <v>192</v>
       </c>
@@ -72337,7 +73596,7 @@
       <c r="Q151" s="37">
         <v>3.04</v>
       </c>
-      <c r="R151" s="411"/>
+      <c r="R151" s="421"/>
       <c r="T151" s="18"/>
       <c r="U151" s="17"/>
       <c r="V151" s="17"/>
@@ -72349,7 +73608,7 @@
       <c r="B152" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="421"/>
+      <c r="C152" s="403"/>
       <c r="D152" s="26" t="s">
         <v>194</v>
       </c>
@@ -72394,7 +73653,7 @@
       <c r="B153" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C153" s="422"/>
+      <c r="C153" s="404"/>
       <c r="D153" s="26" t="s">
         <v>196</v>
       </c>
@@ -72545,7 +73804,7 @@
       <c r="B156" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="397" t="s">
+      <c r="C156" s="422" t="s">
         <v>202</v>
       </c>
       <c r="D156" s="31" t="s">
@@ -72578,7 +73837,7 @@
       <c r="Q156" s="28">
         <v>1.01</v>
       </c>
-      <c r="R156" s="409" t="s">
+      <c r="R156" s="427" t="s">
         <v>202</v>
       </c>
       <c r="S156" s="17" t="s">
@@ -72597,7 +73856,7 @@
       <c r="B157" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="399"/>
+      <c r="C157" s="423"/>
       <c r="D157" s="46" t="s">
         <v>204</v>
       </c>
@@ -72632,7 +73891,7 @@
       <c r="Q157" s="37">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R157" s="411"/>
+      <c r="R157" s="421"/>
       <c r="S157" s="23"/>
       <c r="T157" s="23"/>
       <c r="U157" s="23"/>
@@ -72645,7 +73904,7 @@
       <c r="B158" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="397" t="s">
+      <c r="C158" s="422" t="s">
         <v>205</v>
       </c>
       <c r="D158" s="26" t="s">
@@ -72684,7 +73943,7 @@
       <c r="Q158" s="28">
         <v>3.1</v>
       </c>
-      <c r="R158" s="415" t="s">
+      <c r="R158" s="424" t="s">
         <v>444</v>
       </c>
       <c r="T158" s="17"/>
@@ -72698,7 +73957,7 @@
       <c r="B159" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="399"/>
+      <c r="C159" s="423"/>
       <c r="D159" s="26" t="s">
         <v>208</v>
       </c>
@@ -72800,7 +74059,7 @@
       <c r="B161" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="397" t="s">
+      <c r="C161" s="422" t="s">
         <v>211</v>
       </c>
       <c r="D161" s="31" t="s">
@@ -72849,7 +74108,7 @@
       <c r="B162" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C162" s="399"/>
+      <c r="C162" s="423"/>
       <c r="D162" s="31" t="s">
         <v>214</v>
       </c>
@@ -72948,7 +74207,7 @@
       <c r="B164" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C164" s="397" t="s">
+      <c r="C164" s="422" t="s">
         <v>217</v>
       </c>
       <c r="D164" s="26" t="s">
@@ -72989,7 +74248,7 @@
       <c r="Q164" s="28">
         <v>1.3</v>
       </c>
-      <c r="R164" s="409" t="s">
+      <c r="R164" s="427" t="s">
         <v>460</v>
       </c>
       <c r="T164" s="17"/>
@@ -73003,7 +74262,7 @@
       <c r="B165" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="398"/>
+      <c r="C165" s="426"/>
       <c r="D165" s="26" t="s">
         <v>220</v>
       </c>
@@ -73046,7 +74305,7 @@
       <c r="Q165" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R165" s="410"/>
+      <c r="R165" s="420"/>
       <c r="T165" s="17"/>
       <c r="U165" s="17"/>
       <c r="V165" s="17"/>
@@ -73058,7 +74317,7 @@
       <c r="B166" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="398"/>
+      <c r="C166" s="426"/>
       <c r="D166" s="26" t="s">
         <v>221</v>
       </c>
@@ -73101,7 +74360,7 @@
       <c r="Q166" s="28">
         <v>3.02</v>
       </c>
-      <c r="R166" s="411"/>
+      <c r="R166" s="421"/>
       <c r="T166" s="17"/>
       <c r="U166" s="17"/>
       <c r="V166" s="17"/>
@@ -73113,7 +74372,7 @@
       <c r="B167" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="399"/>
+      <c r="C167" s="423"/>
       <c r="D167" s="31" t="s">
         <v>223</v>
       </c>
@@ -73166,7 +74425,7 @@
       <c r="B168" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="397" t="s">
+      <c r="C168" s="422" t="s">
         <v>225</v>
       </c>
       <c r="D168" s="60" t="s">
@@ -73217,7 +74476,7 @@
     </row>
     <row r="169" spans="1:25" ht="24.95" customHeight="1">
       <c r="B169" s="59"/>
-      <c r="C169" s="398"/>
+      <c r="C169" s="426"/>
       <c r="D169" s="60" t="s">
         <v>228</v>
       </c>
@@ -73260,7 +74519,7 @@
     </row>
     <row r="170" spans="1:25" ht="24.95" customHeight="1">
       <c r="B170" s="59"/>
-      <c r="C170" s="399"/>
+      <c r="C170" s="423"/>
       <c r="D170" s="60" t="s">
         <v>230</v>
       </c>
@@ -73303,7 +74562,7 @@
       <c r="B171" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="397" t="s">
+      <c r="C171" s="422" t="s">
         <v>232</v>
       </c>
       <c r="D171" s="31" t="s">
@@ -73345,7 +74604,7 @@
       <c r="B172" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C172" s="399"/>
+      <c r="C172" s="423"/>
       <c r="D172" s="31" t="s">
         <v>1322</v>
       </c>
@@ -73386,7 +74645,7 @@
       <c r="B173" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C173" s="400" t="s">
+      <c r="C173" s="430" t="s">
         <v>234</v>
       </c>
       <c r="D173" s="39" t="s">
@@ -73433,7 +74692,7 @@
       <c r="B174" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="401"/>
+      <c r="C174" s="431"/>
       <c r="D174" s="39" t="s">
         <v>236</v>
       </c>
@@ -73481,7 +74740,7 @@
       <c r="B175" s="331" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="401"/>
+      <c r="C175" s="431"/>
       <c r="D175" s="39" t="s">
         <v>238</v>
       </c>
@@ -73529,7 +74788,7 @@
       <c r="B176" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="401"/>
+      <c r="C176" s="431"/>
       <c r="D176" s="39" t="s">
         <v>240</v>
       </c>
@@ -73574,7 +74833,7 @@
       <c r="B177" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="401"/>
+      <c r="C177" s="431"/>
       <c r="D177" s="39" t="s">
         <v>242</v>
       </c>
@@ -73619,7 +74878,7 @@
       <c r="B178" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="401"/>
+      <c r="C178" s="431"/>
       <c r="D178" s="39" t="s">
         <v>243</v>
       </c>
@@ -73667,7 +74926,7 @@
       <c r="B179" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="401"/>
+      <c r="C179" s="431"/>
       <c r="D179" s="333" t="s">
         <v>1526</v>
       </c>
@@ -73703,7 +74962,7 @@
       <c r="B180" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="402"/>
+      <c r="C180" s="432"/>
       <c r="D180" s="337" t="s">
         <v>1528</v>
       </c>
@@ -73736,7 +74995,7 @@
       <c r="B181" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C181" s="403" t="s">
+      <c r="C181" s="433" t="s">
         <v>245</v>
       </c>
       <c r="D181" s="39" t="s">
@@ -73783,7 +75042,7 @@
       <c r="B182" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C182" s="404"/>
+      <c r="C182" s="434"/>
       <c r="D182" s="39" t="s">
         <v>247</v>
       </c>
@@ -73827,7 +75086,7 @@
       <c r="B183" s="332" t="s">
         <v>10</v>
       </c>
-      <c r="C183" s="404"/>
+      <c r="C183" s="434"/>
       <c r="D183" s="39" t="s">
         <v>248</v>
       </c>
@@ -73873,7 +75132,7 @@
       <c r="B184" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="404"/>
+      <c r="C184" s="434"/>
       <c r="D184" s="39" t="s">
         <v>482</v>
       </c>
@@ -73919,7 +75178,7 @@
       <c r="B185" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="404"/>
+      <c r="C185" s="434"/>
       <c r="D185" s="336" t="s">
         <v>1530</v>
       </c>
@@ -73956,7 +75215,7 @@
       <c r="B186" s="332" t="s">
         <v>6</v>
       </c>
-      <c r="C186" s="404"/>
+      <c r="C186" s="434"/>
       <c r="D186" s="336" t="s">
         <v>1531</v>
       </c>
@@ -73990,15 +75249,15 @@
       <c r="B187" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="404"/>
+      <c r="C187" s="434"/>
       <c r="D187" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E187" s="406" t="s">
+      <c r="E187" s="436" t="s">
         <v>808</v>
       </c>
-      <c r="F187" s="407"/>
-      <c r="G187" s="408"/>
+      <c r="F187" s="437"/>
+      <c r="G187" s="438"/>
       <c r="H187" s="38" t="s">
         <v>423</v>
       </c>
@@ -74032,15 +75291,15 @@
       <c r="B188" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C188" s="405"/>
+      <c r="C188" s="435"/>
       <c r="D188" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E188" s="406" t="s">
+      <c r="E188" s="436" t="s">
         <v>808</v>
       </c>
-      <c r="F188" s="407"/>
-      <c r="G188" s="408"/>
+      <c r="F188" s="437"/>
+      <c r="G188" s="438"/>
       <c r="H188" s="38" t="s">
         <v>423</v>
       </c>
@@ -74070,32 +75329,57 @@
   </sheetData>
   <autoFilter ref="B53:Q188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="93">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="C181:C188"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="R164:R166"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="R121:R123"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C137:C144"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="R148:R151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="R156:R157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="R158:R162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="R86:R94"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="R105:R110"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="R81:R85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="R63:R66"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="L27:Q27"/>
@@ -74112,57 +75396,32 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="R63:R66"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="R81:R85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="R86:R94"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="R96:R97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="R105:R110"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="R164:R166"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="R121:R123"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C137:C144"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="R148:R151"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="R156:R157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="R158:R162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="C181:C188"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.55118110236220474" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -74219,12 +75478,12 @@
       <c r="C2" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="397" t="s">
         <v>554</v>
       </c>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="432"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="399"/>
       <c r="H2" s="2" t="s">
         <v>555</v>
       </c>
@@ -74253,12 +75512,12 @@
       <c r="C3" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D3" s="430" t="s">
+      <c r="D3" s="397" t="s">
         <v>560</v>
       </c>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="432"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="399"/>
       <c r="H3" s="3" t="s">
         <v>561</v>
       </c>
@@ -74282,12 +75541,12 @@
       <c r="C4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D4" s="430" t="s">
+      <c r="D4" s="397" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="431"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="432"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="399"/>
       <c r="H4" s="3" t="s">
         <v>561</v>
       </c>
@@ -74311,12 +75570,12 @@
       <c r="C5" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D5" s="430" t="s">
+      <c r="D5" s="397" t="s">
         <v>565</v>
       </c>
-      <c r="E5" s="431"/>
-      <c r="F5" s="431"/>
-      <c r="G5" s="432"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="399"/>
       <c r="H5" s="3" t="s">
         <v>566</v>
       </c>
@@ -74340,12 +75599,12 @@
       <c r="C6" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="430" t="s">
+      <c r="D6" s="397" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="432"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="399"/>
       <c r="H6" s="3" t="s">
         <v>569</v>
       </c>
@@ -74369,12 +75628,12 @@
       <c r="C7" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="430" t="s">
+      <c r="D7" s="397" t="s">
         <v>571</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="432"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="399"/>
       <c r="H7" s="3" t="s">
         <v>572</v>
       </c>
@@ -74398,12 +75657,12 @@
       <c r="C8" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D8" s="430" t="s">
+      <c r="D8" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="431"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="432"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="398"/>
+      <c r="G8" s="399"/>
       <c r="H8" s="3" t="s">
         <v>572</v>
       </c>
@@ -74427,12 +75686,12 @@
       <c r="C9" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="430" t="s">
+      <c r="D9" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E9" s="431"/>
-      <c r="F9" s="431"/>
-      <c r="G9" s="432"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="399"/>
       <c r="H9" s="3" t="s">
         <v>576</v>
       </c>
@@ -74456,12 +75715,12 @@
       <c r="C10" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D10" s="430" t="s">
+      <c r="D10" s="397" t="s">
         <v>578</v>
       </c>
-      <c r="E10" s="431"/>
-      <c r="F10" s="431"/>
-      <c r="G10" s="432"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="399"/>
       <c r="H10" s="3" t="s">
         <v>579</v>
       </c>
@@ -74485,12 +75744,12 @@
       <c r="C11" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D11" s="430" t="s">
+      <c r="D11" s="397" t="s">
         <v>581</v>
       </c>
-      <c r="E11" s="431"/>
-      <c r="F11" s="431"/>
-      <c r="G11" s="432"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="399"/>
       <c r="H11" s="3" t="s">
         <v>582</v>
       </c>
@@ -74514,12 +75773,12 @@
       <c r="C12" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D12" s="430" t="s">
+      <c r="D12" s="397" t="s">
         <v>584</v>
       </c>
-      <c r="E12" s="431"/>
-      <c r="F12" s="431"/>
-      <c r="G12" s="432"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="399"/>
       <c r="H12" s="3" t="s">
         <v>585</v>
       </c>
@@ -74543,12 +75802,12 @@
       <c r="C13" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D13" s="430" t="s">
+      <c r="D13" s="397" t="s">
         <v>587</v>
       </c>
-      <c r="E13" s="431"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="432"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="399"/>
       <c r="H13" s="3" t="s">
         <v>588</v>
       </c>
@@ -74572,12 +75831,12 @@
       <c r="C14" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D14" s="430" t="s">
+      <c r="D14" s="397" t="s">
         <v>590</v>
       </c>
-      <c r="E14" s="431"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="432"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="399"/>
       <c r="H14" s="3" t="s">
         <v>591</v>
       </c>
@@ -74601,12 +75860,12 @@
       <c r="C15" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D15" s="430" t="s">
+      <c r="D15" s="397" t="s">
         <v>593</v>
       </c>
-      <c r="E15" s="431"/>
-      <c r="F15" s="431"/>
-      <c r="G15" s="432"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="399"/>
       <c r="H15" s="3" t="s">
         <v>591</v>
       </c>
@@ -74630,12 +75889,12 @@
       <c r="C16" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D16" s="430" t="s">
+      <c r="D16" s="397" t="s">
         <v>593</v>
       </c>
-      <c r="E16" s="431"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="432"/>
+      <c r="E16" s="398"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="399"/>
       <c r="H16" s="3" t="s">
         <v>595</v>
       </c>
@@ -74659,12 +75918,12 @@
       <c r="C17" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D17" s="430" t="s">
+      <c r="D17" s="397" t="s">
         <v>597</v>
       </c>
-      <c r="E17" s="431"/>
-      <c r="F17" s="431"/>
-      <c r="G17" s="432"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="399"/>
       <c r="H17" s="3" t="s">
         <v>598</v>
       </c>
@@ -74688,12 +75947,12 @@
       <c r="C18" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D18" s="430" t="s">
+      <c r="D18" s="397" t="s">
         <v>600</v>
       </c>
-      <c r="E18" s="431"/>
-      <c r="F18" s="431"/>
-      <c r="G18" s="432"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="399"/>
       <c r="H18" s="3" t="s">
         <v>598</v>
       </c>
@@ -74717,12 +75976,12 @@
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="430" t="s">
+      <c r="D19" s="397" t="s">
         <v>601</v>
       </c>
-      <c r="E19" s="431"/>
-      <c r="F19" s="431"/>
-      <c r="G19" s="432"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="399"/>
       <c r="H19" s="3" t="s">
         <v>602</v>
       </c>
@@ -74746,12 +76005,12 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="430" t="s">
+      <c r="D20" s="397" t="s">
         <v>601</v>
       </c>
-      <c r="E20" s="431"/>
-      <c r="F20" s="431"/>
-      <c r="G20" s="432"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="399"/>
       <c r="H20" s="3" t="s">
         <v>603</v>
       </c>
@@ -74775,12 +76034,12 @@
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="430" t="s">
+      <c r="D21" s="397" t="s">
         <v>604</v>
       </c>
-      <c r="E21" s="431"/>
-      <c r="F21" s="431"/>
-      <c r="G21" s="432"/>
+      <c r="E21" s="398"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="3" t="s">
         <v>602</v>
       </c>
@@ -74804,12 +76063,12 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="430" t="s">
+      <c r="D22" s="397" t="s">
         <v>604</v>
       </c>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="432"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="3" t="s">
         <v>603</v>
       </c>
@@ -74833,12 +76092,12 @@
       <c r="C23" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D23" s="430" t="s">
+      <c r="D23" s="397" t="s">
         <v>606</v>
       </c>
-      <c r="E23" s="431"/>
-      <c r="F23" s="431"/>
-      <c r="G23" s="432"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="3" t="s">
         <v>607</v>
       </c>
@@ -74862,12 +76121,12 @@
       <c r="C24" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D24" s="430" t="s">
+      <c r="D24" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E24" s="431"/>
-      <c r="F24" s="431"/>
-      <c r="G24" s="432"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="399"/>
       <c r="H24" s="3" t="s">
         <v>610</v>
       </c>
@@ -74891,12 +76150,12 @@
       <c r="C25" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D25" s="430" t="s">
+      <c r="D25" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E25" s="431"/>
-      <c r="F25" s="431"/>
-      <c r="G25" s="432"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="399"/>
       <c r="H25" s="3" t="s">
         <v>612</v>
       </c>
@@ -74920,12 +76179,12 @@
       <c r="C26" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D26" s="430" t="s">
+      <c r="D26" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E26" s="431"/>
-      <c r="F26" s="431"/>
-      <c r="G26" s="432"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="398"/>
+      <c r="G26" s="399"/>
       <c r="H26" s="3" t="s">
         <v>612</v>
       </c>
@@ -74938,12 +76197,12 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="437"/>
-      <c r="M26" s="438"/>
-      <c r="N26" s="438"/>
-      <c r="O26" s="438"/>
-      <c r="P26" s="438"/>
-      <c r="Q26" s="438"/>
+      <c r="L26" s="400"/>
+      <c r="M26" s="401"/>
+      <c r="N26" s="401"/>
+      <c r="O26" s="401"/>
+      <c r="P26" s="401"/>
+      <c r="Q26" s="401"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
@@ -74954,12 +76213,12 @@
       <c r="C27" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D27" s="430" t="s">
+      <c r="D27" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E27" s="431"/>
-      <c r="F27" s="431"/>
-      <c r="G27" s="432"/>
+      <c r="E27" s="398"/>
+      <c r="F27" s="398"/>
+      <c r="G27" s="399"/>
       <c r="H27" s="3" t="s">
         <v>615</v>
       </c>
@@ -74972,12 +76231,12 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="437"/>
-      <c r="M27" s="438"/>
-      <c r="N27" s="438"/>
-      <c r="O27" s="438"/>
-      <c r="P27" s="438"/>
-      <c r="Q27" s="438"/>
+      <c r="L27" s="400"/>
+      <c r="M27" s="401"/>
+      <c r="N27" s="401"/>
+      <c r="O27" s="401"/>
+      <c r="P27" s="401"/>
+      <c r="Q27" s="401"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
@@ -74988,12 +76247,12 @@
       <c r="C28" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D28" s="430" t="s">
+      <c r="D28" s="397" t="s">
         <v>617</v>
       </c>
-      <c r="E28" s="431"/>
-      <c r="F28" s="431"/>
-      <c r="G28" s="432"/>
+      <c r="E28" s="398"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="399"/>
       <c r="H28" s="3" t="s">
         <v>618</v>
       </c>
@@ -75022,12 +76281,12 @@
       <c r="C29" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D29" s="430" t="s">
+      <c r="D29" s="397" t="s">
         <v>617</v>
       </c>
-      <c r="E29" s="431"/>
-      <c r="F29" s="431"/>
-      <c r="G29" s="432"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="3" t="s">
         <v>620</v>
       </c>
@@ -75056,12 +76315,12 @@
       <c r="C30" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D30" s="430" t="s">
+      <c r="D30" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E30" s="431"/>
-      <c r="F30" s="431"/>
-      <c r="G30" s="432"/>
+      <c r="E30" s="398"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="3" t="s">
         <v>622</v>
       </c>
@@ -75090,12 +76349,12 @@
       <c r="C31" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D31" s="430" t="s">
+      <c r="D31" s="397" t="s">
         <v>609</v>
       </c>
-      <c r="E31" s="431"/>
-      <c r="F31" s="431"/>
-      <c r="G31" s="432"/>
+      <c r="E31" s="398"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="399"/>
       <c r="H31" s="3" t="s">
         <v>624</v>
       </c>
@@ -75124,12 +76383,12 @@
       <c r="C32" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D32" s="430" t="s">
+      <c r="D32" s="397" t="s">
         <v>626</v>
       </c>
-      <c r="E32" s="431"/>
-      <c r="F32" s="431"/>
-      <c r="G32" s="432"/>
+      <c r="E32" s="398"/>
+      <c r="F32" s="398"/>
+      <c r="G32" s="399"/>
       <c r="H32" s="3" t="s">
         <v>627</v>
       </c>
@@ -75153,12 +76412,12 @@
       <c r="C33" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="430" t="s">
+      <c r="D33" s="397" t="s">
         <v>629</v>
       </c>
-      <c r="E33" s="431"/>
-      <c r="F33" s="431"/>
-      <c r="G33" s="432"/>
+      <c r="E33" s="398"/>
+      <c r="F33" s="398"/>
+      <c r="G33" s="399"/>
       <c r="H33" s="3" t="s">
         <v>627</v>
       </c>
@@ -75182,12 +76441,12 @@
       <c r="C34" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D34" s="430" t="s">
+      <c r="D34" s="397" t="s">
         <v>631</v>
       </c>
-      <c r="E34" s="431"/>
-      <c r="F34" s="431"/>
-      <c r="G34" s="432"/>
+      <c r="E34" s="398"/>
+      <c r="F34" s="398"/>
+      <c r="G34" s="399"/>
       <c r="H34" s="3" t="s">
         <v>598</v>
       </c>
@@ -75211,12 +76470,12 @@
       <c r="C35" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D35" s="430" t="s">
+      <c r="D35" s="397" t="s">
         <v>633</v>
       </c>
-      <c r="E35" s="431"/>
-      <c r="F35" s="431"/>
-      <c r="G35" s="432"/>
+      <c r="E35" s="398"/>
+      <c r="F35" s="398"/>
+      <c r="G35" s="399"/>
       <c r="H35" s="3" t="s">
         <v>598</v>
       </c>
@@ -75240,12 +76499,12 @@
       <c r="C36" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D36" s="430" t="s">
+      <c r="D36" s="397" t="s">
         <v>635</v>
       </c>
-      <c r="E36" s="431"/>
-      <c r="F36" s="431"/>
-      <c r="G36" s="432"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="399"/>
       <c r="H36" s="3" t="s">
         <v>598</v>
       </c>
@@ -75269,12 +76528,12 @@
       <c r="C37" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="D37" s="430" t="s">
+      <c r="D37" s="397" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="431"/>
-      <c r="F37" s="431"/>
-      <c r="G37" s="432"/>
+      <c r="E37" s="398"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="399"/>
       <c r="H37" s="3" t="s">
         <v>598</v>
       </c>
@@ -75298,12 +76557,12 @@
       <c r="C38" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D38" s="430" t="s">
+      <c r="D38" s="397" t="s">
         <v>639</v>
       </c>
-      <c r="E38" s="431"/>
-      <c r="F38" s="431"/>
-      <c r="G38" s="432"/>
+      <c r="E38" s="398"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="399"/>
       <c r="H38" s="3" t="s">
         <v>598</v>
       </c>
@@ -75330,12 +76589,12 @@
       <c r="C39" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D39" s="430" t="s">
+      <c r="D39" s="397" t="s">
         <v>641</v>
       </c>
-      <c r="E39" s="431"/>
-      <c r="F39" s="431"/>
-      <c r="G39" s="432"/>
+      <c r="E39" s="398"/>
+      <c r="F39" s="398"/>
+      <c r="G39" s="399"/>
       <c r="H39" s="3" t="s">
         <v>642</v>
       </c>
@@ -75359,12 +76618,12 @@
       <c r="C40" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D40" s="430" t="s">
+      <c r="D40" s="397" t="s">
         <v>644</v>
       </c>
-      <c r="E40" s="431"/>
-      <c r="F40" s="431"/>
-      <c r="G40" s="432"/>
+      <c r="E40" s="398"/>
+      <c r="F40" s="398"/>
+      <c r="G40" s="399"/>
       <c r="H40" s="3" t="s">
         <v>645</v>
       </c>
@@ -75388,12 +76647,12 @@
       <c r="C41" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D41" s="430" t="s">
+      <c r="D41" s="397" t="s">
         <v>647</v>
       </c>
-      <c r="E41" s="431"/>
-      <c r="F41" s="431"/>
-      <c r="G41" s="432"/>
+      <c r="E41" s="398"/>
+      <c r="F41" s="398"/>
+      <c r="G41" s="399"/>
       <c r="H41" s="3" t="s">
         <v>645</v>
       </c>
@@ -75417,12 +76676,12 @@
       <c r="C42" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D42" s="430" t="s">
+      <c r="D42" s="397" t="s">
         <v>647</v>
       </c>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="432"/>
+      <c r="E42" s="398"/>
+      <c r="F42" s="398"/>
+      <c r="G42" s="399"/>
       <c r="H42" s="3" t="s">
         <v>649</v>
       </c>
@@ -75446,12 +76705,12 @@
       <c r="C43" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D43" s="430" t="s">
+      <c r="D43" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="E43" s="431"/>
-      <c r="F43" s="431"/>
-      <c r="G43" s="432"/>
+      <c r="E43" s="398"/>
+      <c r="F43" s="398"/>
+      <c r="G43" s="399"/>
       <c r="H43" s="2" t="s">
         <v>651</v>
       </c>
@@ -75473,12 +76732,12 @@
       <c r="C44" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D44" s="430" t="s">
+      <c r="D44" s="397" t="s">
         <v>653</v>
       </c>
-      <c r="E44" s="431"/>
-      <c r="F44" s="431"/>
-      <c r="G44" s="432"/>
+      <c r="E44" s="398"/>
+      <c r="F44" s="398"/>
+      <c r="G44" s="399"/>
       <c r="H44" s="3" t="s">
         <v>654</v>
       </c>
@@ -75496,12 +76755,12 @@
       <c r="C45" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D45" s="430" t="s">
+      <c r="D45" s="397" t="s">
         <v>656</v>
       </c>
-      <c r="E45" s="431"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="432"/>
+      <c r="E45" s="398"/>
+      <c r="F45" s="398"/>
+      <c r="G45" s="399"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
         <v>3</v>
@@ -75523,12 +76782,12 @@
       <c r="C46" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D46" s="430" t="s">
+      <c r="D46" s="397" t="s">
         <v>658</v>
       </c>
-      <c r="E46" s="431"/>
-      <c r="F46" s="431"/>
-      <c r="G46" s="432"/>
+      <c r="E46" s="398"/>
+      <c r="F46" s="398"/>
+      <c r="G46" s="399"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <v>3</v>
@@ -75555,12 +76814,12 @@
       <c r="C47" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D47" s="430" t="s">
+      <c r="D47" s="397" t="s">
         <v>660</v>
       </c>
-      <c r="E47" s="431"/>
-      <c r="F47" s="431"/>
-      <c r="G47" s="432"/>
+      <c r="E47" s="398"/>
+      <c r="F47" s="398"/>
+      <c r="G47" s="399"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
         <v>3</v>
@@ -75582,12 +76841,12 @@
       <c r="C48" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D48" s="430" t="s">
+      <c r="D48" s="397" t="s">
         <v>662</v>
       </c>
-      <c r="E48" s="431"/>
-      <c r="F48" s="431"/>
-      <c r="G48" s="432"/>
+      <c r="E48" s="398"/>
+      <c r="F48" s="398"/>
+      <c r="G48" s="399"/>
       <c r="H48" s="2" t="s">
         <v>663</v>
       </c>
@@ -75604,17 +76863,17 @@
       </c>
     </row>
     <row r="50" spans="2:25" ht="56.25" customHeight="1" thickBot="1">
-      <c r="C50" s="433" t="s">
+      <c r="C50" s="407" t="s">
         <v>665</v>
       </c>
-      <c r="D50" s="434"/>
-      <c r="E50" s="434"/>
-      <c r="F50" s="434"/>
-      <c r="G50" s="434"/>
-      <c r="H50" s="434"/>
-      <c r="I50" s="434"/>
-      <c r="J50" s="434"/>
-      <c r="K50" s="435"/>
+      <c r="D50" s="408"/>
+      <c r="E50" s="408"/>
+      <c r="F50" s="408"/>
+      <c r="G50" s="408"/>
+      <c r="H50" s="408"/>
+      <c r="I50" s="408"/>
+      <c r="J50" s="408"/>
+      <c r="K50" s="409"/>
     </row>
     <row r="51" spans="2:25" ht="24" customHeight="1">
       <c r="C51" s="5"/>
@@ -75720,7 +76979,7 @@
       <c r="B55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="420" t="s">
+      <c r="C55" s="402" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -75763,7 +77022,7 @@
       <c r="B56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="421"/>
+      <c r="C56" s="403"/>
       <c r="D56" s="26" t="s">
         <v>14</v>
       </c>
@@ -75804,7 +77063,7 @@
       <c r="B57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="421"/>
+      <c r="C57" s="403"/>
       <c r="D57" s="26" t="s">
         <v>17</v>
       </c>
@@ -75845,7 +77104,7 @@
       <c r="B58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="421"/>
+      <c r="C58" s="403"/>
       <c r="D58" s="26" t="s">
         <v>18</v>
       </c>
@@ -75886,7 +77145,7 @@
       <c r="B59" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="421"/>
+      <c r="C59" s="403"/>
       <c r="D59" s="26" t="s">
         <v>19</v>
       </c>
@@ -75927,7 +77186,7 @@
       <c r="B60" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="421"/>
+      <c r="C60" s="403"/>
       <c r="D60" s="26" t="s">
         <v>21</v>
       </c>
@@ -75968,7 +77227,7 @@
       <c r="B61" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="421"/>
+      <c r="C61" s="403"/>
       <c r="D61" s="26" t="s">
         <v>23</v>
       </c>
@@ -76009,7 +77268,7 @@
       <c r="B62" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="422"/>
+      <c r="C62" s="404"/>
       <c r="D62" s="26" t="s">
         <v>25</v>
       </c>
@@ -76044,7 +77303,7 @@
       <c r="B63" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="420" t="s">
+      <c r="C63" s="402" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="85" t="s">
@@ -76083,7 +77342,7 @@
       <c r="Q63" s="28">
         <v>1.06</v>
       </c>
-      <c r="R63" s="436"/>
+      <c r="R63" s="410"/>
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
@@ -76095,7 +77354,7 @@
       <c r="B64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="421"/>
+      <c r="C64" s="403"/>
       <c r="D64" s="86" t="s">
         <v>30</v>
       </c>
@@ -76132,7 +77391,7 @@
       <c r="Q64" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R64" s="436"/>
+      <c r="R64" s="410"/>
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
@@ -76144,7 +77403,7 @@
       <c r="B65" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="421"/>
+      <c r="C65" s="403"/>
       <c r="D65" s="86" t="s">
         <v>32</v>
       </c>
@@ -76179,7 +77438,7 @@
       <c r="Q65" s="28">
         <v>3.11</v>
       </c>
-      <c r="R65" s="436"/>
+      <c r="R65" s="410"/>
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="18"/>
@@ -76191,7 +77450,7 @@
       <c r="B66" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="422"/>
+      <c r="C66" s="404"/>
       <c r="D66" s="86" t="s">
         <v>34</v>
       </c>
@@ -76228,7 +77487,7 @@
       <c r="Q66" s="28">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R66" s="426"/>
+      <c r="R66" s="411"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="18"/>
@@ -76240,7 +77499,7 @@
       <c r="B67" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="420" t="s">
+      <c r="C67" s="402" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="85" t="s">
@@ -76275,7 +77534,7 @@
       <c r="Q67" s="27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R67" s="428"/>
+      <c r="R67" s="405"/>
       <c r="S67" s="17"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
@@ -76288,7 +77547,7 @@
       <c r="B68" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="421"/>
+      <c r="C68" s="403"/>
       <c r="D68" s="85" t="s">
         <v>39</v>
       </c>
@@ -76321,7 +77580,7 @@
       <c r="Q68" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R68" s="429"/>
+      <c r="R68" s="406"/>
       <c r="S68" s="17"/>
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
@@ -76334,7 +77593,7 @@
       <c r="B69" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="422"/>
+      <c r="C69" s="404"/>
       <c r="D69" s="85" t="s">
         <v>41</v>
       </c>
@@ -76431,10 +77690,10 @@
       <c r="B71" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="420" t="s">
+      <c r="C71" s="402" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="420" t="s">
+      <c r="D71" s="402" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -76468,7 +77727,7 @@
         <v>187</v>
       </c>
       <c r="Q71" s="28"/>
-      <c r="R71" s="425" t="s">
+      <c r="R71" s="412" t="s">
         <v>685</v>
       </c>
       <c r="S71" s="18" t="s">
@@ -76487,8 +77746,8 @@
       <c r="B72" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="422"/>
-      <c r="D72" s="422"/>
+      <c r="C72" s="404"/>
+      <c r="D72" s="404"/>
       <c r="E72" s="26" t="s">
         <v>281</v>
       </c>
@@ -76520,7 +77779,7 @@
       <c r="Q72" s="28">
         <v>2.0299999999999998</v>
       </c>
-      <c r="R72" s="426"/>
+      <c r="R72" s="411"/>
       <c r="S72" s="18" t="s">
         <v>688</v>
       </c>
@@ -76581,7 +77840,7 @@
       <c r="B74" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="421" t="s">
+      <c r="C74" s="403" t="s">
         <v>52</v>
       </c>
       <c r="D74" s="85" t="s">
@@ -76632,7 +77891,7 @@
       <c r="B75" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="421"/>
+      <c r="C75" s="403"/>
       <c r="D75" s="85" t="s">
         <v>55</v>
       </c>
@@ -76681,7 +77940,7 @@
       <c r="B76" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="421"/>
+      <c r="C76" s="403"/>
       <c r="D76" s="69" t="s">
         <v>56</v>
       </c>
@@ -76721,7 +77980,7 @@
       <c r="B77" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="421"/>
+      <c r="C77" s="403"/>
       <c r="D77" s="85" t="s">
         <v>58</v>
       </c>
@@ -76773,7 +78032,7 @@
       <c r="B78" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="421"/>
+      <c r="C78" s="403"/>
       <c r="D78" s="69" t="s">
         <v>60</v>
       </c>
@@ -76811,7 +78070,7 @@
       <c r="B79" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="421"/>
+      <c r="C79" s="403"/>
       <c r="D79" s="69" t="s">
         <v>62</v>
       </c>
@@ -76859,7 +78118,7 @@
       <c r="B80" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="422"/>
+      <c r="C80" s="404"/>
       <c r="D80" s="26" t="s">
         <v>66</v>
       </c>
@@ -76936,7 +78195,7 @@
       <c r="Q81" s="28">
         <v>1.05</v>
       </c>
-      <c r="R81" s="427"/>
+      <c r="R81" s="413"/>
       <c r="T81" s="17"/>
       <c r="U81" s="17"/>
       <c r="V81" s="17"/>
@@ -76948,7 +78207,7 @@
       <c r="B82" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="421" t="s">
+      <c r="C82" s="403" t="s">
         <v>70</v>
       </c>
       <c r="D82" s="25" t="s">
@@ -76985,7 +78244,7 @@
       <c r="Q82" s="28">
         <v>3.3</v>
       </c>
-      <c r="R82" s="427"/>
+      <c r="R82" s="413"/>
       <c r="T82" s="17"/>
       <c r="U82" s="17"/>
       <c r="V82" s="17"/>
@@ -76997,7 +78256,7 @@
       <c r="B83" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="421"/>
+      <c r="C83" s="403"/>
       <c r="D83" s="25" t="s">
         <v>73</v>
       </c>
@@ -77030,7 +78289,7 @@
       <c r="Q83" s="28">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R83" s="427"/>
+      <c r="R83" s="413"/>
       <c r="T83" s="17"/>
       <c r="U83" s="17"/>
       <c r="V83" s="17"/>
@@ -77042,7 +78301,7 @@
       <c r="B84" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="421"/>
+      <c r="C84" s="403"/>
       <c r="D84" s="25" t="s">
         <v>75</v>
       </c>
@@ -77077,7 +78336,7 @@
       <c r="Q84" s="28">
         <v>5.03</v>
       </c>
-      <c r="R84" s="427"/>
+      <c r="R84" s="413"/>
       <c r="T84" s="17"/>
       <c r="U84" s="17"/>
       <c r="V84" s="17"/>
@@ -77089,7 +78348,7 @@
       <c r="B85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="422"/>
+      <c r="C85" s="404"/>
       <c r="D85" s="25" t="s">
         <v>77</v>
       </c>
@@ -77124,7 +78383,7 @@
       <c r="Q85" s="28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R85" s="427"/>
+      <c r="R85" s="413"/>
       <c r="T85" s="17"/>
       <c r="U85" s="17"/>
       <c r="V85" s="17"/>
@@ -77136,7 +78395,7 @@
       <c r="B86" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="421" t="s">
+      <c r="C86" s="403" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="60" t="s">
@@ -77180,10 +78439,10 @@
         <v>1.04</v>
       </c>
       <c r="R86" s="416"/>
-      <c r="S86" s="423" t="s">
+      <c r="S86" s="418" t="s">
         <v>315</v>
       </c>
-      <c r="T86" s="424"/>
+      <c r="T86" s="419"/>
       <c r="U86" s="17"/>
       <c r="V86" s="17"/>
       <c r="W86" s="17"/>
@@ -77194,7 +78453,7 @@
       <c r="B87" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="421"/>
+      <c r="C87" s="403"/>
       <c r="D87" s="25" t="s">
         <v>81</v>
       </c>
@@ -77250,7 +78509,7 @@
       <c r="B88" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="421"/>
+      <c r="C88" s="403"/>
       <c r="D88" s="25" t="s">
         <v>84</v>
       </c>
@@ -77310,7 +78569,7 @@
       <c r="B89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="421"/>
+      <c r="C89" s="403"/>
       <c r="D89" s="25" t="s">
         <v>86</v>
       </c>
@@ -77363,7 +78622,7 @@
       <c r="B90" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="421"/>
+      <c r="C90" s="403"/>
       <c r="D90" s="25" t="s">
         <v>88</v>
       </c>
@@ -77414,7 +78673,7 @@
       <c r="B91" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="421"/>
+      <c r="C91" s="403"/>
       <c r="D91" s="25" t="s">
         <v>91</v>
       </c>
@@ -77464,7 +78723,7 @@
       <c r="B92" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="421"/>
+      <c r="C92" s="403"/>
       <c r="D92" s="25" t="s">
         <v>93</v>
       </c>
@@ -77514,7 +78773,7 @@
       <c r="B93" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="421"/>
+      <c r="C93" s="403"/>
       <c r="D93" s="25" t="s">
         <v>95</v>
       </c>
@@ -77563,7 +78822,7 @@
       <c r="B94" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="422"/>
+      <c r="C94" s="404"/>
       <c r="D94" s="25" t="s">
         <v>97</v>
       </c>
@@ -77664,7 +78923,7 @@
       <c r="B96" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="421" t="s">
+      <c r="C96" s="403" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -77699,7 +78958,7 @@
       <c r="Q96" s="37">
         <v>1.03</v>
       </c>
-      <c r="R96" s="410"/>
+      <c r="R96" s="420"/>
       <c r="T96" s="18"/>
       <c r="U96" s="17"/>
       <c r="V96" s="17"/>
@@ -77711,7 +78970,7 @@
       <c r="B97" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="422"/>
+      <c r="C97" s="404"/>
       <c r="D97" s="58" t="s">
         <v>102</v>
       </c>
@@ -77744,7 +79003,7 @@
       <c r="Q97" s="37">
         <v>2</v>
       </c>
-      <c r="R97" s="411"/>
+      <c r="R97" s="421"/>
       <c r="T97" s="18"/>
       <c r="U97" s="17"/>
       <c r="V97" s="17"/>
@@ -77756,7 +79015,7 @@
       <c r="B98" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="420" t="s">
+      <c r="C98" s="402" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="26" t="s">
@@ -77810,7 +79069,7 @@
       <c r="B99" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="421"/>
+      <c r="C99" s="403"/>
       <c r="D99" s="31" t="s">
         <v>107</v>
       </c>
@@ -77861,7 +79120,7 @@
       <c r="B100" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="422"/>
+      <c r="C100" s="404"/>
       <c r="D100" s="86" t="s">
         <v>108</v>
       </c>
@@ -77912,7 +79171,7 @@
       <c r="B101" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="420" t="s">
+      <c r="C101" s="402" t="s">
         <v>110</v>
       </c>
       <c r="D101" s="26" t="s">
@@ -77968,7 +79227,7 @@
       <c r="B102" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="422"/>
+      <c r="C102" s="404"/>
       <c r="D102" s="26" t="s">
         <v>112</v>
       </c>
@@ -78019,7 +79278,7 @@
       <c r="B103" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="397" t="s">
+      <c r="C103" s="422" t="s">
         <v>113</v>
       </c>
       <c r="D103" s="26" t="s">
@@ -78056,7 +79315,7 @@
       <c r="Q103" s="28">
         <v>1.03</v>
       </c>
-      <c r="R103" s="415" t="s">
+      <c r="R103" s="424" t="s">
         <v>113</v>
       </c>
       <c r="T103" s="17"/>
@@ -78070,7 +79329,7 @@
       <c r="B104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="399"/>
+      <c r="C104" s="423"/>
       <c r="D104" s="26" t="s">
         <v>115</v>
       </c>
@@ -78158,7 +79417,7 @@
       <c r="Q105" s="28">
         <v>1.03</v>
       </c>
-      <c r="R105" s="415" t="s">
+      <c r="R105" s="424" t="s">
         <v>117</v>
       </c>
       <c r="T105" s="17"/>
@@ -78172,7 +79431,7 @@
       <c r="B106" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="412" t="s">
+      <c r="C106" s="414" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="31" t="s">
@@ -78229,7 +79488,7 @@
       <c r="B107" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="413"/>
+      <c r="C107" s="425"/>
       <c r="D107" s="31" t="s">
         <v>121</v>
       </c>
@@ -78288,7 +79547,7 @@
       <c r="B108" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="413"/>
+      <c r="C108" s="425"/>
       <c r="D108" s="31" t="s">
         <v>123</v>
       </c>
@@ -78346,7 +79605,7 @@
       <c r="B109" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="413"/>
+      <c r="C109" s="425"/>
       <c r="D109" s="31" t="s">
         <v>125</v>
       </c>
@@ -78404,7 +79663,7 @@
       <c r="B110" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="413"/>
+      <c r="C110" s="425"/>
       <c r="D110" s="31" t="s">
         <v>126</v>
       </c>
@@ -78462,7 +79721,7 @@
       <c r="B111" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="413"/>
+      <c r="C111" s="425"/>
       <c r="D111" s="31" t="s">
         <v>128</v>
       </c>
@@ -78514,7 +79773,7 @@
       <c r="B112" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="414"/>
+      <c r="C112" s="415"/>
       <c r="D112" s="31" t="s">
         <v>131</v>
       </c>
@@ -78563,7 +79822,7 @@
       <c r="B113" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="412" t="s">
+      <c r="C113" s="414" t="s">
         <v>132</v>
       </c>
       <c r="D113" s="26" t="s">
@@ -78618,7 +79877,7 @@
       <c r="B114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="414"/>
+      <c r="C114" s="415"/>
       <c r="D114" s="26" t="s">
         <v>134</v>
       </c>
@@ -78671,7 +79930,7 @@
       <c r="B115" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="412" t="s">
+      <c r="C115" s="414" t="s">
         <v>136</v>
       </c>
       <c r="D115" s="26" t="s">
@@ -78729,7 +79988,7 @@
       <c r="B116" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="413"/>
+      <c r="C116" s="425"/>
       <c r="D116" s="26" t="s">
         <v>137</v>
       </c>
@@ -78791,7 +80050,7 @@
       <c r="B117" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="413"/>
+      <c r="C117" s="425"/>
       <c r="D117" s="26" t="s">
         <v>142</v>
       </c>
@@ -78840,7 +80099,7 @@
       <c r="B118" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="414"/>
+      <c r="C118" s="415"/>
       <c r="D118" s="34" t="s">
         <v>140</v>
       </c>
@@ -79037,7 +80296,7 @@
       <c r="Q121" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R121" s="415" t="s">
+      <c r="R121" s="424" t="s">
         <v>147</v>
       </c>
       <c r="T121" s="17"/>
@@ -79051,7 +80310,7 @@
       <c r="B122" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="412" t="s">
+      <c r="C122" s="414" t="s">
         <v>147</v>
       </c>
       <c r="D122" s="26" t="s">
@@ -79102,7 +80361,7 @@
       <c r="B123" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="413"/>
+      <c r="C123" s="425"/>
       <c r="D123" s="26" t="s">
         <v>150</v>
       </c>
@@ -79147,7 +80406,7 @@
       <c r="B124" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="414"/>
+      <c r="C124" s="415"/>
       <c r="D124" s="26" t="s">
         <v>152</v>
       </c>
@@ -79339,7 +80598,7 @@
       <c r="B128" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="418" t="s">
+      <c r="C128" s="428" t="s">
         <v>156</v>
       </c>
       <c r="D128" s="76" t="s">
@@ -79383,7 +80642,7 @@
       <c r="B129" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="419"/>
+      <c r="C129" s="429"/>
       <c r="D129" s="80" t="s">
         <v>158</v>
       </c>
@@ -79724,7 +80983,7 @@
       <c r="B137" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="397" t="s">
+      <c r="C137" s="422" t="s">
         <v>174</v>
       </c>
       <c r="D137" s="26" t="s">
@@ -79761,7 +81020,7 @@
       <c r="B138" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="398"/>
+      <c r="C138" s="426"/>
       <c r="D138" s="26" t="s">
         <v>175</v>
       </c>
@@ -79796,7 +81055,7 @@
       <c r="B139" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C139" s="398"/>
+      <c r="C139" s="426"/>
       <c r="D139" s="26" t="s">
         <v>177</v>
       </c>
@@ -79837,7 +81096,7 @@
       <c r="B140" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="398"/>
+      <c r="C140" s="426"/>
       <c r="D140" s="26" t="s">
         <v>1247</v>
       </c>
@@ -79881,7 +81140,7 @@
       <c r="B141" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C141" s="398"/>
+      <c r="C141" s="426"/>
       <c r="D141" s="26" t="s">
         <v>1252</v>
       </c>
@@ -79923,7 +81182,7 @@
       <c r="B142" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C142" s="398"/>
+      <c r="C142" s="426"/>
       <c r="D142" s="26" t="s">
         <v>1256</v>
       </c>
@@ -79965,7 +81224,7 @@
       <c r="B143" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C143" s="398"/>
+      <c r="C143" s="426"/>
       <c r="D143" s="26" t="s">
         <v>1259</v>
       </c>
@@ -80007,7 +81266,7 @@
       <c r="B144" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="C144" s="399"/>
+      <c r="C144" s="423"/>
       <c r="D144" s="26" t="s">
         <v>1263</v>
       </c>
@@ -80166,7 +81425,7 @@
       <c r="B148" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C148" s="420" t="s">
+      <c r="C148" s="402" t="s">
         <v>185</v>
       </c>
       <c r="D148" s="26" t="s">
@@ -80205,7 +81464,7 @@
       <c r="Q148" s="28">
         <v>1.02</v>
       </c>
-      <c r="R148" s="409" t="s">
+      <c r="R148" s="427" t="s">
         <v>185</v>
       </c>
       <c r="T148" s="17"/>
@@ -80219,7 +81478,7 @@
       <c r="B149" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C149" s="421"/>
+      <c r="C149" s="403"/>
       <c r="D149" s="26" t="s">
         <v>188</v>
       </c>
@@ -80256,7 +81515,7 @@
       <c r="Q149" s="28">
         <v>2.1</v>
       </c>
-      <c r="R149" s="410"/>
+      <c r="R149" s="420"/>
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
       <c r="V149" s="17"/>
@@ -80268,7 +81527,7 @@
       <c r="B150" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C150" s="421"/>
+      <c r="C150" s="403"/>
       <c r="D150" s="26" t="s">
         <v>190</v>
       </c>
@@ -80303,7 +81562,7 @@
       <c r="O150" s="27"/>
       <c r="P150" s="27"/>
       <c r="Q150" s="28"/>
-      <c r="R150" s="410"/>
+      <c r="R150" s="420"/>
       <c r="T150" s="17"/>
       <c r="U150" s="17"/>
       <c r="V150" s="17"/>
@@ -80315,7 +81574,7 @@
       <c r="B151" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="421"/>
+      <c r="C151" s="403"/>
       <c r="D151" s="26" t="s">
         <v>192</v>
       </c>
@@ -80352,7 +81611,7 @@
       <c r="Q151" s="37">
         <v>3.04</v>
       </c>
-      <c r="R151" s="411"/>
+      <c r="R151" s="421"/>
       <c r="T151" s="18"/>
       <c r="U151" s="17"/>
       <c r="V151" s="17"/>
@@ -80364,7 +81623,7 @@
       <c r="B152" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="421"/>
+      <c r="C152" s="403"/>
       <c r="D152" s="26" t="s">
         <v>194</v>
       </c>
@@ -80409,7 +81668,7 @@
       <c r="B153" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C153" s="422"/>
+      <c r="C153" s="404"/>
       <c r="D153" s="26" t="s">
         <v>196</v>
       </c>
@@ -80560,7 +81819,7 @@
       <c r="B156" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="397" t="s">
+      <c r="C156" s="422" t="s">
         <v>202</v>
       </c>
       <c r="D156" s="31" t="s">
@@ -80593,7 +81852,7 @@
       <c r="Q156" s="28">
         <v>1.01</v>
       </c>
-      <c r="R156" s="409" t="s">
+      <c r="R156" s="427" t="s">
         <v>202</v>
       </c>
       <c r="S156" s="17" t="s">
@@ -80612,7 +81871,7 @@
       <c r="B157" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="399"/>
+      <c r="C157" s="423"/>
       <c r="D157" s="46" t="s">
         <v>204</v>
       </c>
@@ -80647,7 +81906,7 @@
       <c r="Q157" s="37">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R157" s="411"/>
+      <c r="R157" s="421"/>
       <c r="S157" s="23"/>
       <c r="T157" s="23"/>
       <c r="U157" s="23"/>
@@ -80660,7 +81919,7 @@
       <c r="B158" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="397" t="s">
+      <c r="C158" s="422" t="s">
         <v>205</v>
       </c>
       <c r="D158" s="26" t="s">
@@ -80699,7 +81958,7 @@
       <c r="Q158" s="28">
         <v>3.1</v>
       </c>
-      <c r="R158" s="415" t="s">
+      <c r="R158" s="424" t="s">
         <v>444</v>
       </c>
       <c r="T158" s="17"/>
@@ -80713,7 +81972,7 @@
       <c r="B159" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="399"/>
+      <c r="C159" s="423"/>
       <c r="D159" s="26" t="s">
         <v>208</v>
       </c>
@@ -80815,7 +82074,7 @@
       <c r="B161" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="397" t="s">
+      <c r="C161" s="422" t="s">
         <v>211</v>
       </c>
       <c r="D161" s="31" t="s">
@@ -80864,7 +82123,7 @@
       <c r="B162" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C162" s="399"/>
+      <c r="C162" s="423"/>
       <c r="D162" s="31" t="s">
         <v>214</v>
       </c>
@@ -80963,7 +82222,7 @@
       <c r="B164" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C164" s="397" t="s">
+      <c r="C164" s="422" t="s">
         <v>217</v>
       </c>
       <c r="D164" s="26" t="s">
@@ -81004,7 +82263,7 @@
       <c r="Q164" s="28">
         <v>1.3</v>
       </c>
-      <c r="R164" s="409" t="s">
+      <c r="R164" s="427" t="s">
         <v>460</v>
       </c>
       <c r="T164" s="17"/>
@@ -81018,7 +82277,7 @@
       <c r="B165" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="398"/>
+      <c r="C165" s="426"/>
       <c r="D165" s="26" t="s">
         <v>220</v>
       </c>
@@ -81061,7 +82320,7 @@
       <c r="Q165" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R165" s="410"/>
+      <c r="R165" s="420"/>
       <c r="T165" s="17"/>
       <c r="U165" s="17"/>
       <c r="V165" s="17"/>
@@ -81073,7 +82332,7 @@
       <c r="B166" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="398"/>
+      <c r="C166" s="426"/>
       <c r="D166" s="26" t="s">
         <v>221</v>
       </c>
@@ -81116,7 +82375,7 @@
       <c r="Q166" s="28">
         <v>3.02</v>
       </c>
-      <c r="R166" s="411"/>
+      <c r="R166" s="421"/>
       <c r="T166" s="17"/>
       <c r="U166" s="17"/>
       <c r="V166" s="17"/>
@@ -81128,7 +82387,7 @@
       <c r="B167" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="399"/>
+      <c r="C167" s="423"/>
       <c r="D167" s="31" t="s">
         <v>223</v>
       </c>
@@ -81181,7 +82440,7 @@
       <c r="B168" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="397" t="s">
+      <c r="C168" s="422" t="s">
         <v>225</v>
       </c>
       <c r="D168" s="60" t="s">
@@ -81232,7 +82491,7 @@
     </row>
     <row r="169" spans="1:25" ht="24.95" customHeight="1">
       <c r="B169" s="59"/>
-      <c r="C169" s="398"/>
+      <c r="C169" s="426"/>
       <c r="D169" s="60" t="s">
         <v>228</v>
       </c>
@@ -81275,7 +82534,7 @@
     </row>
     <row r="170" spans="1:25" ht="24.95" customHeight="1">
       <c r="B170" s="59"/>
-      <c r="C170" s="399"/>
+      <c r="C170" s="423"/>
       <c r="D170" s="60" t="s">
         <v>230</v>
       </c>
@@ -81318,7 +82577,7 @@
       <c r="B171" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="397" t="s">
+      <c r="C171" s="422" t="s">
         <v>232</v>
       </c>
       <c r="D171" s="31" t="s">
@@ -81360,7 +82619,7 @@
       <c r="B172" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C172" s="399"/>
+      <c r="C172" s="423"/>
       <c r="D172" s="31" t="s">
         <v>1322</v>
       </c>
@@ -81401,7 +82660,7 @@
       <c r="B173" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C173" s="400" t="s">
+      <c r="C173" s="430" t="s">
         <v>234</v>
       </c>
       <c r="D173" s="39" t="s">
@@ -81448,7 +82707,7 @@
       <c r="B174" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="401"/>
+      <c r="C174" s="431"/>
       <c r="D174" s="39" t="s">
         <v>236</v>
       </c>
@@ -81493,7 +82752,7 @@
       <c r="B175" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="401"/>
+      <c r="C175" s="431"/>
       <c r="D175" s="39" t="s">
         <v>238</v>
       </c>
@@ -81538,7 +82797,7 @@
       <c r="B176" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="401"/>
+      <c r="C176" s="431"/>
       <c r="D176" s="39" t="s">
         <v>240</v>
       </c>
@@ -81583,7 +82842,7 @@
       <c r="B177" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="401"/>
+      <c r="C177" s="431"/>
       <c r="D177" s="39" t="s">
         <v>242</v>
       </c>
@@ -81628,7 +82887,7 @@
       <c r="B178" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="402"/>
+      <c r="C178" s="432"/>
       <c r="D178" s="39" t="s">
         <v>243</v>
       </c>
@@ -81673,7 +82932,7 @@
       <c r="B179" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C179" s="403" t="s">
+      <c r="C179" s="433" t="s">
         <v>245</v>
       </c>
       <c r="D179" s="39" t="s">
@@ -81720,7 +82979,7 @@
       <c r="B180" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="404"/>
+      <c r="C180" s="434"/>
       <c r="D180" s="39" t="s">
         <v>247</v>
       </c>
@@ -81761,7 +83020,7 @@
       <c r="B181" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="404"/>
+      <c r="C181" s="434"/>
       <c r="D181" s="39" t="s">
         <v>248</v>
       </c>
@@ -81804,7 +83063,7 @@
       <c r="B182" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C182" s="404"/>
+      <c r="C182" s="434"/>
       <c r="D182" s="39" t="s">
         <v>249</v>
       </c>
@@ -81847,15 +83106,15 @@
       <c r="B183" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="404"/>
+      <c r="C183" s="434"/>
       <c r="D183" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E183" s="406" t="s">
+      <c r="E183" s="436" t="s">
         <v>808</v>
       </c>
-      <c r="F183" s="407"/>
-      <c r="G183" s="408"/>
+      <c r="F183" s="437"/>
+      <c r="G183" s="438"/>
       <c r="H183" s="38" t="s">
         <v>423</v>
       </c>
@@ -81889,15 +83148,15 @@
       <c r="B184" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="405"/>
+      <c r="C184" s="435"/>
       <c r="D184" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E184" s="406" t="s">
+      <c r="E184" s="436" t="s">
         <v>808</v>
       </c>
-      <c r="F184" s="407"/>
-      <c r="G184" s="408"/>
+      <c r="F184" s="437"/>
+      <c r="G184" s="438"/>
       <c r="H184" s="38" t="s">
         <v>423</v>
       </c>
@@ -81927,72 +83186,18 @@
   </sheetData>
   <autoFilter ref="B53:Q184" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="93">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="R63:R66"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="R81:R85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="R86:R94"/>
-    <mergeCell ref="R105:R110"/>
-    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="C179:C184"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="R156:R157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="R158:R162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="R164:R166"/>
     <mergeCell ref="C148:C153"/>
     <mergeCell ref="R148:R151"/>
     <mergeCell ref="C156:C157"/>
@@ -82008,18 +83213,72 @@
     <mergeCell ref="C122:C124"/>
     <mergeCell ref="C128:C129"/>
     <mergeCell ref="C137:C144"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="C179:C184"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="E184:G184"/>
-    <mergeCell ref="R156:R157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="R158:R162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="R164:R166"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="R81:R85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="R86:R94"/>
+    <mergeCell ref="R105:R110"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="R63:R66"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.55118110236220474" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -82034,12 +83293,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91d85bdb-9e43-4612-a355-15dcada7f308">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="59ea8695-c762-4878-851f-fa6dcb8e5ca6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82284,20 +83545,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91d85bdb-9e43-4612-a355-15dcada7f308">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="59ea8695-c762-4878-851f-fa6dcb8e5ca6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A65B04-09B4-4C85-8512-1DFC0D49F61A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C132A-861B-42F5-8545-9D1F1DA06BBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="59ea8695-c762-4878-851f-fa6dcb8e5ca6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="91d85bdb-9e43-4612-a355-15dcada7f308"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -82322,18 +83590,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C132A-861B-42F5-8545-9D1F1DA06BBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A65B04-09B4-4C85-8512-1DFC0D49F61A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="59ea8695-c762-4878-851f-fa6dcb8e5ca6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="91d85bdb-9e43-4612-a355-15dcada7f308"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>